--- a/data/Brasil_FAPEMA.xlsx
+++ b/data/Brasil_FAPEMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 011/2021</t>
+          <t>Edital FAPEMA Nº 012/2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-011-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-012-2021/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O presente edital é destinado a estudantes, maranhenses e/ou residentes no estado do Maranhão, matriculados ou cursando Pós-Graduação em nível de Mestrado em PPG ligados a instituição de Ensino Superior (IES), públicas ou privadas, sem fins lucrativos, sediadas fora do estado do Maranhão.     Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de Divulgação do  A partir de do Resultado Parcial Divulgação do  A partir de © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 30/05/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 11/06/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 30/06/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito e Curricular A partir de 21/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e Curricular A partir de 04/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Avaliação de Mérito e Curricular</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/05/publicado_edital_fapema_n_12.2021_pos_graduacao_1_.pdf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O presente edital é destinado a estudantes, maranhenses e/ou residentes no estado do Maranhão, matriculados ou cursando Pós-Graduação em nível de Mestrado em PPG ligados a instituição de Ensino Superior (IES), públicas ou privadas, sem fins lucrativos, sediadas fora do estado do Maranhão.     Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de Divulgação do  A partir de do Resultado Parcial Divulgação do  A partir de © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 30/05/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 11/06/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 30/06/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito e Curricular A partir de 21/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e Curricular A partir de 04/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Avaliação de Mérito e Curricular </t>
+          <t xml:space="preserve">Coordenadores ou vice-coordenadores de Programas de Pós-Graduação Stricto Sensu ligados a Instituições de Ensino Superior (IES) públicas ou privadas sem fins lucrativos sediadas no Estado do Maranhão.    Divulgação do  A partir de do Resultado Parcial Divulgação do  A partir de Divulgação do  (projeto e currículo) A partir de do resultado parcial Divulgação do  (projeto e currículo) A partir de ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 02/07/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 16/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento A partir de 06/08/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito (projeto e currículo) A partir de 27/08/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito (projeto e currículo) A partir de 17/09/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final </t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 010/2021 – INFRAESTRUTURA</t>
+          <t>Edital FAPEMA Nº 011/2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-010-2021-infraestrutura/</t>
+          <t>https://www.fapema.br/edital-fapema-no-011-2021/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Professores(as) com vínculo de docente permanente em Programas de Pós- Graduação (PPG) stricto sensu ligados a Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no Maranhão.    Divulgação do  A partir de do resultado parcial Divulgação do  A partir de Divulgação do  (projeto e currículo) A partir de do resultado parcial Divulgação do  (projeto e currículo) A partir de © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 23/05/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 09/06/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 25/06/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito (projeto e currículo) A partir de 20/07/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito (projeto e currículo) A partir de 06/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/05/retificacao_edital_fapema_11.2021_bolsa_de_mestrado_6_.pdf</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professores(as) com vínculo de docente permanente em Programas de Pós- Graduação (PPG) stricto sensu ligados a Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no Maranhão.    Divulgação do  A partir de do resultado parcial Divulgação do  A partir de Divulgação do  (projeto e currículo) A partir de do resultado parcial Divulgação do  (projeto e currículo) A partir de © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 23/05/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 09/06/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 25/06/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito (projeto e currículo) A partir de 20/07/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito (projeto e currículo) A partir de 06/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final </t>
+          <t xml:space="preserve"> O presente edital é destinado a estudantes, maranhenses e/ou residentes no estado do Maranhão, matriculados ou cursando Pós-Graduação em nível de Mestrado em PPG ligados a instituição de Ensino Superior (IES), públicas ou privadas, sem fins lucrativos, sediadas fora do estado do Maranhão.       Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de Divulgação do  A partir de do Resultado Parcial Divulgação do  A partir de  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 04/06/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 18 / 06/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 0 9/07/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito e Curricular A partir de 21/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e Curricular A partir de 04/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Avaliação de Mérito e Curricular </t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/IMESC/SEPLAN Nº 09/2021</t>
+          <t>Edital FAPEMA Nº 010/2021 – INFRAESTRUTURA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-imesc-seplan-no-09-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-010-2021-infraestrutura/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O edital é destinado a selecionar profissionais com graduação em Economia, Serviço Social, Ciências Sociais, Administração, Administração Pública, Ciências Contábeis, Geografia, Engenharia de Produção, Políticas Públicas, Gestão de Políticas Públicas, Estatística, Ciências da Computação, Engenharia da Computação, Tecnologia da Informação, Sistema de Informação, Tecnologia em Redes de Computadores, preferencialmente, que possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, na realização de visitas in loco. O local de atuação se dará nas sedes do IMESC e da SEPLAN. Ocasionalmente, poderão ocorrer trabalhos de campo, se a instituição julgar necessário. As atividades dos bolsistas serão orientadas e monitoradas por técnicos das instituições supracitadas.         Divulgação do  do Resultado Parcial do Enquadramento Divulgação do  do Resultado Parcial da Análise Divulgação do  do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 25/04/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 03/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 17/05/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 15/06/2021 Entrevista Convocação para Realização da Entrevista A partir de 15/06/2021 Divulgação do Resultado Parcial da Entrevista A partir de 21/06/2021 Período de Recurso 05 dias após divulgação do Resultado Parcial da Entrevista Divulgação do Resultado Final da Entrevista A partir de 02/07/2021 Divulgação do Resultado Final A partir de 02/07/2021 Entrega da documentação impressa (proponentes aprovados) 05 dias após a divulgação do Resultado Final da Análise</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/04/retificacao_edital_fapema_10.2021_infraestrutura_1_ASSINADA..pdf</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">O edital é destinado a selecionar profissionais com graduação em Economia, Serviço Social, Ciências Sociais, Administração, Administração Pública, Ciências Contábeis, Geografia, Engenharia de Produção, Políticas Públicas, Gestão de Políticas Públicas, Estatística, Ciências da Computação, Engenharia da Computação, Tecnologia da Informação, Sistema de Informação, Tecnologia em Redes de Computadores, preferencialmente, que possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, na realização de visitas in loco. O local de atuação se dará nas sedes do IMESC e da SEPLAN. Ocasionalmente, poderão ocorrer trabalhos de campo, se a instituição julgar necessário. As atividades dos bolsistas serão orientadas e monitoradas por técnicos das instituições supracitadas.         Divulgação do  do Resultado Parcial do Enquadramento Divulgação do  do Resultado Parcial da Análise Divulgação do  do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 25/04/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 03/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 17/05/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 15/06/2021 Entrevista Convocação para Realização da Entrevista A partir de 15/06/2021 Divulgação do Resultado Parcial da Entrevista A partir de 21/06/2021 Período de Recurso 05 dias após divulgação do Resultado Parcial da Entrevista Divulgação do Resultado Final da Entrevista A partir de 02/07/2021 Divulgação do Resultado Final A partir de 02/07/2021 Entrega da documentação impressa (proponentes aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
+          <t xml:space="preserve"> Professores(as) com vínculo de docente permanente em Programas de Pós- Graduação (PPG) stricto sensu ligados a Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no Maranhão.          Divulgação do  A partir de do resultado parcial Divulgação do  A partir de Divulgação do  (projeto e currículo) A partir de do resultado parcial Divulgação do  (projeto e currículo) A partir de  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 04/06/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 18/06/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 09/07/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito (projeto e currículo) A partir de 30/07/2021 Período de Recursos 05 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito (projeto e currículo) A partir de 20/08/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final </t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/SEPE/IMESC/TJMA Nº 08/2021</t>
+          <t>Edital FAPEMA/IMESC/SEPLAN Nº 09/2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-sepe-imesc-tjma-no-08-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-imesc-seplan-no-09-2021/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Profissionais com formação superior completa nas áreas de Ciência da Computação, Engenharia de Computação, Sistema de Informação, Análise e Desenvolvimento de Sistemas, Engenharia de Produção, Geografia ou Matemática, com pós-graduação concluída em nível de mestrado e com experiência nas respectivas áreas de atuação previstas neste edital. O local de atuação se dará na sede da SEPE/IMESC/TJMA ou em trabalhos de campo em conjunto com os técnicos da SEPE/IMESC/TJMA, que acompanharão e orientarão os bolsistas contratados.        Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 23/04/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Etapa 2 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/04/RESULTADO_FINAL_do_enquadramento_do_edital_ignacio_rangel_ii_1_ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Profissionais com formação superior completa nas áreas de Ciência da Computação, Engenharia de Computação, Sistema de Informação, Análise e Desenvolvimento de Sistemas, Engenharia de Produção, Geografia ou Matemática, com pós-graduação concluída em nível de mestrado e com experiência nas respectivas áreas de atuação previstas neste edital. O local de atuação se dará na sede da SEPE/IMESC/TJMA ou em trabalhos de campo em conjunto com os técnicos da SEPE/IMESC/TJMA, que acompanharão e orientarão os bolsistas contratados.        Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 23/04/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Etapa 2 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final </t>
+          <t xml:space="preserve">O edital é destinado a selecionar profissionais com graduação em Economia, Serviço Social, Ciências Sociais, Administração, Administração Pública, Ciências Contábeis, Geografia, Engenharia de Produção, Políticas Públicas, Gestão de Políticas Públicas, Estatística, Ciências da Computação, Engenharia da Computação, Tecnologia da Informação, Sistema de Informação, Tecnologia em Redes de Computadores, preferencialmente, que possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, na realização de visitas in loco. O local de atuação se dará nas sedes do IMESC e da SEPLAN. Ocasionalmente, poderão ocorrer trabalhos de campo, se a instituição julgar necessário. As atividades dos bolsistas serão orientadas e monitoradas por técnicos das instituições supracitadas.           Divulgação do  do Resultado Parcial do Enquadramento Divulgação do  do Resultado Parcial da Análise Divulgação do  do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 25/04/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 03/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 17/05/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 15/06/2021 Entrevista Convocação para Realização da Entrevista A partir de 15/06/2021 Divulgação do Resultado Parcial da Entrevista A partir de 21/06/2021 Período de Recurso 05 dias após divulgação do Resultado Parcial da Entrevista Divulgação do Resultado Final da Entrevista A partir de 02/07/2021 Divulgação do Resultado Final A partir de 02/07/2021 Entrega da documentação impressa (proponentes aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 07/2021</t>
+          <t>Edital FAPEMA/SEPE/IMESC/TJMA Nº 08/2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-07-2021-bolsa-de-estimulo-a-produtividade-em-pesquisa/</t>
+          <t>https://www.fapema.br/edital-fapema-sepe-imesc-tjma-no-08-2021/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O edital é destinado a professores(as) pesquisadores(as) doutores(as) com vínculo empregatício efetivo com Instituições de Ensino ou Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, e pertencentes ao quadro docente permanente de Programas de Pós-Graduação Strico Sensu.           Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de A partir de do Resultado Parcial da Análise Divulgação do  A partir de do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 07/05/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 18/06/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 07/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 23/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/03/Resultado_parcial_do_enquadramento_do_Edital_FAPEMA.SEPE_.IMESC_.TJMA_08_2021-ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">O edital é destinado a professores(as) pesquisadores(as) doutores(as) com vínculo empregatício efetivo com Instituições de Ensino ou Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, e pertencentes ao quadro docente permanente de Programas de Pós-Graduação Strico Sensu.           Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de A partir de do Resultado Parcial da Análise Divulgação do  A partir de do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 07/05/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 18/06/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 07/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 23/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
+          <t xml:space="preserve">Profissionais com formação superior completa nas áreas de Ciência da Computação, Engenharia de Computação, Sistema de Informação, Análise e Desenvolvimento de Sistemas, Engenharia de Produção, Geografia ou Matemática, com pós-graduação concluída em nível de mestrado e com experiência nas respectivas áreas de atuação previstas neste edital. O local de atuação se dará na sede da SEPE/IMESC/TJMA ou em trabalhos de campo em conjunto com os técnicos da SEPE/IMESC/TJMA, que acompanharão e orientarão os bolsistas contratados.          Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 23/04/2021 Etapa 1 Divulgação do Resultado Parcial do Enquadramento A partir de 07/05/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final do Enquadramento da Etapa 1 A partir de 28/05/2021 Etapa 2 Divulgação do Resultado Parcial da Avaliação de Mérito e relevância da proposta A partir de 18/06/2021 Período de recursos 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final da Avaliação de Mérito e relevância da proposta A partir de 09/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final </t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/SES N° 06/2021</t>
+          <t>Edital FAPEMA Nº 07/2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-ses-n-06-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-07-2021-bolsa-de-estimulo-a-produtividade-em-pesquisa/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O presente edital é destinado a selecionar acadêmicos formandos dos Cursos de Medicina, Enfermagem, Farmácia e Fisioterapia, de Instituições de Ensino Superior, públicas e privadas, sediadas no Maranhão e profissionais das respectivas áreas de atuação. O local de atuação se dará nas UPAs da rede Estadual de Saúde em São Luís e/ou outros locais designados pela SES/MA.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição via e-mail Até o dia 02/04/2021 Divulgação do Resultado Parcial A partir de 14/04/2021 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 28/04/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/03/retificacao_do_cronograma_do_edital_fapema_07.2021_produtividade_para_publicacao_2_1_.pdf</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">O presente edital é destinado a selecionar acadêmicos formandos dos Cursos de Medicina, Enfermagem, Farmácia e Fisioterapia, de Instituições de Ensino Superior, públicas e privadas, sediadas no Maranhão e profissionais das respectivas áreas de atuação. O local de atuação se dará nas UPAs da rede Estadual de Saúde em São Luís e/ou outros locais designados pela SES/MA.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição via e-mail Até o dia 02/04/2021 Divulgação do Resultado Parcial A partir de 14/04/2021 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 28/04/2021 </t>
+          <t xml:space="preserve">O edital é destinado a professores(as) pesquisadores(as) doutores(as) com vínculo empregatício efetivo com Instituições de Ensino ou Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, e pertencentes ao quadro docente permanente de Programas de Pós-Graduação Strico Sensu.           Divulgação do  A partir de do Resultado Parcial do Enquadramento Divulgação do  A partir de A partir de do Resultado Parcial da Análise Divulgação do  A partir de do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 07/05/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 28/05/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 18/06/2021 Divulgação do Resultado Parcial da Análise de Mérito e relevância e Análise curricular A partir de 07/07/2021 Período de Recursos 05 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise de Mérito e Relevância e Análise Curricular A partir de 23/07/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 05/2021</t>
+          <t>Edital FAPEMA/SES N° 06/2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-05-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-ses-n-06-2021/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pesquisadores vinculados às Instituições de Ensino Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, preferencialmente de PPGs do estado, com artigo publicado ou aceito para publicação em periódico com classificação Qualis/CAPES de A1 a B3 e/ou com fator de impacto 0,5.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período de Inscrição 12/02 a 09/04/2021 05/07 a 10/09/2021 Resultado Parcial do Enquadramento A partir de 30/04/2021 A partir de 27/09/2021 Período de Recurso 10 dias úteis após a divulgação do resultado parcial Resultado Final do Enquadramento A partir de 24/05/2021 A partir de 25/10/2021 Resultado Parcial do Julgamento A partir de 09/06/2021 A partir de 10/11/2021 Período de Recurso 10 dias úteis após a divulgação do julgamento parcial Resultado Final do Julgamento A partir de 30/06/2021 A partir de 29/10/2021 Entrega da Documentação Impressa A partir de 05/07/2021 A partir de 06/12/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/03/resultado_final_do_edital_fapema.ses_n06.2021_para_publicacao.pdf</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pesquisadores vinculados às Instituições de Ensino Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, preferencialmente de PPGs do estado, com artigo publicado ou aceito para publicação em periódico com classificação Qualis/CAPES de A1 a B3 e/ou com fator de impacto 0,5.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período de Inscrição 12/02 a 09/04/2021 05/07 a 10/09/2021 Resultado Parcial do Enquadramento A partir de 30/04/2021 A partir de 27/09/2021 Período de Recurso 10 dias úteis após a divulgação do resultado parcial Resultado Final do Enquadramento A partir de 24/05/2021 A partir de 25/10/2021 Resultado Parcial do Julgamento A partir de 09/06/2021 A partir de 10/11/2021 Período de Recurso 10 dias úteis após a divulgação do julgamento parcial Resultado Final do Julgamento A partir de 30/06/2021 A partir de 29/10/2021 Entrega da Documentação Impressa A partir de 05/07/2021 A partir de 06/12/2021 </t>
+          <t xml:space="preserve">O presente edital é destinado a selecionar acadêmicos formandos dos Cursos de Medicina, Enfermagem, Farmácia e Fisioterapia, de Instituições de Ensino Superior, públicas e privadas, sediadas no Maranhão e profissionais das respectivas áreas de atuação. O local de atuação se dará nas UPAs da rede Estadual de Saúde em São Luís e/ou outros locais designados pela SES/MA.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição via e-mail Até o dia 02/04/2021 Divulgação do Resultado Parcial A partir de 14/04/2021 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 28/04/2021 </t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 04/2021</t>
+          <t>Edital FAPEMA Nº 05/2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-04-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-05-2021/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Estudantes de graduação em Comunicação Social (Jornalismo, Rádio e TV, Relações Públicas ou Publicidade e Propaganda), Biblioteconomia, Ciência da Computação, Engenharia de Computação, Tecnologia da Informação, Sistema de Informação, Licenciatura em Informática, Tecnologia em Redes de Computadores, Administração, Administração Pública, Ciências Contábeis e Direito, vinculados a Instituições de Ensino Superior (IES) sediadas no Maranhão, pública ou privada sem fins lucrativos ou bolsistas do Programa Universidade para Todos (ProUni) ou do Programa de Financiamento Estudantil (FIES) de IES com fins lucrativos.             Divulgação do  A partir de 02/04/2021 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do  A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 05 dias após a divulgação do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 19/03/2021 Enquadramento Divulgação do Resultado do Enquadramento A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 Divulgação do Resultado Parcial da Análise do Memorial e Entrevista A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/02/RESULTADO_final_de_enquadramento_edital_05.2021_ARTIGOS_1_chamada_ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estudantes de graduação em Comunicação Social (Jornalismo, Rádio e TV, Relações Públicas ou Publicidade e Propaganda), Biblioteconomia, Ciência da Computação, Engenharia de Computação, Tecnologia da Informação, Sistema de Informação, Licenciatura em Informática, Tecnologia em Redes de Computadores, Administração, Administração Pública, Ciências Contábeis e Direito, vinculados a Instituições de Ensino Superior (IES) sediadas no Maranhão, pública ou privada sem fins lucrativos ou bolsistas do Programa Universidade para Todos (ProUni) ou do Programa de Financiamento Estudantil (FIES) de IES com fins lucrativos.             Divulgação do  A partir de 02/04/2021 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do  A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 05 dias após a divulgação do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 19/03/2021 Enquadramento Divulgação do Resultado do Enquadramento A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 Divulgação do Resultado Parcial da Análise do Memorial e Entrevista A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
+          <t xml:space="preserve">Pesquisadores vinculados às Instituições de Ensino Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão, preferencialmente de PPGs do estado, com artigo publicado ou aceito para publicação em periódico com classificação Qualis/CAPES de A1 a B3 e/ou com fator de impacto 0,5.           © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período de Inscrição 12/02 a 09/04/2021 05/07 a 10/09/2021 Resultado Parcial do Enquadramento A partir de 30/04/2021 A partir de 27/09/2021 Período de Recurso 10 dias úteis após a divulgação do resultado parcial Resultado Final do Enquadramento A partir de 24/05/2021 A partir de 25/10/2021 Resultado Parcial do Julgamento A partir de 09/06/2021 A partir de 10/11/2021 Período de Recurso 10 dias úteis após a divulgação do julgamento parcial Resultado Final do Julgamento A partir de 30/06/2021 A partir de 29/10/2021 Entrega da Documentação Impressa A partir de 05/07/2021 A partir de 06/12/2021 </t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 03/2021</t>
+          <t>Edital FAPEMA Nº 04/2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-03-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-04-2021/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pesquisadores vinculados à Instituições de Ensino Médio, Técnico, Tecnológico, Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão.               © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período do evento 01/06/2021 a 30/12/2021 01/01/2022 a 30/06/2022 Período de inscrição 28/01 a 26/02/2021 12/07 a 27/08/2021 Resultado parcial do Enquadramento A partir de 12/03/2021 A partir de 13/09/2021 Período de recurso 10 dias úteis após a divulgação do resultado parcial 10 dias úteis após a divulgação do resultado parcial Resultado final do Enquadramento A partir de 29/03/2021 A partir de 01/10/2021 Resultado parcial do Julgamento A partir de 12/04/2021 A partir de 13/10/2021 Período de recurso 10 dias úteis após a divulgação do julgamento      parcial 10 dias úteis após a divulgação do julgamento parcial Resultado final do Julgamento A partir de 28/04/2021 A partir de 29/10/2021 Entrega da documentação impressa A partir de 03/05/2021 A partir de 01/11/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/02/Resultado_final_do_EDITAL_n_04.2021-ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pesquisadores vinculados à Instituições de Ensino Médio, Técnico, Tecnológico, Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão.               © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período do evento 01/06/2021 a 30/12/2021 01/01/2022 a 30/06/2022 Período de inscrição 28/01 a 26/02/2021 12/07 a 27/08/2021 Resultado parcial do Enquadramento A partir de 12/03/2021 A partir de 13/09/2021 Período de recurso 10 dias úteis após a divulgação do resultado parcial 10 dias úteis após a divulgação do resultado parcial Resultado final do Enquadramento A partir de 29/03/2021 A partir de 01/10/2021 Resultado parcial do Julgamento A partir de 12/04/2021 A partir de 13/10/2021 Período de recurso 10 dias úteis após a divulgação do julgamento      parcial 10 dias úteis após a divulgação do julgamento parcial Resultado final do Julgamento A partir de 28/04/2021 A partir de 29/10/2021 Entrega da documentação impressa A partir de 03/05/2021 A partir de 01/11/2021 </t>
+          <t xml:space="preserve">Estudantes de graduação em Comunicação Social (Jornalismo, Rádio e TV, Relações Públicas ou Publicidade e Propaganda), Biblioteconomia, Ciência da Computação, Engenharia de Computação, Tecnologia da Informação, Sistema de Informação, Licenciatura em Informática, Tecnologia em Redes de Computadores, Administração, Administração Pública, Ciências Contábeis e Direito, vinculados a Instituições de Ensino Superior (IES) sediadas no Maranhão, pública ou privada sem fins lucrativos ou bolsistas do Programa Universidade para Todos (ProUni) ou do Programa de Financiamento Estudantil (FIES) de IES com fins lucrativos.               Divulgação do  A partir de 02/04/2021 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do  A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 05 dias após a divulgação do Resultado Final da Análise  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 19/03/2021 Enquadramento Divulgação do Resultado do Enquadramento A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do Resultado Parcial do Enquadramento Divulgação do Resultado Final do Enquadramento A partir de 21/04/2021 Entrevista dos candidatos enquadrados De 26 a 29/04/2021 Divulgação do Resultado Parcial da Análise do Memorial e Entrevista A partir de 30/04/2021 Período de recurso 10 dias após a divulgação do Resultado Parcial da Análise Divulgação do Resultado Final da Análise do Memorial e Entrevista A partir de 19/05/2021 Entrega da documentação impressa (candidatos aprovados) 05 dias após a divulgação do Resultado Final da Análise </t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/UEMA Nº 02/2021</t>
+          <t>Edital FAPEMA Nº 03/2021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-uema-no-02-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-no-03-2021/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O presente edital é destinado a docentes vinculados ao quadro permanente dos cursos de medicina e enfermagem da UEMA, em Caxias/MA.           Divulgação do  A partir de 26/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 19/03/2021 Divulgação do A partir de 02/04/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 23/04/2021 A partir de 26/04/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 12/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 26/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 19/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito A partir de 23/04/2021 Entrega da documentação impressa (candidatos aprovados) A partir de 26/04/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/01/REsultado_final.._de_julgamento_EDital_03.2021_realizacao_1_chamada_ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">O presente edital é destinado a docentes vinculados ao quadro permanente dos cursos de medicina e enfermagem da UEMA, em Caxias/MA.           Divulgação do  A partir de 26/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 19/03/2021 Divulgação do A partir de 02/04/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 23/04/2021 A partir de 26/04/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 12/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 26/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 19/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito A partir de 23/04/2021 Entrega da documentação impressa (candidatos aprovados) A partir de 26/04/2021 </t>
+          <t xml:space="preserve">Pesquisadores vinculados à Instituições de Ensino Médio, Técnico, Tecnológico, Superior e/ou de Pesquisa, públicas ou privadas sem fins lucrativos, sediadas no Maranhão.               © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA Período do evento 01/06/2021 a 30/12/2021 01/01/2022 a 30/06/2022 Período de inscrição 28/01 a 26/02/2021 12/07 a 27/08/2021 Resultado parcial do Enquadramento A partir de 12/03/2021 A partir de 13/09/2021 Período de recurso 10 dias úteis após a divulgação do resultado parcial 10 dias úteis após a divulgação do resultado parcial Resultado final do Enquadramento A partir de 29/03/2021 A partir de 01/10/2021 Resultado parcial do Julgamento A partir de 12/04/2021 A partir de 13/10/2021 Período de recurso 10 dias úteis após a divulgação do julgamento      parcial 10 dias úteis após a divulgação do julgamento parcial Resultado final do Julgamento A partir de 28/04/2021 A partir de 29/10/2021 Entrega da documentação impressa A partir de 03/05/2021 A partir de 01/11/2021 </t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/IMESC Nº 01/2021</t>
+          <t>Edital FAPEMA/UEMA Nº 02/2021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-imesc-no-01-2021/</t>
+          <t>https://www.fapema.br/edital-fapema-uema-no-02-2021/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O presente edital é destinado a selecionar profissionais graduados em Geografia, Oceanografia, Engenharia Ambiental, Gestão Ambiental e Biologia. Profissionais graduados em Sociologia, Direito, Arquitetura e Geografia com doutorado em qualquer área. E que, preferencialmente, possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, quando das visitas .           Divulgação do  A partir de 12/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 08/03/2021 Divulgação do A partir de 26/03/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 02/04/2021 5 dias após divulgação do Resultado Final  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 05/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 12/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 08/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial do Julgamento das Etapas 2 e 3 A partir de 26/03/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Julgamento das Etapas 2 e 3 A partir de 02/04/2021 Entrega da documentação impressa (candidatos aprovados) 5 dias após divulgação do Resultado Final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2021/01/resultado_final_do_med_saude.pdf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">O presente edital é destinado a selecionar profissionais graduados em Geografia, Oceanografia, Engenharia Ambiental, Gestão Ambiental e Biologia. Profissionais graduados em Sociologia, Direito, Arquitetura e Geografia com doutorado em qualquer área. E que, preferencialmente, possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, quando das visitas .           Divulgação do  A partir de 12/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 08/03/2021 Divulgação do A partir de 26/03/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 02/04/2021 5 dias após divulgação do Resultado Final  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 05/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 12/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 08/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial do Julgamento das Etapas 2 e 3 A partir de 26/03/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Julgamento das Etapas 2 e 3 A partir de 02/04/2021 Entrega da documentação impressa (candidatos aprovados) 5 dias após divulgação do Resultado Final </t>
+          <t xml:space="preserve">O presente edital é destinado a docentes vinculados ao quadro permanente dos cursos de medicina e enfermagem da UEMA, em Caxias/MA.           Divulgação do  A partir de 26/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 19/03/2021 Divulgação do A partir de 02/04/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 23/04/2021 A partir de 26/04/2021  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 12/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 26/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 19/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial da Avaliação de Mérito A partir de 02/04/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final da Avaliação de Mérito A partir de 23/04/2021 Entrega da documentação impressa (candidatos aprovados) A partir de 26/04/2021 </t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chamada Pública FAPEMA/FINEP Nº 20/2020</t>
+          <t>Edital FAPEMA/IMESC Nº 01/2021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-publica-fapema-finep-no-20-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-imesc-no-01-2021/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A presente chamada é destinada a empresas maranhenses, independentemente do tipo societário sob o qual estejam constituídas (sociedades limitadas, anônimas, etc), a apresentarem proposta de inovação para obtenção de apoio financeiro na forma de subvenção econômica, nos termos a seguir estabelecidos.                 © 2021 Copyright . Todos os direitos reservados. Fase Datas Re sponsável Disponibilização do formulário eletrônico 1 de inscrição 10/12/2020 FAPEMA Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 04/02/2021 EMPRESA Divulgação do resultado preliminar da FASE I (Enquadramento e Análise técnica) 04/03/2021 FAPEMA Término do prazo para apresentação de recursos à FASE I 15/03/2021 EMPRESA Divulgação do resultado final da FASE I 22/03/2021 FAPEMA Disponibilização do Formulário Eletrônico 2 – FASE II 12/04/2021 15/03/2021 Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 22/04/2021 EMPRESA Divulgação do resultado preliminar da FASE II (Avaliação de mérito) 10/05/2021 30/04/2021 Término do prazo para apresentação de recursos à FASE II 20/05/2021 EMPRESA Divulgação da Lista Final de Aprovados 01/06/2021 FAPEMA</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/12/RESULTADO-PARCIAL_ETAPAS-II-E-III_Edital-FAPEMA.IMESC-01.2021.pdf-ASSINADO...pdf</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">A presente chamada é destinada a empresas maranhenses, independentemente do tipo societário sob o qual estejam constituídas (sociedades limitadas, anônimas, etc), a apresentarem proposta de inovação para obtenção de apoio financeiro na forma de subvenção econômica, nos termos a seguir estabelecidos.                 © 2021 Copyright . Todos os direitos reservados. Fase Datas Re sponsável Disponibilização do formulário eletrônico 1 de inscrição 10/12/2020 FAPEMA Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 04/02/2021 EMPRESA Divulgação do resultado preliminar da FASE I (Enquadramento e Análise técnica) 04/03/2021 FAPEMA Término do prazo para apresentação de recursos à FASE I 15/03/2021 EMPRESA Divulgação do resultado final da FASE I 22/03/2021 FAPEMA Disponibilização do Formulário Eletrônico 2 – FASE II 12/04/2021 15/03/2021 Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 22/04/2021 EMPRESA Divulgação do resultado preliminar da FASE II (Avaliação de mérito) 10/05/2021 30/04/2021 Término do prazo para apresentação de recursos à FASE II 20/05/2021 EMPRESA Divulgação da Lista Final de Aprovados 01/06/2021 FAPEMA </t>
+          <t xml:space="preserve">O presente edital é destinado a selecionar profissionais graduados em Geografia, Oceanografia, Engenharia Ambiental, Gestão Ambiental e Biologia. Profissionais graduados em Sociologia, Direito, Arquitetura e Geografia com doutorado em qualquer área. E que, preferencialmente, possuam experiência em trabalho e/ou pesquisa nas áreas de desenvolvimento socioeconômico, planejamento e desenvolvimento local e territorial, monitoramento e avaliação de políticas públicas, com disponibilidade para desenvolver pesquisas e ações na capital e no interior do estado, sobretudo, quando das visitas .           Divulgação do  A partir de 12/02/2021 10 dias após a divulgação do resultado parcial Divulgação do  A partir de 08/03/2021 Divulgação do A partir de 26/03/2021 10 dias após a divulgação do resultado parcial Divulgação do A partir de 02/04/2021 5 dias após divulgação do Resultado Final  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas on-line Até o dia 05/02/2021 Enquadramento Divulgação do Resultado Parcial do Enquadramento A partir de 12/02/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Enquadramento A partir de 08/03/2021 Etapa 2 e 3 Divulgação do Resultado Parcial do Julgamento das Etapas 2 e 3 A partir de 26/03/2021 Período de recursos 10 dias após a divulgação do resultado parcial Divulgação do Resultado Final do Julgamento das Etapas 2 e 3 A partir de 02/04/2021 Entrega da documentação impressa (candidatos aprovados) 5 dias após divulgação do Resultado Final </t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edital FAPEMA – N° 15/2020 – CTC</t>
+          <t>Chamada Pública FAPEMA/FINEP Nº 20/2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-15-2020-ctc/</t>
+          <t>https://www.fapema.br/chamada-publica-fapema-finep-no-20-2020/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar, com créditos de pesquisa, consultores ad hoc vinculados a instituições públicas ou privadas sem fins lucrativos do Maranhão que exercerem atividades de consultoria à FAPEMA, como membro de comitê técnico-científico ou como parecerista on-line, a partir de convites de solicitação oriundos desta Fundação.      © 2021 Copyright . Todos os direitos reservados. Atividades Chamadas 1ª 2ª 3ª 4ª Período de Participação em Comitês Até 23/04/2021 Até 22/10/2021 Até 22/04/2022 Até 21/10/2022 Solicitação de Créditos de Pesquisa Até 07/05/2021 Até 29/10/2021 Até 29/04/2022 Até 28/10/2022 Divulgação de Resultado de Parcial A partir de 14/05/2021 A partir de 12/11/2021 A partir de 13/05/2022 A partir de 11/11/2022 Período de Recurso 10 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 04/06/2021 A partir de 03/12/2021 A partir de 03/06/2022 A partir de 02/12/2022</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/12/RESULTADO_Parcial_Tecnova_ii_fase_2_em_edicao_04.05.2021_2_ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar, com créditos de pesquisa, consultores ad hoc vinculados a instituições públicas ou privadas sem fins lucrativos do Maranhão que exercerem atividades de consultoria à FAPEMA, como membro de comitê técnico-científico ou como parecerista on-line, a partir de convites de solicitação oriundos desta Fundação.      © 2021 Copyright . Todos os direitos reservados. Atividades Chamadas 1ª 2ª 3ª 4ª Período de Participação em Comitês Até 23/04/2021 Até 22/10/2021 Até 22/04/2022 Até 21/10/2022 Solicitação de Créditos de Pesquisa Até 07/05/2021 Até 29/10/2021 Até 29/04/2022 Até 28/10/2022 Divulgação de Resultado de Parcial A partir de 14/05/2021 A partir de 12/11/2021 A partir de 13/05/2022 A partir de 11/11/2022 Período de Recurso 10 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 04/06/2021 A partir de 03/12/2021 A partir de 03/06/2022 A partir de 02/12/2022 </t>
+          <t xml:space="preserve">A presente chamada é destinada a empresas maranhenses, independentemente do tipo societário sob o qual estejam constituídas (sociedades limitadas, anônimas, etc), a apresentarem proposta de inovação para obtenção de apoio financeiro na forma de subvenção econômica, nos termos a seguir estabelecidos.                   © 2021 Copyright . Todos os direitos reservados. Fase Datas Re sponsável Disponibilização do formulário eletrônico 1 de inscrição 10/12/2020 FAPEMA Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 04/02/2021 EMPRESA Divulgação do resultado preliminar da FASE I (Enquadramento e Análise técnica) 04/03/2021 FAPEMA Término do prazo para apresentação de recursos à FASE I 15/03/2021 EMPRESA Divulgação do resultado final da FASE I 22/03/2021 FAPEMA Disponibilização do Formulário Eletrônico 2 – FASE II 12/04/2021 15/03/2021 Término do prazo para envio eletrônico da proposta (até às 23:59 hs) 22/04/2021 EMPRESA Divulgação do resultado preliminar da FASE II (Avaliação de mérito) 10/05/2021 30/04/2021 Término do prazo para apresentação de recursos à FASE II 20/05/2021 EMPRESA Divulgação da Lista Final de Aprovados 01/06/2021 FAPEMA </t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 16/2020</t>
+          <t>Edital FAPEMA – N° 15/2020 – CTC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-16-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-n-15-2020-ctc/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), no uso de suas atribuições, torna público que se encontram abertas as inscrições para o processo seletivo destinado a selecionar bolsista conforme condições e especificações previstas no presente Edital.          © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão online Até o dia 08/01/2021 Prova prática 13/01/2021 Entrevista 19/01/2021 Divulgação do Resultado Parcial A partir de 25/01/2021 Período de recurso 10dias após divulgação do Resultado Parcial. Divulgação do Resultado Final A partir de 08/02/2021 Entrega da documentação impressa A partir de 11/02/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/11/Retificacao_do_cronograma_do_Edital_fapema_15.2020_CTC-ASSINADO.pdf</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), no uso de suas atribuições, torna público que se encontram abertas as inscrições para o processo seletivo destinado a selecionar bolsista conforme condições e especificações previstas no presente Edital.          © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão online Até o dia 08/01/2021 Prova prática 13/01/2021 Entrevista 19/01/2021 Divulgação do Resultado Parcial A partir de 25/01/2021 Período de recurso 10dias após divulgação do Resultado Parcial. Divulgação do Resultado Final A partir de 08/02/2021 Entrega da documentação impressa A partir de 11/02/2021 </t>
+          <t xml:space="preserve">Objetivo: Apoiar, com créditos de pesquisa, consultores ad hoc vinculados a instituições públicas ou privadas sem fins lucrativos do Maranhão que exercerem atividades de consultoria à FAPEMA, como membro de comitê técnico-científico ou como parecerista on-line, a partir de convites de solicitação oriundos desta Fundação.      © 2021 Copyright . Todos os direitos reservados. Atividades Chamadas 1ª 2ª 3ª 4ª Período de Participação em Comitês Até 23/04/2021 Até 22/10/2021 Até 22/04/2022 Até 21/10/2022 Solicitação de Créditos de Pesquisa Até 07/05/2021 Até 29/10/2021 Até 29/04/2022 Até 28/10/2022 Divulgação de Resultado de Parcial A partir de 14/05/2021 A partir de 12/11/2021 A partir de 13/05/2022 A partir de 11/11/2022 Período de Recurso 10 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 04/06/2021 A partir de 03/12/2021 A partir de 03/06/2022 A partir de 02/12/2022 </t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edital FAPEMA/FAPESP N° 14/2020</t>
+          <t>Edital FAPEMA Nº 16/2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-fapesp-n-14-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-no-16-2020/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Fundação de Amparo à Pesquisa do Estado de São Paulo (FAPESP) divulgam, aos pesquisadores vinculados a Instituições de Ensino Superior ou Pesquisa dos respectivos Estados, a oportunidade de submeter propostas que visem a formação ou o fortalecimento de redes de pesquisa colaborativa entre os estados do Maranhão e de São Paulo.        Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Julgamento das Propostas (FAPESP e FAPEMA)   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Anúncio da Chamada nas páginas da FAPESP e FAPEMA 20/10/2020 Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Divulgação do Resultado Parcial A partir de 26/01/2021 Período de recurso 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 26/02/2021 Julgamento das Propostas (FAPESP e FAPEMA) Divulgação do Resultado Parcial A partir de 26/04/2021 Período de recurso (apenas para a FAPEMA) 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 30/04/2021 Entrega da documentação impressa na FAPEMA A partir de 03/05/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/11/Resultado_final_do_Edital_Fapema_n_16.2020-assinado..pdf</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Fundação de Amparo à Pesquisa do Estado de São Paulo (FAPESP) divulgam, aos pesquisadores vinculados a Instituições de Ensino Superior ou Pesquisa dos respectivos Estados, a oportunidade de submeter propostas que visem a formação ou o fortalecimento de redes de pesquisa colaborativa entre os estados do Maranhão e de São Paulo.        Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Julgamento das Propostas (FAPESP e FAPEMA)   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Anúncio da Chamada nas páginas da FAPESP e FAPEMA 20/10/2020 Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Divulgação do Resultado Parcial A partir de 26/01/2021 Período de recurso 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 26/02/2021 Julgamento das Propostas (FAPESP e FAPEMA) Divulgação do Resultado Parcial A partir de 26/04/2021 Período de recurso (apenas para a FAPEMA) 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 30/04/2021 Entrega da documentação impressa na FAPEMA A partir de 03/05/2021 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), no uso de suas atribuições, torna público que se encontram abertas as inscrições para o processo seletivo destinado a selecionar bolsista conforme condições e especificações previstas no presente Edital.          © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão online Até o dia 08/01/2021 Prova prática 13/01/2021 Entrevista 19/01/2021 Divulgação do Resultado Parcial A partir de 25/01/2021 Período de recurso 10dias após divulgação do Resultado Parcial. Divulgação do Resultado Final A partir de 08/02/2021 Entrega da documentação impressa A partir de 11/02/2021 </t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 12/2020</t>
+          <t>Edital FAPEMA/FAPESP N° 14/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-12-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-fapesp-n-14-2020/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de contribuir para a qualificação de pesquisadores maranhenses, no âmbito da Linha de ação “Mais Qualificação” e do Programa “Qualificar Para Pesquisar”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias após a divulgação do resultado parcial 10 dias após a divulgação do resultado parcial  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 23/10/2020 Etapa 1: Divulgação do Resultado Parcial A partir de 06/11/2020 Etapa 1: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 1: Divulgação do Resultado Final A partir de 27/11/2020 Etapa 2: Divulgação do Resultado Parcial A partir de 11/12/2020 Etapa 2: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 2: Divulgação do Resultado Final A partir de 08/01/2021 Entrega da documentação impressa A partir de 11/01/2021</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/10/Edital-nº-14-2020.pdf</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de contribuir para a qualificação de pesquisadores maranhenses, no âmbito da Linha de ação “Mais Qualificação” e do Programa “Qualificar Para Pesquisar”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias após a divulgação do resultado parcial 10 dias após a divulgação do resultado parcial  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 23/10/2020 Etapa 1: Divulgação do Resultado Parcial A partir de 06/11/2020 Etapa 1: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 1: Divulgação do Resultado Final A partir de 27/11/2020 Etapa 2: Divulgação do Resultado Parcial A partir de 11/12/2020 Etapa 2: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 2: Divulgação do Resultado Final A partir de 08/01/2021 Entrega da documentação impressa A partir de 11/01/2021 </t>
+          <t xml:space="preserve">A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Fundação de Amparo à Pesquisa do Estado de São Paulo (FAPESP) divulgam, aos pesquisadores vinculados a Instituições de Ensino Superior ou Pesquisa dos respectivos Estados, a oportunidade de submeter propostas que visem a formação ou o fortalecimento de redes de pesquisa colaborativa entre os estados do Maranhão e de São Paulo.        Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Julgamento das Propostas (FAPESP e FAPEMA)   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Anúncio da Chamada nas páginas da FAPESP e FAPEMA 20/10/2020 Data limite para submissão das propostas à FAPESP e à FAPEMA Até 20/12/2020 Resultado Final 30/04/2021 Enquadramento (FAPEMA) Divulgação do Resultado Parcial A partir de 26/01/2021 Período de recurso 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 26/02/2021 Julgamento das Propostas (FAPESP e FAPEMA) Divulgação do Resultado Parcial A partir de 26/04/2021 Período de recurso (apenas para a FAPEMA) 10 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 30/04/2021 Entrega da documentação impressa na FAPEMA A partir de 03/05/2021 </t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/UEMA Nº 11/2020</t>
+          <t>EDITAL FAPEMA Nº 12/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-uema-no-11-2020-programa-de-aprimoramento-profissional-em-medicina-veterinaria/</t>
+          <t>https://www.fapema.br/edital-fapema-no-12-2020/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tem como objetivo apoiar o Programa de Aprimoramento Profissional em Medicina Veterinária, por meio de Bolsa de Estágio em Inovação para o desenvolvimento de atividades no Hospital Veterinário Universitário da UEMA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 20 a 22/10/2020 Até 23/10/2020 Até 30/11/2020 Dezembro de 2020         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Resultado Preliminar da prova escrita Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 Análise dos currículos 20 a 22/10/2020 Divulgação do Resultado Final Até 23/10/2020 Ingresso ao Programa(Secretaria do HVU/UEMA) Até 30/11/2020 Implementação Bolsa(FAPEMA) Dezembro de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/09/Edital-n°-12_2020-Bolsa-Mestrado-no-Pais_para-publicacao-convertido.pdf</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tem como objetivo apoiar o Programa de Aprimoramento Profissional em Medicina Veterinária, por meio de Bolsa de Estágio em Inovação para o desenvolvimento de atividades no Hospital Veterinário Universitário da UEMA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 20 a 22/10/2020 Até 23/10/2020 Até 30/11/2020 Dezembro de 2020         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Resultado Preliminar da prova escrita Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 Análise dos currículos 20 a 22/10/2020 Divulgação do Resultado Final Até 23/10/2020 Ingresso ao Programa(Secretaria do HVU/UEMA) Até 30/11/2020 Implementação Bolsa(FAPEMA) Dezembro de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de contribuir para a qualificação de pesquisadores maranhenses, no âmbito da Linha de ação “Mais Qualificação” e do Programa “Qualificar Para Pesquisar”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias após a divulgação do resultado parcial 10 dias após a divulgação do resultado parcial  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 23/10/2020 Etapa 1: Divulgação do Resultado Parcial A partir de 06/11/2020 Etapa 1: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 1: Divulgação do Resultado Final A partir de 27/11/2020 Etapa 2: Divulgação do Resultado Parcial A partir de 11/12/2020 Etapa 2: Período de recursos 10 dias após a divulgação do resultado parcial Etapa 2: Divulgação do Resultado Final A partir de 08/01/2021 Entrega da documentação impressa A partir de 11/01/2021 </t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SSP Nº 10/2020</t>
+          <t>EDITAL FAPEMA/UEMA Nº 11/2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-ssp-no-10-2020-segunda-chamada-seguranca-publica/</t>
+          <t>https://www.fapema.br/edital-fapema-uema-no-11-2020-programa-de-aprimoramento-profissional-em-medicina-veterinaria/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tem como objetivo promover e apoiar o desenvolvimento de soluções informáticas na modalidade software composto por ferramentas inteligentes (módulos) e racionais como objetivo de facilitar e garantir a praticabilidade de gestão e monitoramento das aeronaves (desde o acompanhamento em tempo real até os relatórios gerenciais) em acordo com a legislação vigente da Agência Nacional de Aviação Civil (ANAC).            :  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão online Até o dia 18/09/2020 FASE 1 Divulgação do Resultado Parcial A partir de 02/10/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 19/10/2020 FASE 2 e 3 Divulgação do Resultado Parcial A partir de 09/11/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 23/11/2020 Entrega da documentação impressa A partir de 24/11/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/09/resultado_parcial_da_prova_escrita_edital_n11.2020_programa_de_aprimoramento_profissional_em_medicina_veterinaria.pdf</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tem como objetivo promover e apoiar o desenvolvimento de soluções informáticas na modalidade software composto por ferramentas inteligentes (módulos) e racionais como objetivo de facilitar e garantir a praticabilidade de gestão e monitoramento das aeronaves (desde o acompanhamento em tempo real até os relatórios gerenciais) em acordo com a legislação vigente da Agência Nacional de Aviação Civil (ANAC).            :  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão online Até o dia 18/09/2020 FASE 1 Divulgação do Resultado Parcial A partir de 02/10/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 19/10/2020 FASE 2 e 3 Divulgação do Resultado Parcial A partir de 09/11/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 23/11/2020 Entrega da documentação impressa A partir de 24/11/2020 </t>
+          <t xml:space="preserve">Tem como objetivo apoiar o Programa de Aprimoramento Profissional em Medicina Veterinária, por meio de Bolsa de Estágio em Inovação para o desenvolvimento de atividades no Hospital Veterinário Universitário da UEMA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 20 a 22/10/2020 Até 23/10/2020 Até 30/11/2020 Dezembro de 2020         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão via e-mail Até 25/09/2020 Realização da prova escrita 30/09/2020 Resultado Preliminar da prova escrita Até 05/10/2020 Período para interposição de recurso Até 07/10/2020 Resultado dos candidatos selecionados na prova escrita Até 08/10/2020 Realização da entrevista 12 a 14/10/2020 Resultado Preliminar da entrevista Até 16/10/2020 Período para interposição de recurso Até 19/10/2020 Análise dos currículos 20 a 22/10/2020 Divulgação do Resultado Final Até 23/10/2020 Ingresso ao Programa(Secretaria do HVU/UEMA) Até 30/11/2020 Implementação Bolsa(FAPEMA) Dezembro de 2020 </t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chamada Pública PPSUS MA N° 09/2020</t>
+          <t>EDITAL FAPEMA/SSP Nº 10/2020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-publica-fapema-ms-decit-cnpq-ses-n-09-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-ssp-no-10-2020-segunda-chamada-seguranca-publica/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), em parceria com o Ministério da Saúde (MS), por meio do Departamento de Ciência e Tecnologia da Secretaria de Ciência, Tecnologia, Inovação e Insumos Estratégicos em Saúde (Decit/SCTIE/MS) e em parceria com o Conselho Nacional de Desenvolvimento Científico e Tecnológico (CNPq), com o objetivo de apoiar atividades de CT&amp;I que promovam a melhoria da qualidade da atenção à saúde do Estado no contexto do Sistema único de Saúde (SUS) no âmbito da Linha de ação “Mais Ciência”, e do programa “Mais Pesquisa”, tornam pública a presente Chamada e convidam pesquisadores a apresentarem projetos de pesquisa no âmbito o Programa Pesquisa para o SUS: gestão compartilhada em saúde (PPSUS) nos termos aqui estabelecidos e em consonância com os dispositivos da Lei Federal n° 8.666/93, e dos demais dispositivos legais e regulamentares vigentes.                  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da Chamada na página da FAPEMA e publicação no DOEMA 07/08/2020 Disponibilização do Formulário de Propostas no SISC&amp;T e na Plataforma PATRONAGE (submissão online) De 07/08/2020 até às 23h59min do dia 05/10/2020 Análise e julgamento das propostas – Pré-seleção (Enquadramento, ad hoc e Comissão de Especialistas) Até 30/10/2020 Divulgação do resultado da Pré-seleção A partir de 02/11/2020 Limite para pedido de recurso administrativos, referente à Pré-seleção Até 06/11/2020 Divulgação do Resultado final da pré-seleção, pós- análise de recursos e convocatória para sustentação oral do projeto à Comissão de Avaliação Presencial – CAP A partir de 16/11/2020 Comissão de Avaliação Presencial – CAP A partir de 26/11/2020 Divulgação do resultado final do julgamento A partir de 03/12/2020 Limite para recursos administrativos referente ao resultado final do julgamento A partir de 09/12/2020 Divulgação do resultado final pós-recurso do julgamento A partir de 17/12/2020 Assinatura do termo de outorga A partir de 21/12/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/09/resultado_parcial_fase_2_edital_fapema_n_10.2020_seguranca_publica.pdf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), em parceria com o Ministério da Saúde (MS), por meio do Departamento de Ciência e Tecnologia da Secretaria de Ciência, Tecnologia, Inovação e Insumos Estratégicos em Saúde (Decit/SCTIE/MS) e em parceria com o Conselho Nacional de Desenvolvimento Científico e Tecnológico (CNPq), com o objetivo de apoiar atividades de CT&amp;I que promovam a melhoria da qualidade da atenção à saúde do Estado no contexto do Sistema único de Saúde (SUS) no âmbito da Linha de ação “Mais Ciência”, e do programa “Mais Pesquisa”, tornam pública a presente Chamada e convidam pesquisadores a apresentarem projetos de pesquisa no âmbito o Programa Pesquisa para o SUS: gestão compartilhada em saúde (PPSUS) nos termos aqui estabelecidos e em consonância com os dispositivos da Lei Federal n° 8.666/93, e dos demais dispositivos legais e regulamentares vigentes.                  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da Chamada na página da FAPEMA e publicação no DOEMA 07/08/2020 Disponibilização do Formulário de Propostas no SISC&amp;T e na Plataforma PATRONAGE (submissão online) De 07/08/2020 até às 23h59min do dia 05/10/2020 Análise e julgamento das propostas – Pré-seleção (Enquadramento, ad hoc e Comissão de Especialistas) Até 30/10/2020 Divulgação do resultado da Pré-seleção A partir de 02/11/2020 Limite para pedido de recurso administrativos, referente à Pré-seleção Até 06/11/2020 Divulgação do Resultado final da pré-seleção, pós- análise de recursos e convocatória para sustentação oral do projeto à Comissão de Avaliação Presencial – CAP A partir de 16/11/2020 Comissão de Avaliação Presencial – CAP A partir de 26/11/2020 Divulgação do resultado final do julgamento A partir de 03/12/2020 Limite para recursos administrativos referente ao resultado final do julgamento A partir de 09/12/2020 Divulgação do resultado final pós-recurso do julgamento A partir de 17/12/2020 Assinatura do termo de outorga A partir de 21/12/2020 </t>
+          <t xml:space="preserve">Tem como objetivo promover e apoiar o desenvolvimento de soluções informáticas na modalidade software composto por ferramentas inteligentes (módulos) e racionais como objetivo de facilitar e garantir a praticabilidade de gestão e monitoramento das aeronaves (desde o acompanhamento em tempo real até os relatórios gerenciais) em acordo com a legislação vigente da Agência Nacional de Aviação Civil (ANAC).            :  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão online Até o dia 18/09/2020 FASE 1 Divulgação do Resultado Parcial A partir de 02/10/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 19/10/2020 FASE 2 e 3 Divulgação do Resultado Parcial A partir de 09/11/2020 Período de recursos 05 dias após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 23/11/2020 Entrega da documentação impressa A partir de 24/11/2020 </t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SES N° 08/2020</t>
+          <t>Chamada Pública PPSUS MA N° 09/2020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-ses-n-08-2020-segunda-chamada-publica-emergencial-de-discentes-e-profissionais-da-saude/</t>
+          <t>https://www.fapema.br/chamada-publica-fapema-ms-decit-cnpq-ses-n-09-2020/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), com o objetivo de contratar bolsistas para a complementação da FORÇA TAREFA DISCENTE: AÇÕES EXTENSIONISTAS DE PREVENÇÃO, CUIDADOS E COMBATE À PANDEMIA DO CORONAVÍRUS nas Unidades de Pronto Atendimento (UPAs) e demais Unidades e serviços da SES/MA do Maranhão, atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.        © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 10/07/2020 Divulgação do Resultado Parcial A partir de 17/07/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/07/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/08/chamada_n_09_2020_fapema_ppsus_enviado_para_publicacao.pdf</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), com o objetivo de contratar bolsistas para a complementação da FORÇA TAREFA DISCENTE: AÇÕES EXTENSIONISTAS DE PREVENÇÃO, CUIDADOS E COMBATE À PANDEMIA DO CORONAVÍRUS nas Unidades de Pronto Atendimento (UPAs) e demais Unidades e serviços da SES/MA do Maranhão, atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.        © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 10/07/2020 Divulgação do Resultado Parcial A partir de 17/07/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/07/2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), em parceria com o Ministério da Saúde (MS), por meio do Departamento de Ciência e Tecnologia da Secretaria de Ciência, Tecnologia, Inovação e Insumos Estratégicos em Saúde (Decit/SCTIE/MS) e em parceria com o Conselho Nacional de Desenvolvimento Científico e Tecnológico (CNPq), com o objetivo de apoiar atividades de CT&amp;I que promovam a melhoria da qualidade da atenção à saúde do Estado no contexto do Sistema único de Saúde (SUS) no âmbito da Linha de ação “Mais Ciência”, e do programa “Mais Pesquisa”, tornam pública a presente Chamada e convidam pesquisadores a apresentarem projetos de pesquisa no âmbito o Programa Pesquisa para o SUS: gestão compartilhada em saúde (PPSUS) nos termos aqui estabelecidos e em consonância com os dispositivos da Lei Federal n° 8.666/93, e dos demais dispositivos legais e regulamentares vigentes.                  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da Chamada na página da FAPEMA e publicação no DOEMA 07/08/2020 Disponibilização do Formulário de Propostas no SISC&amp;T e na Plataforma PATRONAGE (submissão online) De 07/08/2020 até às 23h59min do dia 05/10/2020 Análise e julgamento das propostas – Pré-seleção (Enquadramento, ad hoc e Comissão de Especialistas) Até 30/10/2020 Divulgação do resultado da Pré-seleção A partir de 02/11/2020 Limite para pedido de recurso administrativos, referente à Pré-seleção Até 06/11/2020 Divulgação do Resultado final da pré-seleção, pós- análise de recursos e convocatória para sustentação oral do projeto à Comissão de Avaliação Presencial – CAP A partir de 16/11/2020 Comissão de Avaliação Presencial – CAP A partir de 26/11/2020 Divulgação do resultado final do julgamento A partir de 03/12/2020 Limite para recursos administrativos referente ao resultado final do julgamento A partir de 09/12/2020 Divulgação do resultado final pós-recurso do julgamento A partir de 17/12/2020 Assinatura do termo de outorga A partir de 21/12/2020 </t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SECID N° 07/2020</t>
+          <t>EDITAL FAPEMA/SES N° 08/2020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-secid-n-07-2020-levantamento-e-sistematizacao-da-producao-intelectual-sobre-o-centro-historico/</t>
+          <t>https://www.fapema.br/edital-fapema-ses-n-08-2020-segunda-chamada-publica-emergencial-de-discentes-e-profissionais-da-saude/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado das Cidades e Desenvolvimento Urbano (SECID), com o objetivo de realizar levantamento e sistematização da produção intelectual disponível sobre o Centro Histórico da cidade de São Luís – MA, como parte do Programa Nosso Centro, no âmbito da Linha de ação “Mais Qualificação” e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem as suas produções nos termos aqui estabelecidos.            © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 17/07/2020 24/07/2020 Divulgação do Resultado Parcial A partir de 24/07/2020 03/08/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/08/2020 17/08/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/07/resultado_final_edital_fapema_n_08_2020_1_.pdf</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado das Cidades e Desenvolvimento Urbano (SECID), com o objetivo de realizar levantamento e sistematização da produção intelectual disponível sobre o Centro Histórico da cidade de São Luís – MA, como parte do Programa Nosso Centro, no âmbito da Linha de ação “Mais Qualificação” e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem as suas produções nos termos aqui estabelecidos.            © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 17/07/2020 24/07/2020 Divulgação do Resultado Parcial A partir de 24/07/2020 03/08/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/08/2020 17/08/2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA), com o objetivo de contratar bolsistas para a complementação da FORÇA TAREFA DISCENTE: AÇÕES EXTENSIONISTAS DE PREVENÇÃO, CUIDADOS E COMBATE À PANDEMIA DO CORONAVÍRUS nas Unidades de Pronto Atendimento (UPAs) e demais Unidades e serviços da SES/MA do Maranhão, atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.        © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 10/07/2020 Divulgação do Resultado Parcial A partir de 17/07/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/07/2020 </t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RESULTADO FINAL EDITAL Nº 021/2019 – IMESC</t>
+          <t>EDITAL FAPEMA/SECID N° 07/2020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/resultado-final-edital-no-021-2019-imesc-2/</t>
+          <t>https://www.fapema.br/edital-fapema-secid-n-07-2020-levantamento-e-sistematizacao-da-producao-intelectual-sobre-o-centro-historico/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA torna pública a relação de propostas recomendadas e classificadas no Edital n° 021/2019 – IMESC, com o objetivo de fomentar o desenvolvimento científico tecnológico e de inovação através da linha de ação “Mais Ciência”, e no âmbito do programa “Mais Pesquisa”. Na oportunidade, informamos que a data de divulgação do presente RESULTADO FINAL deu-se em 03/06/2020, sendo assim, a data limite para a entrega da documentação impressa (via correio), referente ao item 7 do Edital N°21/2019, será no dia 10/06/2020.     © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/06/RESULTADO-FINAL-EDITAL-FAPEMA-Nº-07.2020-LEVANTAMENTO-1-convertido.pdf</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA torna pública a relação de propostas recomendadas e classificadas no Edital n° 021/2019 – IMESC, com o objetivo de fomentar o desenvolvimento científico tecnológico e de inovação através da linha de ação “Mais Ciência”, e no âmbito do programa “Mais Pesquisa”. Na oportunidade, informamos que a data de divulgação do presente RESULTADO FINAL deu-se em 03/06/2020, sendo assim, a data limite para a entrega da documentação impressa (via correio), referente ao item 7 do Edital N°21/2019, será no dia 10/06/2020.     © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado das Cidades e Desenvolvimento Urbano (SECID), com o objetivo de realizar levantamento e sistematização da produção intelectual disponível sobre o Centro Histórico da cidade de São Luís – MA, como parte do Programa Nosso Centro, no âmbito da Linha de ação “Mais Qualificação” e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem as suas produções nos termos aqui estabelecidos.            © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online Até o dia 17/07/2020 24/07/2020 Divulgação do Resultado Parcial A partir de 24/07/2020 03/08/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/08/2020 17/08/2020 </t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N° 06/2020</t>
+          <t>RESULTADO FINAL EDITAL Nº 021/2019 – IMESC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-06-2020-fomento-a-pesquisa-no-enfrentamento-a-pandemia-e-pos-pandemia-do-covid-19/</t>
+          <t>https://www.fapema.br/resultado-final-edital-no-021-2019-imesc-2/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de mobilizar a comunidade científica do Estado do Maranhão no enfrentamento à pandemia e pós-pandemia do novo coronavírus (COVID-19), no âmbito da Linha de ação “Mais Ciência” e do programa “Mais Pesquisa”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.           © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage Até dia 22/05/2020 Divulgação do Resultado Parcial A partir de 05/06/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 12/06/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/06/resultado_final_edital_n_021.2019_imesc_sub_judice-1.pdf</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de mobilizar a comunidade científica do Estado do Maranhão no enfrentamento à pandemia e pós-pandemia do novo coronavírus (COVID-19), no âmbito da Linha de ação “Mais Ciência” e do programa “Mais Pesquisa”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.           © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage Até dia 22/05/2020 Divulgação do Resultado Parcial A partir de 05/06/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 12/06/2020 </t>
+          <t xml:space="preserve">A Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA torna pública a relação de propostas recomendadas e classificadas no Edital n° 021/2019 – IMESC, com o objetivo de fomentar o desenvolvimento científico tecnológico e de inovação através da linha de ação “Mais Ciência”, e no âmbito do programa “Mais Pesquisa”. Na oportunidade, informamos que a data de divulgação do presente RESULTADO FINAL deu-se em 03/06/2020, sendo assim, a data limite para a entrega da documentação impressa (via correio), referente ao item 7 do Edital N°21/2019, será no dia 10/06/2020.     © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SES N° 05/2020</t>
+          <t>EDITAL FAPEMA N° 06/2020</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-ses-n-05-2020-chamada-publica-emergencial-de-discentes-e-docentes-da-saude/</t>
+          <t>https://www.fapema.br/edital-fapema-n-06-2020-fomento-a-pesquisa-no-enfrentamento-a-pandemia-e-pos-pandemia-do-covid-19/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA) com o objetivo de contratar bolsistas para a complementação da força de trabalho nas Unidades de Pronto Atendimento (UPAs) do Maranhão atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.              © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage e via e-mail Até dia 11/05/2020 Divulgação do Resultado Parcial A partir de 13/05/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 20/05/2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/05/Edital-n°-06.2020_Fapema_Fomento-covid_SEGUNDA-RETIFICACAO_para-publicacao.pdf</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA) com o objetivo de contratar bolsistas para a complementação da força de trabalho nas Unidades de Pronto Atendimento (UPAs) do Maranhão atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.              © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage e via e-mail Até dia 11/05/2020 Divulgação do Resultado Parcial A partir de 13/05/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 20/05/2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de mobilizar a comunidade científica do Estado do Maranhão no enfrentamento à pandemia e pós-pandemia do novo coronavírus (COVID-19), no âmbito da Linha de ação “Mais Ciência” e do programa “Mais Pesquisa”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.           © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage Até dia 22/05/2020 Divulgação do Resultado Parcial A partir de 05/06/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 12/06/2020 </t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SEMA Nº 03/2020</t>
+          <t>EDITAL FAPEMA/SES N° 05/2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-sema-no-03-2020-gestao-de-recursos-hidricos-do-maranhao/</t>
+          <t>https://www.fapema.br/edital-fapema-ses-n-05-2020-chamada-publica-emergencial-de-discentes-e-docentes-da-saude/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado do Meio Ambiente e Recursos Naturais (SEMA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas à produção de ferramentas para a Gestão de Recursos Hídricos no Estado do Maranhão, no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                   © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 13/05/2020 Divulgação do Resultado Parcial A partir de 03/06/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 11/06/2020 Fase 2 Data limite para submissão online Até o dia 25/06/2020 Divulgação do Resultado Parcial A partir de 03/07/2020 Período de recurso 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2)</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/05/Edital-FAPEMA-SES-n.-05.2020_Saude-covid_retificacao_para-publicacao.pdf</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado do Meio Ambiente e Recursos Naturais (SEMA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas à produção de ferramentas para a Gestão de Recursos Hídricos no Estado do Maranhão, no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                   © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 13/05/2020 Divulgação do Resultado Parcial A partir de 03/06/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 11/06/2020 Fase 2 Data limite para submissão online Até o dia 25/06/2020 Divulgação do Resultado Parcial A partir de 03/07/2020 Período de recurso 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2) </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado de Saúde (SES/MA) com o objetivo de contratar bolsistas para a complementação da força de trabalho nas Unidades de Pronto Atendimento (UPAs) do Maranhão atuando no atendimento à população no combate à pandemia do Covid-19, no âmbito da Linha de ação “Mais Qualificação”, e do programa “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.              © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data Limite da Inscrição no Patronage e via e-mail Até dia 11/05/2020 Divulgação do Resultado Parcial A partir de 13/05/2020 Período de Recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 20/05/2020 </t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA/SSP Nº 004/2020</t>
+          <t>EDITAL FAPEMA/SEMA Nº 03/2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-ssp-no-004-2020-seguranca-publica/</t>
+          <t>https://www.fapema.br/edital-fapema-sema-no-03-2020-gestao-de-recursos-hidricos-do-maranhao/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado da Segurança Pública do Maranhão (SSP/MA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas a ferramentas inteligentes para facilitar, racionalizar e garantir a eficiência nos processos de gestão e controle em ações de Segurança Pública no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias úteis após a divulgação do Resultado Final (Fase 2)     © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 17/04/2020 Até o dia 11/05/2020 Divulgação do Resultado Parcial A partir de 15/05/2020 A partir de 29/05/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/05/2020 A partir de 08/06/2020 Fase 2 Data limite para submissão online Até o dia 08/06/2020 Até o dia 19/06/2020 Divulgação do Resultado Parcial A partir de 22/06/2020 A partir de 30/06/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2)</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/07/resultado_parcial_fase_2_edital_fapema_n_03.2020_gestao_de_recursos_hidricos.pdf</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado da Segurança Pública do Maranhão (SSP/MA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas a ferramentas inteligentes para facilitar, racionalizar e garantir a eficiência nos processos de gestão e controle em ações de Segurança Pública no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias úteis após a divulgação do Resultado Final (Fase 2)     © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 17/04/2020 Até o dia 11/05/2020 Divulgação do Resultado Parcial A partir de 15/05/2020 A partir de 29/05/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/05/2020 A partir de 08/06/2020 Fase 2 Data limite para submissão online Até o dia 08/06/2020 Até o dia 19/06/2020 Divulgação do Resultado Parcial A partir de 22/06/2020 A partir de 30/06/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2) </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado do Meio Ambiente e Recursos Naturais (SEMA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas à produção de ferramentas para a Gestão de Recursos Hídricos no Estado do Maranhão, no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                   © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 13/05/2020 Divulgação do Resultado Parcial A partir de 03/06/2020 Período de recurso 05 dias após a divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 11/06/2020 Fase 2 Data limite para submissão online Até o dia 25/06/2020 Divulgação do Resultado Parcial A partir de 03/07/2020 Período de recurso 05 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2) </t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDITAL FAPEMA Nº 001/2020 – EVENTOS – </t>
+          <t>EDITAL FAPEMA/SSP Nº 004/2020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-001-2020-eventos/</t>
+          <t>https://www.fapema.br/edital-fapema-ssp-no-004-2020-seguranca-publica/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” no âmbito do programa “Mais Divulgação”, tornam público o presente edital aos pesquisadores maranhenses interessados em organizar e participar de eventos de cunho científico, tecnológico ou de inovação.       © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA 3ª CHAMADA Período do Evento 01/07/2020 a 30/09/2020 01/10/2020 a 30/12/2020 01/01/2021 a 31/03/2021 Período de Inscrição 09/03/2020 a 27/03/2020 11/05/2020 a 29/05/2020 03/08/2020 a 21/08/2020 Resultado Parcial a partir de 04/05/2020 a partir de 03/07/2020 a partir de 02/10/2020 Período de Recurso 05 dias úteis após a divulgação do resultado parcial Resultado Final a partir de 29/05/2020 a partir de 07/08/2020 a partir de 06/11/2020 Entrega da Documentação Impressa 05 dias úteis após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/04/Edital-FAPEMA-SSP-n.-04.2020_Seguranca-Publica_retificacao.pdf</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” no âmbito do programa “Mais Divulgação”, tornam público o presente edital aos pesquisadores maranhenses interessados em organizar e participar de eventos de cunho científico, tecnológico ou de inovação.       © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA 3ª CHAMADA Período do Evento 01/07/2020 a 30/09/2020 01/10/2020 a 30/12/2020 01/01/2021 a 31/03/2021 Período de Inscrição 09/03/2020 a 27/03/2020 11/05/2020 a 29/05/2020 03/08/2020 a 21/08/2020 Resultado Parcial a partir de 04/05/2020 a partir de 03/07/2020 a partir de 02/10/2020 Período de Recurso 05 dias úteis após a divulgação do resultado parcial Resultado Final a partir de 29/05/2020 a partir de 07/08/2020 a partir de 06/11/2020 Entrega da Documentação Impressa 05 dias úteis após a divulgação do resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA) e a Secretaria de Estado da Segurança Pública do Maranhão (SSP/MA), com o objetivo de apoiar o desenvolvimento de pesquisas direcionadas a ferramentas inteligentes para facilitar, racionalizar e garantir a eficiência nos processos de gestão e controle em ações de Segurança Pública no âmbito da Linha de ação “Mais Qualificação”, e do programa de “Políticas Públicas”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                10 dias úteis após a divulgação do Resultado Final (Fase 2)     © 2021 Copyright . Todos os direitos reservados. Fase 1 Data limite para submissão online Até o dia 17/04/2020 Até o dia 11/05/2020 Divulgação do Resultado Parcial A partir de 15/05/2020 A partir de 29/05/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 29/05/2020 A partir de 08/06/2020 Fase 2 Data limite para submissão online Até o dia 08/06/2020 Até o dia 19/06/2020 Divulgação do Resultado Parcial A partir de 22/06/2020 A partir de 30/06/2020 Período de recurso 10 dias após divulgação do Resultado Parcial 5 dias após divulgação do Resultado Parcial Divulgação do Resultado Final A partir de 10/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do Resultado Final (Fase 2) </t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 018 / 2019 – NEWTON FUND IMPACT SCHEME (NFIS)</t>
+          <t xml:space="preserve">EDITAL FAPEMA Nº 001/2020 – EVENTOS – </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-018-2019-newton-fund-impact-scheme-nfis/</t>
+          <t>https://www.fapema.br/edital-fapema-no-001-2020-eventos/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Inovação” e no âmbito do programa “Mais Inova”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 19/02/2020 Divulgação dos resultados A partir de fevereiro de 2020 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados Data de início do(s) projeto(s) selecionados A partir de abril de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/03/Edital-FAPEMA-n_001_2020_Eventos_para-publicacao-final.pdf</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Inovação” e no âmbito do programa “Mais Inova”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 19/02/2020 Divulgação dos resultados A partir de fevereiro de 2020 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados Data de início do(s) projeto(s) selecionados A partir de abril de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” no âmbito do programa “Mais Divulgação”, tornam público o presente edital aos pesquisadores maranhenses interessados em organizar e participar de eventos de cunho científico, tecnológico ou de inovação.       © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª CHAMADA 2ª CHAMADA 3ª CHAMADA Período do Evento 01/07/2020 a 30/09/2020 01/10/2020 a 30/12/2020 01/01/2021 a 31/03/2021 Período de Inscrição 09/03/2020 a 27/03/2020 11/05/2020 a 29/05/2020 03/08/2020 a 21/08/2020 Resultado Parcial a partir de 04/05/2020 a partir de 03/07/2020 a partir de 02/10/2020 Período de Recurso 05 dias úteis após a divulgação do resultado parcial Resultado Final a partir de 29/05/2020 a partir de 07/08/2020 a partir de 06/11/2020 Entrega da Documentação Impressa 05 dias úteis após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edital nº 20/2019 – FAMELAB BRASIL 2020 – CANCELADO</t>
+          <t>EDITAL FAPEMA Nº 018 / 2019 – NEWTON FUND IMPACT SCHEME (NFIS)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-01-2020-famelab-brasil-2020/</t>
+          <t>https://www.fapema.br/edital-fapema-no-018-2019-newton-fund-impact-scheme-nfis/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Conselho Nacional das Fundações de Amparo a Pesquisas Brasileiras (CONFAP), o Ministério da Ciência, Tecnologia, Inovações e Comunicações, por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico (MCTIC/CNPq) e o Conselho Britânico, com o objetivo de identificar e apoiar estudantes no âmbito da competição internacional de comunicação científica, no âmbito da Linha de ação “Mais Inovação” e do programa “Cooperação Internacional”, torna pública a realização do Concurso FameLab 2020 e convida os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Anúncio da chamada original nos sites do British Council 23 de outubro de 2019 Data limite para submissão na plataforma British Council 13 de fevereiro de 2020 Data limite para submissão na plataforma Patronage (FAPEMA) 21 de fevereiro de 2020 Divulgação do resultado parcial 06 de março de 2020 Período para recursos 09 e 10 de março de 2020 Divulgação do resultado final 16 de março de 2020 Entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação do resultado final Anúncio dos semifinalistas selecionados para a primeira etapa presencial do concurso 03 de abril de 2021 Eventos Nacionais De 04 a 08 de maio de 2020 FameLab Internacional – Reino Unido Junho de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/02/Edital-Newton-Fund-Impact-Scheme-2019_enviado-p-publicacao.pdf</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Conselho Nacional das Fundações de Amparo a Pesquisas Brasileiras (CONFAP), o Ministério da Ciência, Tecnologia, Inovações e Comunicações, por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico (MCTIC/CNPq) e o Conselho Britânico, com o objetivo de identificar e apoiar estudantes no âmbito da competição internacional de comunicação científica, no âmbito da Linha de ação “Mais Inovação” e do programa “Cooperação Internacional”, torna pública a realização do Concurso FameLab 2020 e convida os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Anúncio da chamada original nos sites do British Council 23 de outubro de 2019 Data limite para submissão na plataforma British Council 13 de fevereiro de 2020 Data limite para submissão na plataforma Patronage (FAPEMA) 21 de fevereiro de 2020 Divulgação do resultado parcial 06 de março de 2020 Período para recursos 09 e 10 de março de 2020 Divulgação do resultado final 16 de março de 2020 Entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação do resultado final Anúncio dos semifinalistas selecionados para a primeira etapa presencial do concurso 03 de abril de 2021 Eventos Nacionais De 04 a 08 de maio de 2020 FameLab Internacional – Reino Unido Junho de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Inovação” e no âmbito do programa “Mais Inova”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 19/02/2020 Divulgação dos resultados A partir de fevereiro de 2020 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados Data de início do(s) projeto(s) selecionados A partir de abril de 2020 </t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 019/2019 – PDCTR CNPQ – RETIFICADO</t>
+          <t>Edital nº 20/2019 – FAMELAB BRASIL 2020 – CANCELADO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-019-2019-pdctr-cnpq/</t>
+          <t>https://www.fapema.br/edital-no-01-2020-famelab-brasil-2020/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – ( ), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão ( ), em parceria com o Ministério da Ciência, Tecnologia, Inovações e Comunicações ( ), por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico ( ), com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “ ”, tornam público, no âmbito do Programa de Desenvolvimento Científico e Tecnológico Regional ( ), o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 07/02/2020 Divulgação do Resultado Parcial A partir de 19/06/2020 Período de recursos 10 dias úteis após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 17/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do resultado Final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2020/02/edital-famelab-2020-alterado.pdf</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – ( ), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão ( ), em parceria com o Ministério da Ciência, Tecnologia, Inovações e Comunicações ( ), por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico ( ), com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “ ”, tornam público, no âmbito do Programa de Desenvolvimento Científico e Tecnológico Regional ( ), o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 07/02/2020 Divulgação do Resultado Parcial A partir de 19/06/2020 Período de recursos 10 dias úteis após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 17/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do resultado Final </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação (SECTI), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Conselho Nacional das Fundações de Amparo a Pesquisas Brasileiras (CONFAP), o Ministério da Ciência, Tecnologia, Inovações e Comunicações, por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico (MCTIC/CNPq) e o Conselho Britânico, com o objetivo de identificar e apoiar estudantes no âmbito da competição internacional de comunicação científica, no âmbito da Linha de ação “Mais Inovação” e do programa “Cooperação Internacional”, torna pública a realização do Concurso FameLab 2020 e convida os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Anúncio da chamada original nos sites do British Council 23 de outubro de 2019 Data limite para submissão na plataforma British Council 13 de fevereiro de 2020 Data limite para submissão na plataforma Patronage (FAPEMA) 21 de fevereiro de 2020 Divulgação do resultado parcial 06 de março de 2020 Período para recursos 09 e 10 de março de 2020 Divulgação do resultado final 16 de março de 2020 Entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação do resultado final Anúncio dos semifinalistas selecionados para a primeira etapa presencial do concurso 03 de abril de 2021 Eventos Nacionais De 04 a 08 de maio de 2020 FameLab Internacional – Reino Unido Junho de 2020 </t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Edital nº 23/2019 – FAPEMA/SEBRAE ECONOMIA CRIATIVA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 019/2019 – PDCTR CNPQ – RETIFICADO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-23-2019-fapema-sebrae-economia-criativa/</t>
+          <t>https://www.fapema.br/edital-fapema-no-019-2019-pdctr-cnpq/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Serviço de Apoio às Micro e Pequenas Empresas do Estado do Maranhão (SEBRAE), com objetivo de incentivar a criatividade econômica nos diversos modelos de negócios, na linha de ação “Mais Inovação” e no âmbito do programa “Inova Maranhão”, tornam público o presente edital e convida microempreendedores individuais, micro empresas e empresas de pequeno porte com sede no estado do Maranhão, e que atuam no âmbito da Economia Criativa a apresentarem suas propostas nos termos aqui estabelecidos.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão das propostas Até o dia 24/01/2020 07/02/2020 Divulgação do Resultado Parcial A partir de 13/03/2020 27/03/2020 Período de recursos De 16 a 18/03/2020 30/03/2020 a 01/04/2020 Divulgação do Resultado Final A partir de 01/04/2020 15/04/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final Visita técnica aos empreendimentos selecionados Setembro de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/12/Edital-Fapema-Nº-019-2019-PDCTR-CNPQ_.pdf</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Serviço de Apoio às Micro e Pequenas Empresas do Estado do Maranhão (SEBRAE), com objetivo de incentivar a criatividade econômica nos diversos modelos de negócios, na linha de ação “Mais Inovação” e no âmbito do programa “Inova Maranhão”, tornam público o presente edital e convida microempreendedores individuais, micro empresas e empresas de pequeno porte com sede no estado do Maranhão, e que atuam no âmbito da Economia Criativa a apresentarem suas propostas nos termos aqui estabelecidos.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão das propostas Até o dia 24/01/2020 07/02/2020 Divulgação do Resultado Parcial A partir de 13/03/2020 27/03/2020 Período de recursos De 16 a 18/03/2020 30/03/2020 a 01/04/2020 Divulgação do Resultado Final A partir de 01/04/2020 15/04/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final Visita técnica aos empreendimentos selecionados Setembro de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – ( ), por intermédio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão ( ), em parceria com o Ministério da Ciência, Tecnologia, Inovações e Comunicações ( ), por intermédio do Conselho Nacional de Desenvolvimento Científico e Tecnológico ( ), com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “ ”, tornam público, no âmbito do Programa de Desenvolvimento Científico e Tecnológico Regional ( ), o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.                    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 07/02/2020 Divulgação do Resultado Parcial A partir de 19/06/2020 Período de recursos 10 dias úteis após a divulgação do resultado Parcial Divulgação do Resultado Final A partir de 17/07/2020 Entrega da documentação impressa 10 dias úteis após a divulgação do resultado Final </t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edital nº 21/2019 – IMESC</t>
+          <t>Edital nº 23/2019 – FAPEMA/SEBRAE ECONOMIA CRIATIVA – PRORROGADO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-021-2019-imesc/</t>
+          <t>https://www.fapema.br/edital-no-23-2019-fapema-sebrae-economia-criativa/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 06/01/2020 Divulgação do Resultado Parcial A partir de 14/02/2020 Período de recursos De 17 a 19/02/2020 Divulgação do Resultado Final A partir de 02/03/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/12/Edital-2019_Economia-Criativa-Sebrae_versao-para-publicacao_final-3ALTERADO-convertido.pdf</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 06/01/2020 Divulgação do Resultado Parcial A partir de 14/02/2020 Período de recursos De 17 a 19/02/2020 Divulgação do Resultado Final A partir de 02/03/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão (FAPEMA), em parceria com o Serviço de Apoio às Micro e Pequenas Empresas do Estado do Maranhão (SEBRAE), com objetivo de incentivar a criatividade econômica nos diversos modelos de negócios, na linha de ação “Mais Inovação” e no âmbito do programa “Inova Maranhão”, tornam público o presente edital e convida microempreendedores individuais, micro empresas e empresas de pequeno porte com sede no estado do Maranhão, e que atuam no âmbito da Economia Criativa a apresentarem suas propostas nos termos aqui estabelecidos.         © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão das propostas Até o dia 24/01/2020 07/02/2020 Divulgação do Resultado Parcial A partir de 13/03/2020 27/03/2020 Período de recursos De 16 a 18/03/2020 30/03/2020 a 01/04/2020 Divulgação do Resultado Final A partir de 01/04/2020 15/04/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final Visita técnica aos empreendimentos selecionados Setembro de 2020 </t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EDITAL Nº 16/2019 – CONFAP-UK Academies</t>
+          <t>Edital nº 21/2019 – IMESC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-16-2019-confap-uk-academies/</t>
+          <t>https://www.fapema.br/edital-no-021-2019-imesc/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com o Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa – CONFAP e o The Royal Society no escopo do Fundo Newton, com o objetivo de disseminar no Maranhão os programas e projetos de apoio internacional de ciência e inovação, no âmbito da Linha de ação “Mais Inovação” e no âmbito do programa “Cooperação Internacional”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Divulgação do Resultado 13/08/2019 Entrega da Documentação Até 05 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/12/Edital-nº-021.2019-IMESC_-convertido.pdf</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com o Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa – CONFAP e o The Royal Society no escopo do Fundo Newton, com o objetivo de disseminar no Maranhão os programas e projetos de apoio internacional de ciência e inovação, no âmbito da Linha de ação “Mais Inovação” e no âmbito do programa “Cooperação Internacional”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Divulgação do Resultado 13/08/2019 Entrega da Documentação Até 05 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para submissão das propostas Até o dia 06/01/2020 Divulgação do Resultado Parcial A partir de 14/02/2020 Período de recursos De 17 a 19/02/2020 Divulgação do Resultado Final A partir de 02/03/2020 Entrega da documentação impressa 5 dias úteis após a divulgação do resultado final </t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 012/2019 – PRÊMIO FAPEMA TEREZINHA RÊGO 2019 – PRORROGADO</t>
+          <t>EDITAL Nº 16/2019 – CONFAP-UK Academies</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-012-2019-premio-fapema-terezinha-rego-2019/</t>
+          <t>https://www.fapema.br/edital-no-16-2019-confap-uk-academies/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público a edição 2019 do Prêmio FAPEMA e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 26/08/2019 Divulgação do Resultado Parcial (Finalistas) A partir de 25/10/2019 Resultado Final (Cerimônia de Premiação) 05/12/2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/08/Edital-n-16-2019-UK-Academies.pdf</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público a edição 2019 do Prêmio FAPEMA e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 26/08/2019 Divulgação do Resultado Parcial (Finalistas) A partir de 25/10/2019 Resultado Final (Cerimônia de Premiação) 05/12/2019 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com o Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa – CONFAP e o The Royal Society no escopo do Fundo Newton, com o objetivo de disseminar no Maranhão os programas e projetos de apoio internacional de ciência e inovação, no âmbito da Linha de ação “Mais Inovação” e no âmbito do programa “Cooperação Internacional”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Divulgação do Resultado 13/08/2019 Entrega da Documentação Até 05 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 017/2019 – MED SAÚDE</t>
+          <t>EDITAL FAPEMA Nº 012/2019 – PRÊMIO FAPEMA TEREZINHA RÊGO 2019 – PRORROGADO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-017-2019-med-saude/</t>
+          <t>https://www.fapema.br/edital-fapema-no-012-2019-premio-fapema-terezinha-rego-2019/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA e em parceria com a Secretaria de Estado Extraordinária de Articulação das Políticas Públicas (SEEPP), com o objetivo de apoiar projetos de extensão relacionados com o monitoramento de serviços de saúde, por meio da linha de ação “Mais Qualificação” e no âmbito do programa “Qualificar para Pesquisar”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 Divulgação dos resultados A partir de 27/09/2019 Período para recursos De 30/09 a 04/10/2019 Divulgação do Resultado Final A partir de 31/10/2019 Previsão de implementação das bolsas A partir de novembro de 2019 Data limite para entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/08/Edital-FAPEMA-n-012-2019-PREMIO-FAPEMA-TEREZINHA-REGO.pdf</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA e em parceria com a Secretaria de Estado Extraordinária de Articulação das Políticas Públicas (SEEPP), com o objetivo de apoiar projetos de extensão relacionados com o monitoramento de serviços de saúde, por meio da linha de ação “Mais Qualificação” e no âmbito do programa “Qualificar para Pesquisar”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 Divulgação dos resultados A partir de 27/09/2019 Período para recursos De 30/09 a 04/10/2019 Divulgação do Resultado Final A partir de 31/10/2019 Previsão de implementação das bolsas A partir de novembro de 2019 Data limite para entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público a edição 2019 do Prêmio FAPEMA e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 26/08/2019 Divulgação do Resultado Parcial (Finalistas) A partir de 25/10/2019 Resultado Final (Cerimônia de Premiação) 05/12/2019 </t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 011/2019 – VETERINÁRIA</t>
+          <t>EDITAL FAPEMA Nº 017/2019 – MED SAÚDE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-011-2019-veterinaria/</t>
+          <t>https://www.fapema.br/edital-fapema-no-017-2019-med-saude/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Pró-Reitoria de Pesquisa e Pós-Graduação da Universidade Estadual do Maranhão – UEMA, no âmbito da linha de ação “Mais Qualificação” e do programa “Qualificar” da FAPEMA, tornam público o presente edital nº 031/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Período de inscrição presencial de 24 de julho a 09 de agosto de 2019 Divulgação do resultado final Até o dia 04 de setembro de 2019 Entrega da documentação impressa para implementação de bolsa Data a definir</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/08/Edital-017-2019-MED-SAÚDE_FAPEMA-SEEPP_01.08.19_publicado-muda2.3.pdf</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Pró-Reitoria de Pesquisa e Pós-Graduação da Universidade Estadual do Maranhão – UEMA, no âmbito da linha de ação “Mais Qualificação” e do programa “Qualificar” da FAPEMA, tornam público o presente edital nº 031/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Período de inscrição presencial de 24 de julho a 09 de agosto de 2019 Divulgação do resultado final Até o dia 04 de setembro de 2019 Entrega da documentação impressa para implementação de bolsa Data a definir </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA e em parceria com a Secretaria de Estado Extraordinária de Articulação das Políticas Públicas (SEEPP), com o objetivo de apoiar projetos de extensão relacionados com o monitoramento de serviços de saúde, por meio da linha de ação “Mais Qualificação” e no âmbito do programa “Qualificar para Pesquisar”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/08/2019 Divulgação dos resultados A partir de 27/09/2019 Período para recursos De 30/09 a 04/10/2019 Divulgação do Resultado Final A partir de 31/10/2019 Previsão de implementação das bolsas A partir de novembro de 2019 Data limite para entrega da documentação impressa Até 05 (cinco) dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 013/2019 – SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 011/2019 – VETERINÁRIA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-013-2019-semana-nacional-de-ciencia-e-tecnologia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-011-2019-veterinaria/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 013/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 08/08/2019 Divulgação do Resultado A partir de 06/09/2019 A partir de 29/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/07/EDITAL-FAPEMA-Nº-011-2019-–-VETERINÁRIA-final_enviado-para-informatica.pdf</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 013/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 08/08/2019 Divulgação do Resultado A partir de 06/09/2019 A partir de 29/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Pró-Reitoria de Pesquisa e Pós-Graduação da Universidade Estadual do Maranhão – UEMA, no âmbito da linha de ação “Mais Qualificação” e do programa “Qualificar” da FAPEMA, tornam público o presente edital nº 031/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Período de inscrição presencial de 24 de julho a 09 de agosto de 2019 Divulgação do resultado final Até o dia 04 de setembro de 2019 Entrega da documentação impressa para implementação de bolsa Data a definir </t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 014/2019 – MONITORIA NA SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA/SEMANA ESTADUAL DE CIÊNCIA</t>
+          <t>EDITAL FAPEMA Nº 013/2019 – SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA – PRORROGADO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-014-2019-monitoria-na-semana-nacional-de-ciencia-e-tecnologia-semana-estadual-de-ciencia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-013-2019-semana-nacional-de-ciencia-e-tecnologia/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 014/2019 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 23 a 26 de outubro de 2019, em São Luís-MA. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 Divulgação do Resultado A partir de 20/09/2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/07/EDITAL-FAPEMA-Nº-013-2019_SNCT-2019_final-publicado-2.pdf</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 014/2019 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 23 a 26 de outubro de 2019, em São Luís-MA. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 Divulgação do Resultado A partir de 20/09/2019 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 013/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 08/08/2019 Divulgação do Resultado A partir de 06/09/2019 A partir de 29/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 010/2019 – GERAÇÃO CIÊNCIA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 014/2019 – MONITORIA NA SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA/SEMANA ESTADUAL DE CIÊNCIA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0102019-geracao-ciencia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-014-2019-monitoria-na-semana-nacional-de-ciencia-e-tecnologia-semana-estadual-de-ciencia/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA em parceria com a da Secretaria Extraordinária de Juventude do Maranhão – SSEJUV, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais Inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/07/Edital-n-014_2019-Fapema-Monitoria-SNCT-2019_final.pdf</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA em parceria com a da Secretaria Extraordinária de Juventude do Maranhão – SSEJUV, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais Inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 014/2019 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 23 a 26 de outubro de 2019, em São Luís-MA. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2019 Divulgação do Resultado A partir de 20/09/2019 </t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 009/2019 – JUVENTUDE COM CIÊNCIA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 010/2019 – GERAÇÃO CIÊNCIA – PRORROGADO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0092019-juventude-com-ciencia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0102019-geracao-ciencia/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV e a Secretaria dos Direitos Humanos e Particpação Popular – SEDIHPOP, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Divulgação das propostas aprovadas A partir de 09/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/04/Edital-010_2019-GERAÇÃO-CIÊNCIA_retificado.pdf</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV e a Secretaria dos Direitos Humanos e Particpação Popular – SEDIHPOP, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Divulgação das propostas aprovadas A partir de 09/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA em parceria com a da Secretaria Extraordinária de Juventude do Maranhão – SSEJUV, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais Inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 008/2019 – COM CIÊNCIA CULTURAL – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 009/2019 – JUVENTUDE COM CIÊNCIA – PRORROGADO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0082019-com-ciencia-cultural/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0092019-juventude-com-ciencia/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/04/Edital-009_2019-JUVENTUDE-COM-CIÊNCIA_retificado.pdf</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV e a Secretaria dos Direitos Humanos e Particpação Popular – SEDIHPOP, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Divulgação das propostas aprovadas A partir de 09/08/2019 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 007/2019 – STARTUPS – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 008/2019 – COM CIÊNCIA CULTURAL – PRORROGADO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0072019-startups/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0082019-com-ciencia-cultural/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar projetos de base tecnológica com potencial de escalabilidade e replicabilidade através da Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, conforme Decreto Estadual n.º 34.648, de 02 de janeiro de 2019, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 13/05/2019 22/05/2019 Divulgação dos resultados para a 1ª fase (Resultado Parcial) A partir de 15/06/2019 Data limite para submissão para a 2ª fase Até 26/08/2019 Divulgação do Resultado Parcial da 2ª fase A partir de 16/09/2019 Período para Recursos De 17/09/2019 a 20/09/2019 Divulgação do Resultado Final A partir de 04/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/04/Edital-008_2019-COM-CIÊNCIA-CULTURAL_retificado.pdf</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar projetos de base tecnológica com potencial de escalabilidade e replicabilidade através da Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, conforme Decreto Estadual n.º 34.648, de 02 de janeiro de 2019, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 13/05/2019 22/05/2019 Divulgação dos resultados para a 1ª fase (Resultado Parcial) A partir de 15/06/2019 Data limite para submissão para a 2ª fase Até 26/08/2019 Divulgação do Resultado Parcial da 2ª fase A partir de 16/09/2019 Período para Recursos De 17/09/2019 a 20/09/2019 Divulgação do Resultado Final A partir de 04/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final </t>
+          <t xml:space="preserve">Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 03/06/2019 13/06/2019 Resultado Parcial A partir de 16/08/2019 22/11/2019 Período para recursos 25 a 29/11/2019 Resultado Final A partir de janeiro de 2020 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 006/2019 – PÓS-DOUTORADO NO PAÍS E NO EXTERIOR – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 007/2019 – STARTUPS – PRORROGADO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/bolsas-de-pos-doutorado-no-pais-e-no-exterior-edital-fapema-no-006-2019-pos-doutorado-no-pais-e-no-exterior/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0072019-startups/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 006 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/04/Retificação_Edital_007_2019_Startups_13_09.pdf</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 006 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar projetos de base tecnológica com potencial de escalabilidade e replicabilidade através da Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, conforme Decreto Estadual n.º 34.648, de 02 de janeiro de 2019, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.      © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 13/05/2019 22/05/2019 Divulgação dos resultados para a 1ª fase (Resultado Parcial) A partir de 15/06/2019 Data limite para submissão para a 2ª fase Até 26/08/2019 Divulgação do Resultado Parcial da 2ª fase A partir de 16/09/2019 Período para Recursos De 17/09/2019 a 20/09/2019 Divulgação do Resultado Final A partir de 04/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final </t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 005/2019 – DOUTORADO NO PAÍS E NO EXTERIOR – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 006/2019 – PÓS-DOUTORADO NO PAÍS E NO EXTERIOR – PRORROGADO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/bolsas-de-doutorado-no-pais-e-no-exterior-edital-fapema-no-005-2019-doutorado-no-pais-e-no-exterior/</t>
+          <t>https://www.fapema.br/bolsas-de-pos-doutorado-no-pais-e-no-exterior-edital-fapema-no-006-2019-pos-doutorado-no-pais-e-no-exterior/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 005 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelada) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Resultado Parcial A partir de 09/08/2019 Período para Recursos De 12 a 16/08/2019 Resultado Final A partir de 16/09/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/03/Edital-Fapema-Nº-006-2019-Bolsa-de-Pós-Doutorado-no-País-e-no-exterior-1.pdf</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 005 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelada) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Resultado Parcial A partir de 09/08/2019 Período para Recursos De 12 a 16/08/2019 Resultado Final A partir de 16/09/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 006 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 004/2019 – MESTRADO NO PAÍS – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 005/2019 – DOUTORADO NO PAÍS E NO EXTERIOR – PRORROGADO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/bolsas-de-mestrado-no-pais-edital-fapema-no-004-2019-mestrado-no-pais/</t>
+          <t>https://www.fapema.br/bolsas-de-doutorado-no-pais-e-no-exterior-edital-fapema-no-005-2019-doutorado-no-pais-e-no-exterior/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/03/EDITAL-FAPEMA-005-2019-Bolsa-de-Doutorado-no-País-e-no-exterior-cronograma-retificado.pdf</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de contribuir para a qualificação dos professores e pesquisadores do Maranhão através da linha de ação “Mais Qualificação” e no âmbito do programa “Mais Bolsa”, tornam público o presente edital nº 005 / 2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelada) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Resultado Parcial A partir de 09/08/2019 Período para Recursos De 12 a 16/08/2019 Resultado Final A partir de 16/09/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado final Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA – APEX Nº 003/2019  – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 004/2019 – MESTRADO NO PAÍS – PRORROGADO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-apex-no-0032019/</t>
+          <t>https://www.fapema.br/bolsas-de-mestrado-no-pais-edital-fapema-no-004-2019-mestrado-no-pais/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão, por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, considerando o Convênio Apex-Brasil/FAPEMA nº 50-04/2018, que tem por objeto a implementação de um Núcleo Operacional do Programa de Qualificação para Exportação (PEIEX) no Estado do Maranhão, em consonância com a Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, torna público o presente Edital nº 003/2019, destinado à seleção de bolsistas, nos termos e condições aqui estabelecidos. Selecionar pessoal qualificado para a concessão de bolsas de extensão para inovação, assim como, formação de cadastro reserva para suprir vagas de bolsistas que atuarão no PEIEX – Programa de Qualificação para Exportação. O PEIEX é uma iniciativa da Agência Brasileira de Promoção de Exportações e Investimentos (Apex-Brasil), e, através do Convênio nº 50-04/2018, será implementado um Núcleo Operacional no Estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Lançamento do edital 11/01/2019 Data limite para Inscrição on-line 21/01/2019 22/01/2019 Divulgação do resultado da etapa de “Análise Curricular e de Adequação de Perfil” A partir de 01/02/2019 Etapa de Entrevistas 11/02/2019 a 13/02/2019 Resultado Final A partir de 15/02/2019 Data limite para entrada de recursos 05 dias corridos após a data de publicação do resultado final Resultado Final Homologado 25/02/2019 Treinamento Metodologia PEIEX 11/03/2019 a 15/03/2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/03/Edital-Fapema-Nº-004-2019-Bolsa-de-Mestrado-no-País-1.pdf</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão, por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, considerando o Convênio Apex-Brasil/FAPEMA nº 50-04/2018, que tem por objeto a implementação de um Núcleo Operacional do Programa de Qualificação para Exportação (PEIEX) no Estado do Maranhão, em consonância com a Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, torna público o presente Edital nº 003/2019, destinado à seleção de bolsistas, nos termos e condições aqui estabelecidos. Selecionar pessoal qualificado para a concessão de bolsas de extensão para inovação, assim como, formação de cadastro reserva para suprir vagas de bolsistas que atuarão no PEIEX – Programa de Qualificação para Exportação. O PEIEX é uma iniciativa da Agência Brasileira de Promoção de Exportações e Investimentos (Apex-Brasil), e, através do Convênio nº 50-04/2018, será implementado um Núcleo Operacional no Estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Lançamento do edital 11/01/2019 Data limite para Inscrição on-line 21/01/2019 22/01/2019 Divulgação do resultado da etapa de “Análise Curricular e de Adequação de Perfil” A partir de 01/02/2019 Etapa de Entrevistas 11/02/2019 a 13/02/2019 Resultado Final A partir de 15/02/2019 Data limite para entrada de recursos 05 dias corridos após a data de publicação do resultado final Resultado Final Homologado 25/02/2019 Treinamento Metodologia PEIEX 11/03/2019 a 15/03/2019 </t>
+          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. 1ª CHAMADA 2ª CHAMADA (cancelado) Inscrições on-line 29/03/2019 a 03/05/2019 06/05/2019 05/08/2019 a 02/09/2019 Divulgação dos candidatos aprovados A partir de 31/07/2019 A partir de 31/10/2019 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Até 05 dias úteis após a divulgação do resultado Início da implementação das bolsas A partir de setembro de 2019 A partir de março de 2020 </t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 002/2019 – UNIVERSAL</t>
+          <t>EDITAL FAPEMA – APEX Nº 003/2019  – PRORROGADO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-o-0022019-universal/</t>
+          <t>https://www.fapema.br/edital-fapema-apex-no-0032019/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação “Mais Ciência” e no âmbito do programa “Mais Pesquisa”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos. Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, desenvolvidos em instituições de ensino superior e/ou pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para submissão on-line 01/03/2019 Divulgação dos resultados A partir de 19/07/2019 dezembro 2019 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/01/Edital-FAPEMA-APEX-03-2019-Bolsas-PEIEX.pdf</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação “Mais Ciência” e no âmbito do programa “Mais Pesquisa”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos. Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, desenvolvidos em instituições de ensino superior e/ou pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para submissão on-line 01/03/2019 Divulgação dos resultados A partir de 19/07/2019 dezembro 2019 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão, por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, considerando o Convênio Apex-Brasil/FAPEMA nº 50-04/2018, que tem por objeto a implementação de um Núcleo Operacional do Programa de Qualificação para Exportação (PEIEX) no Estado do Maranhão, em consonância com a Linha de Ação “Mais Inovação” e no âmbito do Programa “Inova Maranhão”, torna público o presente Edital nº 003/2019, destinado à seleção de bolsistas, nos termos e condições aqui estabelecidos. Selecionar pessoal qualificado para a concessão de bolsas de extensão para inovação, assim como, formação de cadastro reserva para suprir vagas de bolsistas que atuarão no PEIEX – Programa de Qualificação para Exportação. O PEIEX é uma iniciativa da Agência Brasileira de Promoção de Exportações e Investimentos (Apex-Brasil), e, através do Convênio nº 50-04/2018, será implementado um Núcleo Operacional no Estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Lançamento do edital 11/01/2019 Data limite para Inscrição on-line 21/01/2019 22/01/2019 Divulgação do resultado da etapa de “Análise Curricular e de Adequação de Perfil” A partir de 01/02/2019 Etapa de Entrevistas 11/02/2019 a 13/02/2019 Resultado Final A partir de 15/02/2019 Data limite para entrada de recursos 05 dias corridos após a data de publicação do resultado final Resultado Final Homologado 25/02/2019 Treinamento Metodologia PEIEX 11/03/2019 a 15/03/2019 </t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 001/2019 – EVENTOS CIENTÍFICOS</t>
+          <t>EDITAL FAPEMA Nº 002/2019 – UNIVERSAL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0012019-eventos-cientificos/</t>
+          <t>https://www.fapema.br/edital-fapema-n-o-0022019-universal/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. CHAMADAS PERÍODO DO EVENTO PERÍODO DE INSCRIÇÃO RESULTADO ENTREGA DA DOCUMENTAÇÃO IMPRESSA 1º 01/04/2019 a 30/06/2019 09/01/2019 a 04/02/2019 A partir de 01/03/2019 05 dias úteis após a divulgação do resultado 2º 01/07/2019 a 30/09/2019 04/03/2019 a 12/04/2019 A partir de 31/05/2019 3º (Cancelada) 01/10/2019 a 31/12/2019 04/06/2019 a 12/07/2019 A partir de 30/08/2019 4º (Cancelada) 01/01/2020 a 31/03/2020 19/08/2019 a 27/09/2019 A partir de 25/10/2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/01/EDITAL-FAPEMA-N-002-2019-UNIVERSAL-1.pdf</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. CHAMADAS PERÍODO DO EVENTO PERÍODO DE INSCRIÇÃO RESULTADO ENTREGA DA DOCUMENTAÇÃO IMPRESSA 1º 01/04/2019 a 30/06/2019 09/01/2019 a 04/02/2019 A partir de 01/03/2019 05 dias úteis após a divulgação do resultado 2º 01/07/2019 a 30/09/2019 04/03/2019 a 12/04/2019 A partir de 31/05/2019 3º (Cancelada) 01/10/2019 a 31/12/2019 04/06/2019 a 12/07/2019 A partir de 30/08/2019 4º (Cancelada) 01/01/2020 a 31/03/2020 19/08/2019 a 27/09/2019 A partir de 25/10/2019 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação “Mais Ciência” e no âmbito do programa “Mais Pesquisa”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos. Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, desenvolvidos em instituições de ensino superior e/ou pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para submissão on-line 01/03/2019 Divulgação dos resultados A partir de 19/07/2019 dezembro 2019 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EDITAL Nº 037/2018 – IMESC – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 001/2019 – EVENTOS CIENTÍFICOS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0372018-imesc/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0012019-eventos-cientificos/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Objetivo: Promover e apoiar as ações do Instituto Maranhense de Estudos Socioeconômicos e Cartográficos – IMESC, a partir do desenvolvimento de estudos, projetos, ações e pesquisas, nas atividades de laboratório, de campo e afins, referentes ao Diagnóstico, Monitoramento e Avaliação das Políticas Públicas relacionadas ao Desenvolvimento Socioeconômico e Ambiental do Estado do Maranhão, com destaque para: Análise Socioeconômica e Ambiental das Bacias Hidrográficas do Estado do Maranhão; Construção de cenários, estimativas e projeções de indicadores relacionados a economia e ao orçamento público do Estado do Maranhão; Monitoramento Socioespacial da Violência na Ilha do Maranhão; Monitoramento e avaliação dos planejamento de longo prazo do Maranhão, com enfoque nos Objetivos de Desenvolvimento Social (ODS) e Elaboração de estratégias Industriais para o Maranhão, com foco na identificação de cadeias produtivas prioritárias. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line Até o dia 10/09/2018 Divulgação dos resultados A partir de 18/09/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Contratação dos bolsistas selecionados A partir de 24/09/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2019/01/EDITAL-FAPEMA-Nº-001-2019-EVENTOS-CIENTÍFICOS_OK-1.pdf</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Promover e apoiar as ações do Instituto Maranhense de Estudos Socioeconômicos e Cartográficos – IMESC, a partir do desenvolvimento de estudos, projetos, ações e pesquisas, nas atividades de laboratório, de campo e afins, referentes ao Diagnóstico, Monitoramento e Avaliação das Políticas Públicas relacionadas ao Desenvolvimento Socioeconômico e Ambiental do Estado do Maranhão, com destaque para: Análise Socioeconômica e Ambiental das Bacias Hidrográficas do Estado do Maranhão; Construção de cenários, estimativas e projeções de indicadores relacionados a economia e ao orçamento público do Estado do Maranhão; Monitoramento Socioespacial da Violência na Ilha do Maranhão; Monitoramento e avaliação dos planejamento de longo prazo do Maranhão, com enfoque nos Objetivos de Desenvolvimento Social (ODS) e Elaboração de estratégias Industriais para o Maranhão, com foco na identificação de cadeias produtivas prioritárias. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line Até o dia 10/09/2018 Divulgação dos resultados A partir de 18/09/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Contratação dos bolsistas selecionados A partir de 24/09/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2019 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. CHAMADAS PERÍODO DO EVENTO PERÍODO DE INSCRIÇÃO RESULTADO ENTREGA DA DOCUMENTAÇÃO IMPRESSA 1º 01/04/2019 a 30/06/2019 09/01/2019 a 04/02/2019 A partir de 01/03/2019 05 dias úteis após a divulgação do resultado 2º 01/07/2019 a 30/09/2019 04/03/2019 a 12/04/2019 A partir de 31/05/2019 3º (Cancelada) 01/10/2019 a 31/12/2019 04/06/2019 a 12/07/2019 A partir de 30/08/2019 4º (Cancelada) 01/01/2020 a 31/03/2020 19/08/2019 a 27/09/2019 A partir de 25/10/2019 </t>
         </is>
       </c>
     </row>
@@ -1686,22 +1686,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N.º 011/2018 – CTC</t>
+          <t>EDITAL Nº 037/2018 – IMESC – RETIFICADO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-o-0112018-ctc/</t>
+          <t>https://www.fapema.br/edital-no-0372018-imesc/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e a Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, buscando desenvolver e fomentar a pesquisa no estado, tornam público o presente Edital de fluxo contínuo e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. PERÍODO DE PARTICIPAÇÃO EM COMITÊS SOLICITAÇÕES DE CRÉDITOS 1º solicitação Até 14 de setembro de 2018 15 a 28 de setembro de 2018 2º solicitação Até 30 de agosto de 2019 02 a 16 de setembro de 2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/EDITAL-FAPEMA-N-037-2018-IMESC-4.pdf</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e a Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, buscando desenvolver e fomentar a pesquisa no estado, tornam público o presente Edital de fluxo contínuo e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. PERÍODO DE PARTICIPAÇÃO EM COMITÊS SOLICITAÇÕES DE CRÉDITOS 1º solicitação Até 14 de setembro de 2018 15 a 28 de setembro de 2018 2º solicitação Até 30 de agosto de 2019 02 a 16 de setembro de 2019 </t>
+          <t xml:space="preserve">Objetivo: Promover e apoiar as ações do Instituto Maranhense de Estudos Socioeconômicos e Cartográficos – IMESC, a partir do desenvolvimento de estudos, projetos, ações e pesquisas, nas atividades de laboratório, de campo e afins, referentes ao Diagnóstico, Monitoramento e Avaliação das Políticas Públicas relacionadas ao Desenvolvimento Socioeconômico e Ambiental do Estado do Maranhão, com destaque para: Análise Socioeconômica e Ambiental das Bacias Hidrográficas do Estado do Maranhão; Construção de cenários, estimativas e projeções de indicadores relacionados a economia e ao orçamento público do Estado do Maranhão; Monitoramento Socioespacial da Violência na Ilha do Maranhão; Monitoramento e avaliação dos planejamento de longo prazo do Maranhão, com enfoque nos Objetivos de Desenvolvimento Social (ODS) e Elaboração de estratégias Industriais para o Maranhão, com foco na identificação de cadeias produtivas prioritárias. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line Até o dia 10/09/2018 Divulgação dos resultados A partir de 18/09/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação do resultado Contratação dos bolsistas selecionados A partir de 24/09/2018 </t>
         </is>
       </c>
     </row>
@@ -1711,22 +1711,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EDITAL Nº 036 / 2018 – UK-Brazil English Collaboration  CONFAP-BRITISH COUNCIL</t>
+          <t>EDITAL FAPEMA N.º 011/2018 – CTC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-036-2018-uk-brazil-english-collaboration-confap-british-council/</t>
+          <t>https://www.fapema.br/edital-fapema-n-o-0112018-ctc/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 21/09/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-Fapema-Nº-11_2018-Comitê-Técnico-Científico.pdf</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 21/09/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e a Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, buscando desenvolver e fomentar a pesquisa no estado, tornam público o presente Edital de fluxo contínuo e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. PERÍODO DE PARTICIPAÇÃO EM COMITÊS SOLICITAÇÕES DE CRÉDITOS 1º solicitação Até 14 de setembro de 2018 15 a 28 de setembro de 2018 2º solicitação Até 30 de agosto de 2019 02 a 16 de setembro de 2019 </t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 032/2018 – CIDADES – RETIFICADO</t>
+          <t>EDITAL Nº 036 / 2018 – UK-Brazil English Collaboration  CONFAP-BRITISH COUNCIL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0322018-cidades/</t>
+          <t>https://www.fapema.br/edital-no-036-2018-uk-brazil-english-collaboration-confap-british-council/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de apoiar projetos que contribuam para a resolução dos problemas enfrentados nas cidades, dentro da linha de ação “Mais Ciência” e no âmbito do Programa “Mais Inclusão”, tornam público o presente Edital nº 032/2018 e convidam todos os interessados a apresentarem seus projetos de pesquisa, nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/EDITAL-N-036-2018-UK-Brazil.pdf</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de apoiar projetos que contribuam para a resolução dos problemas enfrentados nas cidades, dentro da linha de ação “Mais Ciência” e no âmbito do Programa “Mais Inclusão”, tornam público o presente Edital nº 032/2018 e convidam todos os interessados a apresentarem seus projetos de pesquisa, nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 21/09/2018 </t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 15/08/2018 29/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/Edital-FAPEMA-n-035-2018_REDES-TERRITORIAIS_retificado-e-prorrogado.pdf</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1786,22 +1786,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 034/2018 – CADEIA PRODUTIVA DO LEITE – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 032/2018 – CIDADES – RETIFICADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0342018-cadeia-produtiva-do-leite/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0322018-cidades/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de promover o desenvolvimento socioeconômico, do empreendedorismo social e da diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 034/2018 e convidam todos os interessados a apresentarem seus projetos com foco na dinamização da cadeia produtiva do leite, nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/EDITAL-FAPEMA-N-032-2018-CIDADES-retificado.pdf</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de promover o desenvolvimento socioeconômico, do empreendedorismo social e da diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 034/2018 e convidam todos os interessados a apresentarem seus projetos com foco na dinamização da cadeia produtiva do leite, nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de apoiar projetos que contribuam para a resolução dos problemas enfrentados nas cidades, dentro da linha de ação “Mais Ciência” e no âmbito do Programa “Mais Inclusão”, tornam público o presente Edital nº 032/2018 e convidam todos os interessados a apresentarem seus projetos de pesquisa, nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 028/2018 – IECT BABAÇU – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 034/2018 – CADEIA PRODUTIVA DO LEITE – PRORROGADO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0282018-iect-babacu/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0342018-cadeia-produtiva-do-leite/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/EDITAL-FAPEMA-N-034-2018-LEITE-1.pdf</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA, com o objetivo de promover o desenvolvimento socioeconômico, do empreendedorismo social e da diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 034/2018 e convidam todos os interessados a apresentarem seus projetos com foco na dinamização da cadeia produtiva do leite, nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 030/2018 – IECT SAÚDE – RETIFICADO – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 028/2018 – IECT BABAÇU – PRORROGADO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0302018-iect-saude/</t>
+          <t>https://www.fapema.br/edital-no-0282018-iect-babacu/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-FAPEMAn.028-2018-IECT-BABAÇU.pdf</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 029/2018 – IECT AGRICULTURA FAMILIAR – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 030/2018 – IECT SAÚDE – RETIFICADO – PRORROGADO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0292018-iect-agricultura-familiar/</t>
+          <t>https://www.fapema.br/edital-no-0302018-iect-saude/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-n.030-2018-IECT-SAÚDE_retificado.pdf</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 033/2018 – CADEIA PRODUTIVA HORTIFRUTICULTURA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 029/2018 – IECT AGRICULTURA FAMILIAR – PRORROGADO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0332018-hortifruticultura/</t>
+          <t>https://www.fapema.br/edital-no-0292018-iect-agricultura-familiar/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-n.0029-2018-IECT-Agricultura-Familiar.pdf</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 09/08/2018 16/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 031/2018 – VETERINÁRIA</t>
+          <t>EDITAL FAPEMA Nº 033/2018 – CADEIA PRODUTIVA HORTIFRUTICULTURA – PRORROGADO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0312018-veterinaria/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0332018-hortifruticultura/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição De 04 de julho a 30 de julho de 2018 das 8h às 11h30min e das 14h às 17h de segunda a sexta-feira Local Secretaria do Hospital Veterinário Universitário do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – HVU/CCA/UEMA</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/EDITAL-FAPEMA-N-033-2018-HORTIFRUTICULTURA-1.pdf</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição De 04 de julho a 30 de julho de 2018 das 8h às 11h30min e das 14h às 17h de segunda a sexta-feira Local Secretaria do Hospital Veterinário Universitário do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – HVU/CCA/UEMA </t>
+          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 17/08/2018 24/08/2018 Divulgação dos resultados A partir de 05/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -1936,22 +1936,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 019/2018 – INICIATIVAS MAIS IDH  – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 031/2018 – VETERINÁRIA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0192018-iniciativas-mais-idh/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0312018-veterinaria/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 14/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa 05 (cinco) dias úteis após a publicação dos resultados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/07/EDITAL-FAPEMA-N-031-2018-VETERINÁRIA-FAPEMA_UEMA.pdf</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 14/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa 05 (cinco) dias úteis após a publicação dos resultados. </t>
+          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição De 04 de julho a 30 de julho de 2018 das 8h às 11h30min e das 14h às 17h de segunda a sexta-feira Local Secretaria do Hospital Veterinário Universitário do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – HVU/CCA/UEMA </t>
         </is>
       </c>
     </row>
@@ -1961,22 +1961,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EDITAL Nº 015/2018 – ESTÁGIO INTERNACIONAL – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 019/2018 – INICIATIVAS MAIS IDH  – PRORROGADO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0152018-estagio-internacional/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0192018-iniciativas-mais-idh/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-FAPEMA-n-19-2018_Iniciativas-Mais-IDH_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve"> © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 14/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa 05 (cinco) dias úteis após a publicação dos resultados. </t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 025/2018 – COOPERAÇÃO INTERNACIONAL  – RETIFICADO – PRORROGADO</t>
+          <t>EDITAL Nº 015/2018 – ESTÁGIO INTERNACIONAL – PRORROGADO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0252018-cooperacao-internacional/</t>
+          <t>https://www.fapema.br/edital-no-0152018-estagio-internacional/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 08/08/2018 13/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-FAPEMA-015-2018-Estagio-Internacional_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 08/08/2018 13/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EDITAL Nº 014/2018 – ESTÁGIO NACIONAL – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 025/2018 – COOPERAÇÃO INTERNACIONAL  – RETIFICADO – PRORROGADO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-014-2018-estagio-nacional/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0252018-cooperacao-internacional/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-FAPEMA-025_2018-Cooperação-Internacional_prorrogado-e-retificado.pdf</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 08/08/2018 13/08/2018 Divulgação dos resultados A partir de 10/10/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2036,22 +2036,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N.º 016/2018 – SERGIO FERRETTI LIVROS – RETIFICADO</t>
+          <t>EDITAL Nº 014/2018 – ESTÁGIO NACIONAL – PRORROGADO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-o-0162018-sergio-ferretti-livros/</t>
+          <t>https://www.fapema.br/edital-no-014-2018-estagio-nacional/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular a divulgação técnico-científica através da linha de ação “ e no âmbito do programa “ ”, tornam público o presente Edital nº 016/2018, que irá homenagear o professor e pesquisador , e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições 10/08/2018 Divulgação dos resultados na página da FAPEMA A partir de 05/10/2018 Data limite para entrega da documentação impressa 05 dias úteis após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/08/Edital-FAPEMA-014-2018_Estagio-Nacional_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular a divulgação técnico-científica através da linha de ação “ e no âmbito do programa “ ”, tornam público o presente Edital nº 016/2018, que irá homenagear o professor e pesquisador , e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições 10/08/2018 Divulgação dos resultados na página da FAPEMA A partir de 05/10/2018 Data limite para entrega da documentação impressa 05 dias úteis após a divulgação do resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão por meio da Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI e da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de promover as aptidões e estimular o crescimento profissional dentro da linha de ação “Mais Qualificação” e no âmbito do programa “Cidadão do Mundo”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições on-line 06/08/2018 10/08/2018 Divulgação dos resultados A partir de 28/09/2018 Data limite para entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 017/2018 – PRÊMIO FAPEMA SERGIO FERRETTI – PRORROGADO</t>
+          <t>EDITAL FAPEMA N.º 016/2018 – SERGIO FERRETTI LIVROS – RETIFICADO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0172018-premio-fapema-sergio-ferretti/</t>
+          <t>https://www.fapema.br/edital-fapema-n-o-0162018-sergio-ferretti-livros/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ ” e no âmbito do programa “ ”, tornam público o presente Edital nº 017/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Período de inscrição on-line 02/07/2018 a 15/08/2018 17/08/2018 Divulgação do Resultado Parcial – Finalistas A partir de 26/10/2018 Resultado Final – Cerimônia de Premiação (a confirmar) 05/12/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/06/Edital-FAPEMA-Sergio-Ferretti-LIVROS-n-016-2018_retificado.pdf</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ ” e no âmbito do programa “ ”, tornam público o presente Edital nº 017/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Período de inscrição on-line 02/07/2018 a 15/08/2018 17/08/2018 Divulgação do Resultado Parcial – Finalistas A partir de 26/10/2018 Resultado Final – Cerimônia de Premiação (a confirmar) 05/12/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular a divulgação técnico-científica através da linha de ação “ e no âmbito do programa “ ”, tornam público o presente Edital nº 016/2018, que irá homenagear o professor e pesquisador , e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrições 10/08/2018 Divulgação dos resultados na página da FAPEMA A partir de 05/10/2018 Data limite para entrega da documentação impressa 05 dias úteis após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 026/2018 – SNCT – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 017/2018 – PRÊMIO FAPEMA SERGIO FERRETTI – PRORROGADO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/programa-de-apoio-a-semana-nacional-de-ciencia-e-tecnologia-edital-fapema-no-0262018-snct/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0172018-premio-fapema-sergio-ferretti/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 026/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 16/07/2018 20/07/2018 Divulgação do Resultado A partir de 31/08/2018 Entrega da documentação impressa Até 05 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/06/Edital-FAPEMA-nº-017-2018-PREMIO-FAPEMA-SERGIO-FERRETTI_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 026/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 16/07/2018 20/07/2018 Divulgação do Resultado A partir de 31/08/2018 Entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ ” e no âmbito do programa “ ”, tornam público o presente Edital nº 017/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Período de inscrição on-line 02/07/2018 a 15/08/2018 17/08/2018 Divulgação do Resultado Parcial – Finalistas A partir de 26/10/2018 Resultado Final – Cerimônia de Premiação (a confirmar) 05/12/2018 </t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N° 027/2018 – MONITORIA SNCT MARANHÃO 2018</t>
+          <t>EDITAL FAPEMA Nº 026/2018 – SNCT – PRORROGADO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-0272018-monitoria-snct-maranhao-2018/</t>
+          <t>https://www.fapema.br/programa-de-apoio-a-semana-nacional-de-ciencia-e-tecnologia-edital-fapema-no-0262018-snct/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 027/2018 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 16 a 20 de outubro de 2018, em São Luís-MA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 26/07/2018 Divulgação do Resultado A partir de 14/09/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/06/EDITAL-FAPEMA-N-026-2018-SNCT.pdf</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 027/2018 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 16 a 20 de outubro de 2018, em São Luís-MA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 26/07/2018 Divulgação do Resultado A partir de 14/09/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 026/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 16/07/2018 20/07/2018 Divulgação do Resultado A partir de 31/08/2018 Entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EDITAL Nº 024/2018 – FAPEMA-H2020</t>
+          <t>EDITAL FAPEMA N° 027/2018 – MONITORIA SNCT MARANHÃO 2018</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0242018-fapema-h2020/</t>
+          <t>https://www.fapema.br/edital-fapema-n-0272018-monitoria-snct-maranhao-2018/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Objetivo: credenciar pesquisadores vinculados a Instituições de Ensino Superior e/ou Pesquisa sediadas no Maranhão a obter financiamento, sob a forma de auxílio e bolsas para aderirem a propostas submetidas a diversos Editais do Programa Horizonte 2020, em parceria com pesquisadores provenientes de instituições acadêmicas e não-acadêmicas sediadas na União Europeia. Website do Programa Horizonte 2020:    © 2021 Copyright . Todos os direitos reservados. Chamadas Prazo para submissões Período de inscrições Resultado Entrega da documentação impressa 1º 2º Semestre de 2018 06/06/2018 a 13/07/2018 10/08/2018 Até 10 dias após a concessão do Grant Agreement 2º 1º Semestre de 2019 14/09/2018 a 01/11/2018 31/11/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/06/Edital-n-027_2018-Fapema-Monitoria-SNCT.pdf</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: credenciar pesquisadores vinculados a Instituições de Ensino Superior e/ou Pesquisa sediadas no Maranhão a obter financiamento, sob a forma de auxílio e bolsas para aderirem a propostas submetidas a diversos Editais do Programa Horizonte 2020, em parceria com pesquisadores provenientes de instituições acadêmicas e não-acadêmicas sediadas na União Europeia. Website do Programa Horizonte 2020:    © 2021 Copyright . Todos os direitos reservados. Chamadas Prazo para submissões Período de inscrições Resultado Entrega da documentação impressa 1º 2º Semestre de 2018 06/06/2018 a 13/07/2018 10/08/2018 Até 10 dias após a concessão do Grant Agreement 2º 1º Semestre de 2019 14/09/2018 a 01/11/2018 31/11/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “ e no âmbito do programa “ , tornam público o presente Edital nº 027/2018 e convidam os interessados para inscrição e seleção de MONITORES, para realizar atividades na Semana Nacional de Ciência e Tecnologia, que se realizará no período de 16 a 20 de outubro de 2018, em São Luís-MA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite da inscrição on-line 26/07/2018 Divulgação do Resultado A partir de 14/09/2018 </t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 23/2018 – CONFAP-Fundo Newton Researcher Connect Cursos 2018/2019</t>
+          <t>EDITAL Nº 024/2018 – FAPEMA-H2020</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema/</t>
+          <t>https://www.fapema.br/edital-no-0242018-fapema-h2020/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar Instituições de Ensino Superior e/ou Pesquisa para sediar cursos de curta duração de inglês acadêmico, com o objetivo de desenvolver habilidades de comunicação científica para atuar no exterior, a serem realizados entre 6 de agosto de 2018 e 15 de março de 2019.” © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 03/06/2018 Divulgação dos resultados Entre 2 e 8 semanas após a data-limite de inscrição on-line Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre ​06 de Agosto de 2018 a 15 de Março de 2019</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/06/FAPEMA-Edital-N-024-2018-Credenciamento-H2020_v2.pdf</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar Instituições de Ensino Superior e/ou Pesquisa para sediar cursos de curta duração de inglês acadêmico, com o objetivo de desenvolver habilidades de comunicação científica para atuar no exterior, a serem realizados entre 6 de agosto de 2018 e 15 de março de 2019.” © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 03/06/2018 Divulgação dos resultados Entre 2 e 8 semanas após a data-limite de inscrição on-line Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre ​06 de Agosto de 2018 a 15 de Março de 2019 </t>
+          <t xml:space="preserve">Objetivo: credenciar pesquisadores vinculados a Instituições de Ensino Superior e/ou Pesquisa sediadas no Maranhão a obter financiamento, sob a forma de auxílio e bolsas para aderirem a propostas submetidas a diversos Editais do Programa Horizonte 2020, em parceria com pesquisadores provenientes de instituições acadêmicas e não-acadêmicas sediadas na União Europeia. Website do Programa Horizonte 2020:    © 2021 Copyright . Todos os direitos reservados. Chamadas Prazo para submissões Período de inscrições Resultado Entrega da documentação impressa 1º 2º Semestre de 2018 06/06/2018 a 13/07/2018 10/08/2018 Até 10 dias após a concessão do Grant Agreement 2º 1º Semestre de 2019 14/09/2018 a 01/11/2018 31/11/2018 </t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 22/2018 – CONFAP-Fundo Newton Researcher Links Workshops 2018/2019</t>
+          <t>EDITAL FAPEMA Nº 23/2018 – CONFAP-Fundo Newton Researcher Connect Cursos 2018/2019</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-222018-confap-fundo-newton-researcher-links-workshops-20182019/</t>
+          <t>https://www.fapema.br/edital-fapema/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a realização de workshops científicos que sirvam como plataformas para a colaboração entre cientistas brasileiros e britânicos, a ocorrer entre 1º de Janeiro de 2019 e 31 de Janeiro de 2020. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 08/06/2018 (até 16 horas do horário de Londres – GMT+1) Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre 01 de Janeiro de 2019 e 31 de Janeiro de 2020</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/05/FAPEMA-Edital-23-2018-Researcher-Connect-2018.pdf</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a realização de workshops científicos que sirvam como plataformas para a colaboração entre cientistas brasileiros e britânicos, a ocorrer entre 1º de Janeiro de 2019 e 31 de Janeiro de 2020. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 08/06/2018 (até 16 horas do horário de Londres – GMT+1) Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre 01 de Janeiro de 2019 e 31 de Janeiro de 2020 </t>
+          <t xml:space="preserve">Objetivo: Apoiar Instituições de Ensino Superior e/ou Pesquisa para sediar cursos de curta duração de inglês acadêmico, com o objetivo de desenvolver habilidades de comunicação científica para atuar no exterior, a serem realizados entre 6 de agosto de 2018 e 15 de março de 2019.” © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 03/06/2018 Divulgação dos resultados Entre 2 e 8 semanas após a data-limite de inscrição on-line Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre ​06 de Agosto de 2018 a 15 de Março de 2019 </t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 013/2018 – NÚCLEOS DE INOVAÇÃO TECNOLÓGICA (NITs) – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 22/2018 – CONFAP-Fundo Newton Researcher Links Workshops 2018/2019</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/apoio-aos-nucleos-de-inovacao-tecnologica-edital-fapema-no-0132018-nucleos-de-inovacao-tecnologica/</t>
+          <t>https://www.fapema.br/edital-fapema-no-222018-confap-fundo-newton-researcher-links-workshops-20182019/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>© 2021 Copyright . Todos os direitos reservados. 5 CRONOGRAMA DATAS Data limite para submissão on-line 29/05/2018 01/06/2018 Divulgação das propostas aprovadas A partir de 28/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/05/FAPEMA-Edital-22-2018-Research-Links.pdf</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">                © 2021 Copyright . Todos os direitos reservados. 5 CRONOGRAMA DATAS Data limite para submissão on-line 29/05/2018 01/06/2018 Divulgação das propostas aprovadas A partir de 28/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar a realização de workshops científicos que sirvam como plataformas para a colaboração entre cientistas brasileiros e britânicos, a ocorrer entre 1º de Janeiro de 2019 e 31 de Janeiro de 2020. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 08/06/2018 (até 16 horas do horário de Londres – GMT+1) Prazo para entrega da documentação impressa Até 15 dias após a entrega da documentação impressa Período para realização dos workshops Entre 01 de Janeiro de 2019 e 31 de Janeiro de 2020 </t>
         </is>
       </c>
     </row>
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 012/2018 – PATENTES</t>
+          <t>EDITAL FAPEMA Nº 013/2018 – NÚCLEOS DE INOVAÇÃO TECNOLÓGICA (NITs) – PRORROGADO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0122018-patentes/</t>
+          <t>https://www.fapema.br/apoio-aos-nucleos-de-inovacao-tecnologica-edital-fapema-no-0132018-nucleos-de-inovacao-tecnologica/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar a proteção, a valorização e a disseminação do conhecimento tecnológico e da pesquisa científica gerada no Estado, dentro da Linha de ação “ ” e no âmbito do programa “ ”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. Até 05 dias úteis após a divulgação do resultado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão on-line 22/05/2018 Divulgação dos Resultados na página da FAPEMA A partir de 20/07/2018 Data para contratação Até 05 dias úteis após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/04/Edital-Fapema-Nº-013-2018-NÚCLEOS-DE-INOVAÇÃO-TECNOLÓGICA_retificado.pdf</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar a proteção, a valorização e a disseminação do conhecimento tecnológico e da pesquisa científica gerada no Estado, dentro da Linha de ação “ ” e no âmbito do programa “ ”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. Até 05 dias úteis após a divulgação do resultado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão on-line 22/05/2018 Divulgação dos Resultados na página da FAPEMA A partir de 20/07/2018 Data para contratação Até 05 dias úteis após a divulgação do resultado </t>
+          <t xml:space="preserve">                © 2021 Copyright . Todos os direitos reservados. 5 CRONOGRAMA DATAS Data limite para submissão on-line 29/05/2018 01/06/2018 Divulgação das propostas aprovadas A partir de 28/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 010/2018 – INFRAESTRUTURA</t>
+          <t>EDITAL FAPEMA Nº 012/2018 – PATENTES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-010-2018-infraestrutura/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0122018-patentes/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar a implantação, recuperação e/ou modernização da infraestrutura para a pesquisa, no âmbito da linha de ação “Mais Ciência” e do programa “PROLAB”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 12/06/2018 Divulgação dos resultados A partir de 10/08/2018 Data limite para entrega da documentação Impressa Até 05 dias úteis após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/04/Edital-Fapema-Nº-012-2018-PATENTES.pdf</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar a implantação, recuperação e/ou modernização da infraestrutura para a pesquisa, no âmbito da linha de ação “Mais Ciência” e do programa “PROLAB”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 12/06/2018 Divulgação dos resultados A partir de 10/08/2018 Data limite para entrega da documentação Impressa Até 05 dias úteis após o resultado </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar a proteção, a valorização e a disseminação do conhecimento tecnológico e da pesquisa científica gerada no Estado, dentro da Linha de ação “ ” e no âmbito do programa “ ”, tornam público o lançamento do presente Edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. Até 05 dias úteis após a divulgação do resultado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para submissão on-line 22/05/2018 Divulgação dos Resultados na página da FAPEMA A partir de 20/07/2018 Data para contratação Até 05 dias úteis após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 008/2018 – ARTIGOS</t>
+          <t>EDITAL FAPEMA Nº 010/2018 – INFRAESTRUTURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-008-2018-artigos/</t>
+          <t>https://www.fapema.br/edital-fapema-no-010-2018-infraestrutura/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico com o intercâmbio de informações entre as comunidades interessadas no âmbito da linha de ação “Popularização da Ciência” e do programa “Dê Ciência”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª chamada 2ª chamada Período de inscrição on-line 21/03/18 a 21/05/18 02/07/18 a 03/09/18 Divulgação dos resultados A partir de 29/06/18 A partir de 05/10/18 Entrega da documentação impressa Até 05 dias uteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/04/Edital-FAPEMA-n-010_2018_INFRAESTRUTURA.pdf</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico com o intercâmbio de informações entre as comunidades interessadas no âmbito da linha de ação “Popularização da Ciência” e do programa “Dê Ciência”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª chamada 2ª chamada Período de inscrição on-line 21/03/18 a 21/05/18 02/07/18 a 03/09/18 Divulgação dos resultados A partir de 29/06/18 A partir de 05/10/18 Entrega da documentação impressa Até 05 dias uteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de apoiar a implantação, recuperação e/ou modernização da infraestrutura para a pesquisa, no âmbito da linha de ação “Mais Ciência” e do programa “PROLAB”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATAS Data limite para inscrição on-line 12/06/2018 Divulgação dos resultados A partir de 10/08/2018 Data limite para entrega da documentação Impressa Até 05 dias úteis após o resultado </t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 004/2018 – GERAÇÃO CIÊNCIA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 008/2018 – ARTIGOS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0042018-geracao-ciencia/</t>
+          <t>https://www.fapema.br/edital-no-008-2018-artigos/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 27/04/2018 07/05/2018 Divulgação das propostas aprovadas A partir de 23/06/2018 13/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-008_2018-ARTIGOS.pdf</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 27/04/2018 07/05/2018 Divulgação das propostas aprovadas A partir de 23/06/2018 13/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de disseminar o conhecimento científico com o intercâmbio de informações entre as comunidades interessadas no âmbito da linha de ação “Popularização da Ciência” e do programa “Dê Ciência”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES 1ª chamada 2ª chamada Período de inscrição on-line 21/03/18 a 21/05/18 02/07/18 a 03/09/18 Divulgação dos resultados A partir de 29/06/18 A partir de 05/10/18 Entrega da documentação impressa Até 05 dias uteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 005/2018 – COM CIÊNCIA CULTURAL – RETIFICADO – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 004/2018 – GERAÇÃO CIÊNCIA – PRORROGADO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0052018-com-ciencia-cultural/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0042018-geracao-ciencia/</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital, no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 02/05/2018 16/05/2018 Divulgação das propostas aprovadas A partir de 13/07/2018 27/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-004_2018-GERAÇÃO-CIÊNCIA_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital, no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 02/05/2018 16/05/2018 Divulgação das propostas aprovadas A partir de 13/07/2018 27/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular jovens estudantes no processo de produção do conhecimento científico, por meio da linha de ação “Mais Ciência” e no âmbito do programa “Mais inclusão”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 27/04/2018 07/05/2018 Divulgação das propostas aprovadas A partir de 23/06/2018 13/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 006/2018 – JUVENTUDE COM CIÊNCIA – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 005/2018 – COM CIÊNCIA CULTURAL – RETIFICADO – PRORROGADO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0062018-juventude-com-ciencia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0052018-com-ciencia-cultural/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 30/04/2018 04/05/2018 Divulgação das propostas aprovadas A partir de 06/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-005_2018-COM-CIÊNCIA-CULTURAL_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 30/04/2018 04/05/2018 Divulgação das propostas aprovadas A partir de 06/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria de Estado da Educação – SEDUC, tornam público o presente Edital, no âmbito da Linha de Ação “Popularização da Ciência” e do Programa “Mais Cultura” e convidam os interessados a enviarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 02/05/2018 16/05/2018 Divulgação das propostas aprovadas A partir de 13/07/2018 27/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 007/2018 – PRODUTIVIDADE – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 006/2018 – JUVENTUDE COM CIÊNCIA – PRORROGADO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-007-2018-produtividade/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0062018-juventude-com-ciencia/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular o crescimento profissional através da linha de ação “Mais Qualificação” e no âmbito do programa “Pesquisando”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES Datas Data limite da inscrição online 30/04/2018 Divulgação das propostas aprovadas A partir de 20/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-006_2018-JUVENTUDE-COM-CIÊNCIA-PRORROGADO.pdf</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular o crescimento profissional através da linha de ação “Mais Qualificação” e no âmbito do programa “Pesquisando”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES Datas Data limite da inscrição online 30/04/2018 Divulgação das propostas aprovadas A partir de 20/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, em parceria com a Secretaria Extraordinária da Juventude – SEEJUV, com o objetivo de contribuir para a formação de estudantes, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista, por meio da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite da inscrição online 30/04/2018 04/05/2018 Divulgação das propostas aprovadas A partir de 06/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Edital nº 003/2018 – FAMELAB 2018</t>
+          <t>EDITAL FAPEMA Nº 007/2018 – PRODUTIVIDADE – RETIFICADO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0032018-famelab-2018/</t>
+          <t>https://www.fapema.br/edital-fapema-no-007-2018-produtividade/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Chamada de propostas para identificar e apoiar estudantes no âmbito da competição internacional “FameLab Brasil 2018” de comunicação científica.  Apoiar a participação de bolsistas de mestrado, doutorado e pós-doutorado da FAPEMA e bolsistas da CAPES e CNPq vinculados a Instituições de Ensino Superior (IES) do estado do Maranhão, para participar da etapa nacional da competição científica internacional FameLab 2018, no Rio de Janeiro, que será realizada entre 23 e 27 de Abril de 2018.  Link para inscrição:    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da chamada 19 de Janeiro de 2018 Encerramento da cham​a​da 28 de Fevereiro de 2018 Divulgação do resultado dos 30 participantes da semifinal 29 de Março de 2018 Evento Nacional no Rio de Janeiro (Masterclass, Semifinal, 2º Masterclass e Final Nacional) 23 a 27 de Abril de 2018 FameLab Internacional 04 a 10 de Junho de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-007_2018-PRODUTIVIDADE_retificado.pdf</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chamada de propostas para identificar e apoiar estudantes no âmbito da competição internacional “FameLab Brasil 2018” de comunicação científica.  Apoiar a participação de bolsistas de mestrado, doutorado e pós-doutorado da FAPEMA e bolsistas da CAPES e CNPq vinculados a Instituições de Ensino Superior (IES) do estado do Maranhão, para participar da etapa nacional da competição científica internacional FameLab 2018, no Rio de Janeiro, que será realizada entre 23 e 27 de Abril de 2018.  Link para inscrição:    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da chamada 19 de Janeiro de 2018 Encerramento da cham​a​da 28 de Fevereiro de 2018 Divulgação do resultado dos 30 participantes da semifinal 29 de Março de 2018 Evento Nacional no Rio de Janeiro (Masterclass, Semifinal, 2º Masterclass e Final Nacional) 23 a 27 de Abril de 2018 FameLab Internacional 04 a 10 de Junho de 2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de estimular o crescimento profissional através da linha de ação “Mais Qualificação” e no âmbito do programa “Pesquisando”, tornam público o presente edital e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES Datas Data limite da inscrição online 30/04/2018 Divulgação das propostas aprovadas A partir de 20/07/2018 Entrega da documentação impressa Até 05 dias úteis após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 002/2018 – UNIVERSAL</t>
+          <t>Edital nº 003/2018 – FAMELAB 2018</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-o-0022018-universal/</t>
+          <t>https://www.fapema.br/edital-no-0032018-famelab-2018/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação e no âmbito do programa ”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Data limite para submissão on-line 02/04/2018 Divulgação dos resultados A partir de 28/06/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/01/FAMELAB-BRASIL-2018-Edital_Versão-Final_20180117-1.pdf</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação e no âmbito do programa ”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Data limite para submissão on-line 02/04/2018 Divulgação dos resultados A partir de 28/06/2018 </t>
+          <t xml:space="preserve">Chamada de propostas para identificar e apoiar estudantes no âmbito da competição internacional “FameLab Brasil 2018” de comunicação científica.  Apoiar a participação de bolsistas de mestrado, doutorado e pós-doutorado da FAPEMA e bolsistas da CAPES e CNPq vinculados a Instituições de Ensino Superior (IES) do estado do Maranhão, para participar da etapa nacional da competição científica internacional FameLab 2018, no Rio de Janeiro, que será realizada entre 23 e 27 de Abril de 2018.  Link para inscrição:    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Lançamento da chamada 19 de Janeiro de 2018 Encerramento da cham​a​da 28 de Fevereiro de 2018 Divulgação do resultado dos 30 participantes da semifinal 29 de Março de 2018 Evento Nacional no Rio de Janeiro (Masterclass, Semifinal, 2º Masterclass e Final Nacional) 23 a 27 de Abril de 2018 FameLab Internacional 04 a 10 de Junho de 2018 </t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 001/2018 – EVENTOS CIENTÍFICOS</t>
+          <t>EDITAL FAPEMA Nº 002/2018 – UNIVERSAL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0012018-eventos-cientificos/</t>
+          <t>https://www.fapema.br/edital-fapema-n-o-0022018-universal/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência”, e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 01/04/2018 a 30/06/2018 15/01/2018 a 05/02/2018 A partir de 28/02/2018 05 dias úteis após a divulgação do resultado: 01/07/2018 a 30/09/2018 5/03/2018 a 16/04/2018 A partir de 25/05/2018 01/10/2018 a 31/12/2018 04/06/2018 a 17/07/2018 A partir de 24/08/2018 01/01/2019 a 31/03/2019 20/08/2018 a 28/09/2018 A partir de 22/10/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/01/EDITAL-N-002-2018.pdf.pdf</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência”, e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 01/04/2018 a 30/06/2018 15/01/2018 a 05/02/2018 A partir de 28/02/2018 05 dias úteis após a divulgação do resultado: 01/07/2018 a 30/09/2018 5/03/2018 a 16/04/2018 A partir de 25/05/2018 01/10/2018 a 31/12/2018 04/06/2018 a 17/07/2018 A partir de 24/08/2018 01/01/2019 a 31/03/2019 20/08/2018 a 28/09/2018 A partir de 22/10/2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de fomentar o desenvolvimento científico, tecnológico e de inovação através da linha de ação e no âmbito do programa ”, tornam público o presente edital e convidam os(as) interessados(as) a apresentarem suas propostas nos termos aqui estabelecidos.  © 2021 Copyright . Todos os direitos reservados. Data limite para submissão on-line 02/04/2018 Divulgação dos resultados A partir de 28/06/2018 </t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N° 044/2017 – MONITOR FELIS 2017</t>
+          <t>EDITAL FAPEMA Nº 001/2018 – EVENTOS CIENTÍFICOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-0442017-monitor-felis-2017/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0012018-eventos-cientificos/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SELEÇÃO PÚBLICA PARA MONITORIA NA FEIRA DO LIVRO DE SÃO LUÍS, Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Feira do Livro de São Luís (FELIS 2017) a serem realizadas no município de São Luís- MA, no período de 10 a 19 de novembro de 2017.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 02/11/2017 Divulgação do resultado A partir de 03/11/2017 Data limite para Entrega da Documentação Impressa 07/11/2017 Minicurso de Treinamento Data/horário a confirmar Evento – Feira do Livro 10 a 19/11/2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/01/EDITAL-FAPEMA-Nº-001-2018-EVENTOS-CIENTÍFICOS.pdf</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELEÇÃO PÚBLICA PARA MONITORIA NA FEIRA DO LIVRO DE SÃO LUÍS, Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Feira do Livro de São Luís (FELIS 2017) a serem realizadas no município de São Luís- MA, no período de 10 a 19 de novembro de 2017.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 02/11/2017 Divulgação do resultado A partir de 03/11/2017 Data limite para Entrega da Documentação Impressa 07/11/2017 Minicurso de Treinamento Data/horário a confirmar Evento – Feira do Livro 10 a 19/11/2017 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão – FAPEMA, com o objetivo de difundir o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência”, e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 001/2018 e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. 01/04/2018 a 30/06/2018 15/01/2018 a 05/02/2018 A partir de 28/02/2018 05 dias úteis após a divulgação do resultado: 01/07/2018 a 30/09/2018 5/03/2018 a 16/04/2018 A partir de 25/05/2018 01/10/2018 a 31/12/2018 04/06/2018 a 17/07/2018 A partir de 24/08/2018 01/01/2019 a 31/03/2019 20/08/2018 a 28/09/2018 A partir de 22/10/2018 </t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EDITAL Nº 041/2017 – SEINC – PRORROGADO</t>
+          <t>EDITAL FAPEMA N° 044/2017 – MONITOR FELIS 2017</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0412017-seinc/</t>
+          <t>https://www.fapema.br/edital-fapema-n-0442017-monitor-felis-2017/</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Objetivo:Apoiar a implementação de ações de suporte às intervenções não finalísticas relacionadas à estruturação dos Arranjos Produtivos Locais priorizados no âmbito da Secretaria de Indústria e Comércio do Maranhão – SEINC, particularmente no que tange a elaboração de estudos técnicos, pesquisas, levantamentos de campo, desenho e análises de cenários voltadas ao fomento do desenvolvimento econômico do estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/10/2017 27/10/2017 Divulgação do resultado do Julgamento das etapas: ENQUADRAMENTO e ANÁLISE DO MÉRITO A partir de 17/10/2017 Etapa: ENTREVISTAS A partir de 20/10/2017 Divulgação do Resultado Final A partir de 24/10/2017 Data limite para Entrega da Documentação Impressa 05 dias úteis após a divulgação</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n-044_2017-Fapema-Monitoria-FELIS-2017.pdf</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo:Apoiar a implementação de ações de suporte às intervenções não finalísticas relacionadas à estruturação dos Arranjos Produtivos Locais priorizados no âmbito da Secretaria de Indústria e Comércio do Maranhão – SEINC, particularmente no que tange a elaboração de estudos técnicos, pesquisas, levantamentos de campo, desenho e análises de cenários voltadas ao fomento do desenvolvimento econômico do estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/10/2017 27/10/2017 Divulgação do resultado do Julgamento das etapas: ENQUADRAMENTO e ANÁLISE DO MÉRITO A partir de 17/10/2017 Etapa: ENTREVISTAS A partir de 20/10/2017 Divulgação do Resultado Final A partir de 24/10/2017 Data limite para Entrega da Documentação Impressa 05 dias úteis após a divulgação </t>
+          <t xml:space="preserve">SELEÇÃO PÚBLICA PARA MONITORIA NA FEIRA DO LIVRO DE SÃO LUÍS, Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Feira do Livro de São Luís (FELIS 2017) a serem realizadas no município de São Luís- MA, no período de 10 a 19 de novembro de 2017.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 02/11/2017 Divulgação do resultado A partir de 03/11/2017 Data limite para Entrega da Documentação Impressa 07/11/2017 Minicurso de Treinamento Data/horário a confirmar Evento – Feira do Livro 10 a 19/11/2017 </t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 038/2017 – ESTÁGIO NACIONAL</t>
+          <t>EDITAL Nº 041/2017 – SEINC – PRORROGADO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-038-2017-estagio-nacional/</t>
+          <t>https://www.fapema.br/edital-no-0412017-seinc/</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas no Brasil (no Maranhão e em outros estados), visando a experiência no campo profissional de estudantes de graduação, mestrado e doutorado. APOIO À REALIZAÇÃO DE ESTÁGIO NACIONAL © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até  o dia 28/03/2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-nº-041-2017-SEINC-FAPEMA-2.pdf</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas no Brasil (no Maranhão e em outros estados), visando a experiência no campo profissional de estudantes de graduação, mestrado e doutorado. APOIO À REALIZAÇÃO DE ESTÁGIO NACIONAL © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até  o dia 28/03/2018 </t>
+          <t xml:space="preserve">Objetivo:Apoiar a implementação de ações de suporte às intervenções não finalísticas relacionadas à estruturação dos Arranjos Produtivos Locais priorizados no âmbito da Secretaria de Indústria e Comércio do Maranhão – SEINC, particularmente no que tange a elaboração de estudos técnicos, pesquisas, levantamentos de campo, desenho e análises de cenários voltadas ao fomento do desenvolvimento econômico do estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 23/10/2017 27/10/2017 Divulgação do resultado do Julgamento das etapas: ENQUADRAMENTO e ANÁLISE DO MÉRITO A partir de 17/10/2017 Etapa: ENTREVISTAS A partir de 20/10/2017 Divulgação do Resultado Final A partir de 24/10/2017 Data limite para Entrega da Documentação Impressa 05 dias úteis após a divulgação </t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EDITAL Nº 037/2017 – ESTÁGIO INTERNACIONAL</t>
+          <t>EDITAL FAPEMA Nº 038/2017 – ESTÁGIO NACIONAL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-037-2017-estagio-internacional/</t>
+          <t>https://www.fapema.br/edital-no-038-2017-estagio-nacional/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas fora do Brasil, visando o aperfeiçoamento profissional e a experiência internacional de estudantes de graduação, mestrado e doutorado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 24/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-038-2017-Estagio-Nacional-2017_retificado.pdf</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas fora do Brasil, visando o aperfeiçoamento profissional e a experiência internacional de estudantes de graduação, mestrado e doutorado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 24/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas no Brasil (no Maranhão e em outros estados), visando a experiência no campo profissional de estudantes de graduação, mestrado e doutorado. APOIO À REALIZAÇÃO DE ESTÁGIO NACIONAL © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até  o dia 28/03/2018 </t>
         </is>
       </c>
     </row>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EDITAL Nº 036/2017 – COOPERAÇÃO INTERNACIONAL – RETIFICADO</t>
+          <t>EDITAL Nº 037/2017 – ESTÁGIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0362017-cooperacao-internacional-retificado/</t>
+          <t>https://www.fapema.br/edital-no-037-2017-estagio-internacional/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Objetivo: Estimular a realização de projetos de pesquisa que visem à obtenção de resultados científicos relevantes e de alto impacto, bem como a formação de recursos humanos, a partir de intercâmbio de pesquisadores residentes e vinculados a instituições de ensino e pesquisa públicas no Maranhão com grupos de instituições de ensino e/ou pesquisa localizados fora do Brasil.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-037-2017-Estagio-Internacional-2017_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Estimular a realização de projetos de pesquisa que visem à obtenção de resultados científicos relevantes e de alto impacto, bem como a formação de recursos humanos, a partir de intercâmbio de pesquisadores residentes e vinculados a instituições de ensino e pesquisa públicas no Maranhão com grupos de instituições de ensino e/ou pesquisa localizados fora do Brasil.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Estimular a realização de estágios e intercâmbios de curta duração em parceria com instituições de ensino superior (IES) e/ou pesquisa ou empresas localizadas fora do Brasil, visando o aperfeiçoamento profissional e a experiência internacional de estudantes de graduação, mestrado e doutorado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 24/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EDITAL CONFAP-WATER JOINT PROGRAMMING INITIATIVE (JPI) – 2017 JOINT CALL</t>
+          <t>EDITAL Nº 036/2017 – COOPERAÇÃO INTERNACIONAL – RETIFICADO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-confap-water-joint-programming-initiative-jpi-2017-joint-call/</t>
+          <t>https://www.fapema.br/edital-no-0362017-cooperacao-internacional-retificado/</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a execução de projetos colaborativos de cooperação transnacional entre pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão, e de ao menos outros dois países participantes da chamada, com foco em manutenção de recursos hídricos.   Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. Anúncio da chamada 08/11/2017 Prazo para envio da pré-proposta 11/12/2017 13/12/2017 Prazo para envio da proposta completa 27/06/2018 – 17h00 (CET)</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-036-2017-Cooperação-Internacional-2017_retificado.pdf</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a execução de projetos colaborativos de cooperação transnacional entre pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão, e de ao menos outros dois países participantes da chamada, com foco em manutenção de recursos hídricos.   Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. Anúncio da chamada 08/11/2017 Prazo para envio da pré-proposta 11/12/2017 13/12/2017 Prazo para envio da proposta completa 27/06/2018 – 17h00 (CET) </t>
+          <t xml:space="preserve">Objetivo: Estimular a realização de projetos de pesquisa que visem à obtenção de resultados científicos relevantes e de alto impacto, bem como a formação de recursos humanos, a partir de intercâmbio de pesquisadores residentes e vinculados a instituições de ensino e pesquisa públicas no Maranhão com grupos de instituições de ensino e/ou pesquisa localizados fora do Brasil.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 20/11/2017 Divulgação dos resultados A partir de 22/01/2018 Data limite para entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 034/2017 – STARTUPS</t>
+          <t>EDITAL CONFAP-WATER JOINT PROGRAMMING INITIATIVE (JPI) – 2017 JOINT CALL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0342017-startups/</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>APOIO À DIFUSÃO DE AMBIENTE DE INOVAÇÃO EM TECNOLOGIA DIGITAL NO ESTADO DO MARANHÃO, objetivo: Apoiar projetos voltados para a criação de soluções de base tecnológica com potencial de escalabilidade e replicabilidade por parte de empresas emergentes (doravante denominadas ), que busquem contribuir para o desenvolvimento socioeconômico do Estado do Maranhão por meio da aplicação da inovação.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 30/10/2017 Divulgação dos resultados para a 1ª fase A partir de 17/11/2017 Data limite para submissão para a 2ª fase A partir de 05/02/2018 Divulgação do Resultado Final (2ª fase) A partir de 23/02/2018 Data limite para entrega da documentação impressa Até 07 dias após a divulgação dos resultados</t>
-        </is>
-      </c>
+          <t>https://www.fapema.br/edital-confap-water-joint-programming-initiative-jpi-2017-joint-call/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">APOIO À DIFUSÃO DE AMBIENTE DE INOVAÇÃO EM TECNOLOGIA DIGITAL NO ESTADO DO MARANHÃO, objetivo: Apoiar projetos voltados para a criação de soluções de base tecnológica com potencial de escalabilidade e replicabilidade por parte de empresas emergentes (doravante denominadas ), que busquem contribuir para o desenvolvimento socioeconômico do Estado do Maranhão por meio da aplicação da inovação.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 30/10/2017 Divulgação dos resultados para a 1ª fase A partir de 17/11/2017 Data limite para submissão para a 2ª fase A partir de 05/02/2018 Divulgação do Resultado Final (2ª fase) A partir de 23/02/2018 Data limite para entrega da documentação impressa Até 07 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar a execução de projetos colaborativos de cooperação transnacional entre pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão, e de ao menos outros dois países participantes da chamada, com foco em manutenção de recursos hídricos.   Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. Anúncio da chamada 08/11/2017 Prazo para envio da pré-proposta 11/12/2017 13/12/2017 Prazo para envio da proposta completa 27/06/2018 – 17h00 (CET) </t>
         </is>
       </c>
     </row>
@@ -2661,22 +2657,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 033/2017 – MED SAÚDE</t>
+          <t>EDITAL FAPEMA Nº 034/2017 – STARTUPS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0332017-med-saude/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0342017-startups/</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, relacionados ao monitoramento de serviços de saúde prestados nos polos regionais de Pinheiro e Caxias, com foco na realidade epidemiológica, sanitária e sociocultural das regiões onde os cursos de medicina estão inseridos, bem como, propor projetos de intervenção na rede assistencial, de acordo com os resultados obtidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-Startups-034_2017.pdf</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, relacionados ao monitoramento de serviços de saúde prestados nos polos regionais de Pinheiro e Caxias, com foco na realidade epidemiológica, sanitária e sociocultural das regiões onde os cursos de medicina estão inseridos, bem como, propor projetos de intervenção na rede assistencial, de acordo com os resultados obtidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">APOIO À DIFUSÃO DE AMBIENTE DE INOVAÇÃO EM TECNOLOGIA DIGITAL NO ESTADO DO MARANHÃO, objetivo: Apoiar projetos voltados para a criação de soluções de base tecnológica com potencial de escalabilidade e replicabilidade por parte de empresas emergentes (doravante denominadas ), que busquem contribuir para o desenvolvimento socioeconômico do Estado do Maranhão por meio da aplicação da inovação.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 30/10/2017 Divulgação dos resultados para a 1ª fase A partir de 17/11/2017 Data limite para submissão para a 2ª fase A partir de 05/02/2018 Divulgação do Resultado Final (2ª fase) A partir de 23/02/2018 Data limite para entrega da documentação impressa Até 07 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2686,22 +2682,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 032/2017 – PRÊMIO FAPEMA NEIVA MOREIRA 2017 – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 033/2017 – MED SAÚDE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0322017-premio-fapema-neiva-moreira-2017-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0332017-med-saude/</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão -FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 032/2017e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-033-2017-MED-SAÚDE_FAPEMA-SEEPP.pdf</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão -FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 032/2017e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, relacionados ao monitoramento de serviços de saúde prestados nos polos regionais de Pinheiro e Caxias, com foco na realidade epidemiológica, sanitária e sociocultural das regiões onde os cursos de medicina estão inseridos, bem como, propor projetos de intervenção na rede assistencial, de acordo com os resultados obtidos.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2711,22 +2707,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 030/2017 – BOLSAS DE DOUTORADO</t>
+          <t>EDITAL FAPEMA Nº 032/2017 – PRÊMIO FAPEMA NEIVA MOREIRA 2017 – PRORROGADO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0302017-bolsas-de-doutorado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0322017-premio-fapema-neiva-moreira-2017-prorrogado/</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Objetivo Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de doutores, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº 030/2017 – FAPEMA/CAPES  © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-032-2017-–-PREMIO-NEIVA-MOREIRA.pdf</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de doutores, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº 030/2017 – FAPEMA/CAPES  © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado da Ciência, Tecnologia e Inovação -SECTI, por meio da Fundação de Amparo à Pesquisa e ao Desenvolvimento Científico e Tecnológico do Maranhão -FAPEMA, com o objetivo de disseminar o conhecimento científico e popularizar a ciência através da linha de ação “Popularização da Ciência” e no âmbito do programa “Mais Divulgação”, tornam público o presente Edital nº 032/2017e convidam os interessados a apresentarem suas propostas nos termos aqui estabelecidos. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 06/11/2017 Divulgação dos resultados A partir de 18/12/2017 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -2736,22 +2732,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 029/2017 – BOLSAS DE MESTRADO</t>
+          <t>EDITAL FAPEMA Nº 030/2017 – BOLSAS DE DOUTORADO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-029-2017-bolsas-de-mestrado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0302017-bolsas-de-doutorado/</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Objetivos: Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de mestres, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº029/2017 – FAPEMA/CAPES   © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-030-2017-FAPEMACAPES.pdf</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivos: Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de mestres, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº029/2017 – FAPEMA/CAPES   © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">Objetivo Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de doutores, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº 030/2017 – FAPEMA/CAPES  © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -2761,22 +2757,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EDITAL Nº 028/2017 – BOLSAS PESQUISADOR VISITANTE – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 029/2017 – BOLSAS DE MESTRADO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-no-0282017-bolsas-pesquisador-visitante-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-029-2017-bolsas-de-mestrado/</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Objetivo: apoiar o desenvolvimento da pesquisa científica, tecnológica e de inovação e a criação ou fortalecimento dos programas de pós-graduação stricto sensu das instituições de ensino superior públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, por meio da concessão de Bolsas para Pesquisador Visitante.  © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-029-2017-FAPEMACAPES.pdf</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: apoiar o desenvolvimento da pesquisa científica, tecnológica e de inovação e a criação ou fortalecimento dos programas de pós-graduação stricto sensu das instituições de ensino superior públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, por meio da concessão de Bolsas para Pesquisador Visitante.  © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">Objetivos: Fortalecer a Pós-graduação do Maranhão, a pesquisa e a inovação, contribuindo para a formação de mestres, a partir da concessão de bolsas, em todas as áreas do conhecimento, para cursos e/ou programas de pós-graduação stricto sensu acadêmicos do estado, recomendados pela CAPES. EDITAL FAPEMA Nº029/2017 – FAPEMA/CAPES   © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -2786,22 +2782,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 027/2017 – CADEIA PRODUTIVA DA MANDIOCA</t>
+          <t>EDITAL Nº 028/2017 – BOLSAS PESQUISADOR VISITANTE – PRORROGADO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0272017-cadeia-produtiva-da-mandioca/</t>
+          <t>https://www.fapema.br/edital-no-0282017-bolsas-pesquisador-visitante-prorrogado/</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da mandioca a serem desenvolvidas em instituições ensino superior e/ou pesquisa, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-028-2017-–-BPV-FAPEMA-CAPES.pdf</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da mandioca a serem desenvolvidas em instituições ensino superior e/ou pesquisa, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo: apoiar o desenvolvimento da pesquisa científica, tecnológica e de inovação e a criação ou fortalecimento dos programas de pós-graduação stricto sensu das instituições de ensino superior públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, por meio da concessão de Bolsas para Pesquisador Visitante.  © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -2811,22 +2807,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 026/2017 – PRODUTIVA DA MELIPONICULTURA E APICULTURA</t>
+          <t>EDITAL FAPEMA Nº 027/2017 – CADEIA PRODUTIVA DA MANDIOCA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0262017-produtiva-da-meliponicultura-e-apicultura/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0272017-cadeia-produtiva-da-mandioca/</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da meliponicultura e apicultura a serem desenvolvidas em instituições de ensino superior e/ou pesquisa sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-Nº-027-2017-CADEIA-PRODUTIVA-DA-MANDIOCA.pdf</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da meliponicultura e apicultura a serem desenvolvidas em instituições de ensino superior e/ou pesquisa sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da mandioca a serem desenvolvidas em instituições ensino superior e/ou pesquisa, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -2836,22 +2832,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 025/2017 – COMUNI</t>
+          <t>EDITAL FAPEMA Nº 026/2017 – PRODUTIVA DA MELIPONICULTURA E APICULTURA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0252017-comuni/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0262017-produtiva-da-meliponicultura-e-apicultura/</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, a serem desenvolvidos preferencialmente nos municípios do Maranhão com baixo índice de desenvolvimento humano (IDH), visando a realização de ações transformadoras voltadas aos aspectos sociais, ambientais, políticos e econômicos do Estado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-Nº-026-2017-CADEIA-PRODUTIVA-DA-MELIPONICULTURA-E-APICULTURA.pdf</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, a serem desenvolvidos preferencialmente nos municípios do Maranhão com baixo índice de desenvolvimento humano (IDH), visando a realização de ações transformadoras voltadas aos aspectos sociais, ambientais, políticos e econômicos do Estado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo: apoiar projetos de pesquisa científica, tecnológica e de inovação voltados à cadeia produtiva da meliponicultura e apicultura a serem desenvolvidas em instituições de ensino superior e/ou pesquisa sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -2861,22 +2857,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N° 024/2017 – MONITORIA SNCT – MA 2017 – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 025/2017 – COMUNI</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-0242017-monitoria-snct-ma-2017-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0252017-comuni/</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Semana Nacional de Ciência e Tecnologia (SNCT 2017) a serem realizadas no município de Timon – MA, no período de 25 a 28 de outubro de 2017. –  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/09/2017 20/09/2017 Divulgação dos resultados A partir de 25/09/2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-025-2017-–-COMUNI.pdf</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Semana Nacional de Ciência e Tecnologia (SNCT 2017) a serem realizadas no município de Timon – MA, no período de 25 a 28 de outubro de 2017. –  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/09/2017 20/09/2017 Divulgação dos resultados A partir de 25/09/2017 </t>
+          <t xml:space="preserve">Objetivo: Apoiar projetos de extensão, em interface com a pesquisa, a serem desenvolvidos preferencialmente nos municípios do Maranhão com baixo índice de desenvolvimento humano (IDH), visando a realização de ações transformadoras voltadas aos aspectos sociais, ambientais, políticos e econômicos do Estado  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -2886,22 +2882,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA N° 023/2017 – PLATAFORMA SOUZINHA – PRORROGADO</t>
+          <t>EDITAL FAPEMA N° 024/2017 – MONITORIA SNCT – MA 2017 – PRORROGADO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-0232017-plataforma-souzinha-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-n-0242017-monitoria-snct-ma-2017-prorrogado/</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Objetivo Selecionar estudantes universitários das instituições de ensino superior (IES) públicas e sediadas no estado do Maranhão para atuarem na condição de monitores da Plataforma Souzinha – aplicativo web de ensino-aprendizagem de Matemática. SELEÇÃO DE MONITORES NA PLATAFORMA SOUZINHA  © 2021 Copyright . Todos os direitos reservados. Etapas Período Data limite da inscrição online 11/09/2017 20/09/2017 Avaliação Escrita 18/09/2017 27/09/2017 Divulgação do Resultado Parcial 20/09/2017 04/10/2017 Período das Entrevistas A partir de 25/09/2017 09/10/2017 Resultado Final A partir de 29/09/2017 11/10/2017 Treinamento Em período a confirmar</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/12/Edital-n-024_2017-Fapema-Monitoria-SNCT.pdf</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo Selecionar estudantes universitários das instituições de ensino superior (IES) públicas e sediadas no estado do Maranhão para atuarem na condição de monitores da Plataforma Souzinha – aplicativo web de ensino-aprendizagem de Matemática. SELEÇÃO DE MONITORES NA PLATAFORMA SOUZINHA  © 2021 Copyright . Todos os direitos reservados. Etapas Período Data limite da inscrição online 11/09/2017 20/09/2017 Avaliação Escrita 18/09/2017 27/09/2017 Divulgação do Resultado Parcial 20/09/2017 04/10/2017 Período das Entrevistas A partir de 25/09/2017 09/10/2017 Resultado Final A partir de 29/09/2017 11/10/2017 Treinamento Em período a confirmar </t>
+          <t xml:space="preserve">Objetivo: Constitui objeto deste Edital a seleção de estudantes para realizar atividades de monitoria na Semana Nacional de Ciência e Tecnologia (SNCT 2017) a serem realizadas no município de Timon – MA, no período de 25 a 28 de outubro de 2017. –  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/09/2017 20/09/2017 Divulgação dos resultados A partir de 25/09/2017 </t>
         </is>
       </c>
     </row>
@@ -2911,22 +2907,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 022/2017 – SNCT – RETIFICADO</t>
+          <t>EDITAL FAPEMA N° 023/2017 – PLATAFORMA SOUZINHA – PRORROGADO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0222017-snct-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-n-0232017-plataforma-souzinha-prorrogado/</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar as atividades de divulgação científica e/ou tecnológica que tenham como foco o tema da Semana Nacional da Ciência e Tecnologia (SNCT) “A matemática está em tudo” definido pelo Ministério da Ciência, Tecnologia, Inovações e Comunicações (MCTIC). As atividades apoiadas devem ocorrer em todo o estado do Maranhão, durante a segunda quinzena de outubro de 2017, como parte das atividades da SNCT. PROGRAMA DE APOIO À SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA EDITAL FAPEMA Nº 022/2017 – SNCT  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/Edital-n-023-2017_-Plataforma_Souzinha.pdf</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar as atividades de divulgação científica e/ou tecnológica que tenham como foco o tema da Semana Nacional da Ciência e Tecnologia (SNCT) “A matemática está em tudo” definido pelo Ministério da Ciência, Tecnologia, Inovações e Comunicações (MCTIC). As atividades apoiadas devem ocorrer em todo o estado do Maranhão, durante a segunda quinzena de outubro de 2017, como parte das atividades da SNCT. PROGRAMA DE APOIO À SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA EDITAL FAPEMA Nº 022/2017 – SNCT  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo Selecionar estudantes universitários das instituições de ensino superior (IES) públicas e sediadas no estado do Maranhão para atuarem na condição de monitores da Plataforma Souzinha – aplicativo web de ensino-aprendizagem de Matemática. SELEÇÃO DE MONITORES NA PLATAFORMA SOUZINHA  © 2021 Copyright . Todos os direitos reservados. Etapas Período Data limite da inscrição online 11/09/2017 20/09/2017 Avaliação Escrita 18/09/2017 27/09/2017 Divulgação do Resultado Parcial 20/09/2017 04/10/2017 Período das Entrevistas A partir de 25/09/2017 09/10/2017 Resultado Final A partir de 29/09/2017 11/10/2017 Treinamento Em período a confirmar </t>
         </is>
       </c>
     </row>
@@ -2936,22 +2932,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>EDITAL BOLSA DE PÓS-DOUTORADO PARA O MARANHÃO FAPEMA/CAPES Nº 021/2017 – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 022/2017 – SNCT – RETIFICADO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-bolsa-de-pos-doutorado-para-o-maranhao-fapemacapes-no-0212017-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0222017-snct-retificado/</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Objetivo: Fomentar atividade de pesquisa científica, tecnológica e de inovação com a seleção de propostas para apoio a projetos institucionais de absorção temporária de pesquisadores doutores em programas de pós-graduação sediados no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para envio eletrônico da Proposta 17/07/2017 Divulgação dos resultados da seleção A partir de 07/08/2017 Data limite para entrega da documentação impressa na FAPEMA ou envio pelo correio Até 10 dias após a divulgação do resultado Período para recurso Até 05 dias a úteis após a divulgação do resultado Início da contratação das propostas aprovadas A partir de setembro de 2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/EDITAL-FAPEMA-Nº-022-2017_SNCT-2017-1.pdf</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Fomentar atividade de pesquisa científica, tecnológica e de inovação com a seleção de propostas para apoio a projetos institucionais de absorção temporária de pesquisadores doutores em programas de pós-graduação sediados no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para envio eletrônico da Proposta 17/07/2017 Divulgação dos resultados da seleção A partir de 07/08/2017 Data limite para entrega da documentação impressa na FAPEMA ou envio pelo correio Até 10 dias após a divulgação do resultado Período para recurso Até 05 dias a úteis após a divulgação do resultado Início da contratação das propostas aprovadas A partir de setembro de 2017 </t>
+          <t xml:space="preserve">Objetivo: Apoiar as atividades de divulgação científica e/ou tecnológica que tenham como foco o tema da Semana Nacional da Ciência e Tecnologia (SNCT) “A matemática está em tudo” definido pelo Ministério da Ciência, Tecnologia, Inovações e Comunicações (MCTIC). As atividades apoiadas devem ocorrer em todo o estado do Maranhão, durante a segunda quinzena de outubro de 2017, como parte das atividades da SNCT. PROGRAMA DE APOIO À SEMANA NACIONAL DE CIÊNCIA E TECNOLOGIA EDITAL FAPEMA Nº 022/2017 – SNCT  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 21/08/2017 Divulgação dos resultados A partir de 25/09/2017 Data limite para entrega da documentação impressa Até 5 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -2961,22 +2957,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 020/2017 – VETERINÁRIA</t>
+          <t>EDITAL BOLSA DE PÓS-DOUTORADO PARA O MARANHÃO FAPEMA/CAPES Nº 021/2017 – RETIFICADO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0202017-veterinaria/</t>
+          <t>https://www.fapema.br/edital-bolsa-de-pos-doutorado-para-o-maranhao-fapemacapes-no-0212017-retificado/</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Objetivo: apoiar os selecionados do Programa de Aperfeiçoamento Técnico em Medicina Veterinária por meio de bolsa para desenvolverem atividades nos Laboratórios do Hospital e do Curso de Medicina Veterinária da UEMA. PROGRAMA DE APERFEIÇOAMENTO TÉCNICO EM MEDICINA VETERINÁRIA Serão realizadas no período de 23 de maio a 05 de junho de 2017, no horário das 8h às 11h30min e das 14h às 17h, de segunda a sexta-feira, na secretaria do Curso de Medicina Veterinária do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – CMV/CCA/UEMA, Cidade Universitária Paulo VI localizada à Avenida Lourenço Vieira da Silva, s/n, Tirirical, São Luís – MA. © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/11/Edital-nº-021-2017-Pos-Doutorado-FAPEMA_CAPES.pdf</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: apoiar os selecionados do Programa de Aperfeiçoamento Técnico em Medicina Veterinária por meio de bolsa para desenvolverem atividades nos Laboratórios do Hospital e do Curso de Medicina Veterinária da UEMA. PROGRAMA DE APERFEIÇOAMENTO TÉCNICO EM MEDICINA VETERINÁRIA Serão realizadas no período de 23 de maio a 05 de junho de 2017, no horário das 8h às 11h30min e das 14h às 17h, de segunda a sexta-feira, na secretaria do Curso de Medicina Veterinária do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – CMV/CCA/UEMA, Cidade Universitária Paulo VI localizada à Avenida Lourenço Vieira da Silva, s/n, Tirirical, São Luís – MA. © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">Objetivo: Fomentar atividade de pesquisa científica, tecnológica e de inovação com a seleção de propostas para apoio a projetos institucionais de absorção temporária de pesquisadores doutores em programas de pós-graduação sediados no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para envio eletrônico da Proposta 17/07/2017 Divulgação dos resultados da seleção A partir de 07/08/2017 Data limite para entrega da documentação impressa na FAPEMA ou envio pelo correio Até 10 dias após a divulgação do resultado Período para recurso Até 05 dias a úteis após a divulgação do resultado Início da contratação das propostas aprovadas A partir de setembro de 2017 </t>
         </is>
       </c>
     </row>
@@ -2986,22 +2982,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 019/2017 – GUYAMAZON (4º Chamada a Projetos)</t>
+          <t>EDITAL FAPEMA Nº 020/2017 – VETERINÁRIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0192017-guyamazon-4o-chamada-a-projetos/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0202017-veterinaria/</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a execução de projetos conjuntos como atividades de cooperação internacional de Pesquisa, Desenvolvimento e Inovação (P&amp;D&amp;I), no âmbito da colaboração científica e tecnológica entre os pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão e pesquisadores franceses, com foco em ações voltadas para Região da Guiana Francesa. Serão apoiados projetos de prospecção, com duração de até 12 meses, e projetos de pesquisa, com duração de até 24 meses. PROGRAMA DE COOPERAÇÃO INTERNACIONAL – GUYAMAZON  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/09/2017 Divulgação dos resultados A partir de 15/12/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n-20-2017-VETERINÁRIA.pdf</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a execução de projetos conjuntos como atividades de cooperação internacional de Pesquisa, Desenvolvimento e Inovação (P&amp;D&amp;I), no âmbito da colaboração científica e tecnológica entre os pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão e pesquisadores franceses, com foco em ações voltadas para Região da Guiana Francesa. Serão apoiados projetos de prospecção, com duração de até 12 meses, e projetos de pesquisa, com duração de até 24 meses. PROGRAMA DE COOPERAÇÃO INTERNACIONAL – GUYAMAZON  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/09/2017 Divulgação dos resultados A partir de 15/12/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo: apoiar os selecionados do Programa de Aperfeiçoamento Técnico em Medicina Veterinária por meio de bolsa para desenvolverem atividades nos Laboratórios do Hospital e do Curso de Medicina Veterinária da UEMA. PROGRAMA DE APERFEIÇOAMENTO TÉCNICO EM MEDICINA VETERINÁRIA Serão realizadas no período de 23 de maio a 05 de junho de 2017, no horário das 8h às 11h30min e das 14h às 17h, de segunda a sexta-feira, na secretaria do Curso de Medicina Veterinária do Centro de Ciências Agrárias da Universidade Estadual do Maranhão – CMV/CCA/UEMA, Cidade Universitária Paulo VI localizada à Avenida Lourenço Vieira da Silva, s/n, Tirirical, São Luís – MA. © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -3011,22 +3007,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 018/2017 – COM CIÊNCIA CULTURAL – PRORROGADO</t>
+          <t>EDITAL FAPEMA Nº 019/2017 – GUYAMAZON (4º Chamada a Projetos)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0182017-com-ciencia-cultural-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0192017-guyamazon-4o-chamada-a-projetos/</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar projetos para o desenvolvimento da capacidade artístico e cultural dos estudantes das escolas públicas da rede estadual do Maranhão formando-os como sujeitos de cidadania ativa. APOIO A PROJETOS ARTÍSTICOS E CULTURAIS NAS ESCOLAS ESTADUAIS DO MARANHÃO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 03/07/2017 Divulgação dos resultados A partir de 14/08/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/EDITAL-FAPEMA-Nº-019-2017-Guyamazon.pdf</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar projetos para o desenvolvimento da capacidade artístico e cultural dos estudantes das escolas públicas da rede estadual do Maranhão formando-os como sujeitos de cidadania ativa. APOIO A PROJETOS ARTÍSTICOS E CULTURAIS NAS ESCOLAS ESTADUAIS DO MARANHÃO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 03/07/2017 Divulgação dos resultados A partir de 14/08/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar a execução de projetos conjuntos como atividades de cooperação internacional de Pesquisa, Desenvolvimento e Inovação (P&amp;D&amp;I), no âmbito da colaboração científica e tecnológica entre os pesquisadores de instituições de ensino e pesquisa do Estado do Maranhão e pesquisadores franceses, com foco em ações voltadas para Região da Guiana Francesa. Serão apoiados projetos de prospecção, com duração de até 12 meses, e projetos de pesquisa, com duração de até 24 meses. PROGRAMA DE COOPERAÇÃO INTERNACIONAL – GUYAMAZON  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/09/2017 Divulgação dos resultados A partir de 15/12/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -3036,22 +3032,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CHAMADA CONFAP/FUNDO NEWTON – RESEARCHER CONNECT CURSOS 2017/2018</t>
+          <t>EDITAL FAPEMA Nº 018/2017 – COM CIÊNCIA CULTURAL – PRORROGADO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-confapfundo-newton-researcher-connect-cursos-20172018/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0182017-com-ciencia-cultural-prorrogado/</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a realização de cursos de curta duração para professores e pesquisadores brasileiros, sediados por Instituições de Ensino Superior do Brasil e ministrados por professores britânicos, com o intuito de desenvolver capacitações de escrita e divulgação científica internacional.  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/06/2017 Divulgação dos resultados Até julho de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n-018-2017-Com-Ciência-Cultural_FAPEMA-SEDUC..-1.pdf</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a realização de cursos de curta duração para professores e pesquisadores brasileiros, sediados por Instituições de Ensino Superior do Brasil e ministrados por professores britânicos, com o intuito de desenvolver capacitações de escrita e divulgação científica internacional.  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/06/2017 Divulgação dos resultados Até julho de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018 </t>
+          <t xml:space="preserve">Objetivo: Apoiar projetos para o desenvolvimento da capacidade artístico e cultural dos estudantes das escolas públicas da rede estadual do Maranhão formando-os como sujeitos de cidadania ativa. APOIO A PROJETOS ARTÍSTICOS E CULTURAIS NAS ESCOLAS ESTADUAIS DO MARANHÃO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 03/07/2017 Divulgação dos resultados A partir de 14/08/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3061,22 +3057,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CHAMADA CONFAP FUNDO NEWTON – RESEARCHER LINKS WORKSHOPS 2017-2018</t>
+          <t>CHAMADA CONFAP/FUNDO NEWTON – RESEARCHER CONNECT CURSOS 2017/2018</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-confap-fundo-newton-researcher-links-workshops-2017-2018/</t>
+          <t>https://www.fapema.br/chamada-confapfundo-newton-researcher-connect-cursos-20172018/</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Objetivo:  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/FUNDO-NEWTON-2017-Chamada-Researcher-Connect-1.pdf</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo:  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018 </t>
+          <t xml:space="preserve">Objetivo: Apoiar a realização de cursos de curta duração para professores e pesquisadores brasileiros, sediados por Instituições de Ensino Superior do Brasil e ministrados por professores britânicos, com o intuito de desenvolver capacitações de escrita e divulgação científica internacional.  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 11/06/2017 Divulgação dos resultados Até julho de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018 </t>
         </is>
       </c>
     </row>
@@ -3086,22 +3082,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 017/2017 – TESES E DISSERTAÇÕES</t>
+          <t>CHAMADA CONFAP FUNDO NEWTON – RESEARCHER LINKS WORKSHOPS 2017-2018</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0172017-teses-e-dissertacoes/</t>
+          <t>https://www.fapema.br/chamada-confap-fundo-newton-researcher-links-workshops-2017-2018/</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a elaboração de dissertações e teses desenvolvidas por estudantes vinculados aos programas de pós-graduação stricto sensu das Instituições de Ensino Superior (IES) públicas sediadas no Maranhão. PROGRAMA DE APOIO A ELABORAÇÃO DE TESES E DISSERTAÇÕES © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 03/07/2017 Divulgação dos resultados A partir de 21/08/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/CHAMADA-CONFAPFUNDO-NEWTON-RESEARCHER-LINKS-WORKSHOPS-2017-2018.pdf</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a elaboração de dissertações e teses desenvolvidas por estudantes vinculados aos programas de pós-graduação stricto sensu das Instituições de Ensino Superior (IES) públicas sediadas no Maranhão. PROGRAMA DE APOIO A ELABORAÇÃO DE TESES E DISSERTAÇÕES © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 03/07/2017 Divulgação dos resultados A partir de 21/08/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado </t>
+          <t xml:space="preserve">Objetivo:  Link para inscrição online: © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado Prazo de realização dos workshops Entre março de 2018 e 31 de agosto de 2018 </t>
         </is>
       </c>
     </row>
@@ -3111,22 +3107,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CHAMADA CONFAP/FUNDO NEWTON – INSTITUTIONAL LINKS INOVAÇÃO SOCIAL 2017 – DESENVOLVIMENTO RURAL E BIO</t>
+          <t>EDITAL FAPEMA Nº 017/2017 – TESES E DISSERTAÇÕES</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/8530/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0172017-teses-e-dissertacoes/</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Objetivo: Incentivar parcerias entre pesquisadores de grupos acadêmicos, do setor privado e do terceiro setor localizadas nos estados elegíveis e instituições britânicas de ensino superior e/ou pesquisa, em projetos de inovação social nas áreas de Desenvolvimento Rural e Biodiversidade. Os projetos devem ser tratados de maneira multidisciplinar, envolvendo pesquisa aplicada e tendo como foco central a formação de colaborações sustentáveis e duradouras, orientadas à solução de problemas. Especificamente para o Maranhão, a chamada se destina a pesquisadores de ONGs que atuem nas áreas de agricultura familiar e economia solidária. CHAMADA CONFAP/FUNDO NEWTON – INSTITUTIONAL LINKS INOVAÇÃO SOCIAL 2017 – DESENVOLVIMENTO RURAL E BIO Link para inscrição online:  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/EDITAL-FAPEMA-Nº-017-2017-TESES-E-DISSERTAÇÕES-1.pdf</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Incentivar parcerias entre pesquisadores de grupos acadêmicos, do setor privado e do terceiro setor localizadas nos estados elegíveis e instituições britânicas de ensino superior e/ou pesquisa, em projetos de inovação social nas áreas de Desenvolvimento Rural e Biodiversidade. Os projetos devem ser tratados de maneira multidisciplinar, envolvendo pesquisa aplicada e tendo como foco central a formação de colaborações sustentáveis e duradouras, orientadas à solução de problemas. Especificamente para o Maranhão, a chamada se destina a pesquisadores de ONGs que atuem nas áreas de agricultura familiar e economia solidária. CHAMADA CONFAP/FUNDO NEWTON – INSTITUTIONAL LINKS INOVAÇÃO SOCIAL 2017 – DESENVOLVIMENTO RURAL E BIO Link para inscrição online:  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado </t>
+          <t xml:space="preserve">Objetivo: Apoiar a elaboração de dissertações e teses desenvolvidas por estudantes vinculados aos programas de pós-graduação stricto sensu das Instituições de Ensino Superior (IES) públicas sediadas no Maranhão. PROGRAMA DE APOIO A ELABORAÇÃO DE TESES E DISSERTAÇÕES © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 03/07/2017 Divulgação dos resultados A partir de 21/08/2017 Data limite para entrega da documentação impressa Até 10 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -3136,22 +3132,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 016/2017 EMPRESA JUNIOR</t>
+          <t>CHAMADA CONFAP/FUNDO NEWTON – INSTITUTIONAL LINKS INOVAÇÃO SOCIAL 2017 – DESENVOLVIMENTO RURAL E BIO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0162017-empresa-junior/</t>
+          <t>https://www.fapema.br/8530/</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Objetivo :Promover a criação e a consolidação das empresas juniores localizadas nas Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 07/08/2017 Divulgação dos resultados A partir de 06/11/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Guidelines-for-applicants-Edital-em-ingles.pdf</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo :Promover a criação e a consolidação das empresas juniores localizadas nas Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 07/08/2017 Divulgação dos resultados A partir de 06/11/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Incentivar parcerias entre pesquisadores de grupos acadêmicos, do setor privado e do terceiro setor localizadas nos estados elegíveis e instituições britânicas de ensino superior e/ou pesquisa, em projetos de inovação social nas áreas de Desenvolvimento Rural e Biodiversidade. Os projetos devem ser tratados de maneira multidisciplinar, envolvendo pesquisa aplicada e tendo como foco central a formação de colaborações sustentáveis e duradouras, orientadas à solução de problemas. Especificamente para o Maranhão, a chamada se destina a pesquisadores de ONGs que atuem nas áreas de agricultura familiar e economia solidária. CHAMADA CONFAP/FUNDO NEWTON – INSTITUTIONAL LINKS INOVAÇÃO SOCIAL 2017 – DESENVOLVIMENTO RURAL E BIO Link para inscrição online:  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 13/06/2017 Divulgação dos resultados Até outubro de 2017 Prazo para envio da proposta impressa Até 15 dias após a divulgação do resultado Entrega documentação impressa Até 15 dias após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -3161,22 +3157,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 015/2017 INFRAESTRUTURA</t>
+          <t>Edital FAPEMA Nº 016/2017 EMPRESA JUNIOR</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0152017-infraestrutura/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0162017-empresa-junior/</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar implantação, recuperação e/ou modernização da infraestrutura para o desenvolvimento da pesquisa das instituições estaduais públicas de ensino superior e pesquisa do Maranhão. PROGRAMA DE APOIO À IMPLANTAÇÃO, RECUPERAÇÃO E MODERNIZAÇÃO DA INFRAESTRUTURA PARA PESQUISA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 29/06/2017 Divulgação dos resultados A partir de 04/09/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-n016_2017_EMPRESA-JUNIOR.pdf</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar implantação, recuperação e/ou modernização da infraestrutura para o desenvolvimento da pesquisa das instituições estaduais públicas de ensino superior e pesquisa do Maranhão. PROGRAMA DE APOIO À IMPLANTAÇÃO, RECUPERAÇÃO E MODERNIZAÇÃO DA INFRAESTRUTURA PARA PESQUISA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 29/06/2017 Divulgação dos resultados A partir de 04/09/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo :Promover a criação e a consolidação das empresas juniores localizadas nas Instituições de Ensino Superior (IES), públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 07/08/2017 Divulgação dos resultados A partir de 06/11/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3186,22 +3182,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 014/2017 PÓS-GRADUAÇÃO</t>
+          <t>Edital FAPEMA Nº 015/2017 INFRAESTRUTURA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0142017-pos-graduacao/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0152017-infraestrutura/</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Apoiar a aquisição de bens e a realização de serviços necessários para fortalecer os programas de pós-graduação das IES públicas sediadas no Maranhão, e contribuir para a progressão quantitativa e qualitativa da formação de recursos humanos no Estado. PROGRAMA DE APOIO APÓS-GRADUAÇÃO STRICTOSENSU EDITAL Nº 014/2017 – PÓS-GRADUAÇÃO. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 19/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-n-015_2017_INFRAESTRUTURA.pdf</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apoiar a aquisição de bens e a realização de serviços necessários para fortalecer os programas de pós-graduação das IES públicas sediadas no Maranhão, e contribuir para a progressão quantitativa e qualitativa da formação de recursos humanos no Estado. PROGRAMA DE APOIO APÓS-GRADUAÇÃO STRICTOSENSU EDITAL Nº 014/2017 – PÓS-GRADUAÇÃO. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 19/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar implantação, recuperação e/ou modernização da infraestrutura para o desenvolvimento da pesquisa das instituições estaduais públicas de ensino superior e pesquisa do Maranhão. PROGRAMA DE APOIO À IMPLANTAÇÃO, RECUPERAÇÃO E MODERNIZAÇÃO DA INFRAESTRUTURA PARA PESQUISA.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 26/06/2017 29/06/2017 Divulgação dos resultados A partir de 04/09/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3211,22 +3207,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 013/2017 COLEÇÕES BIOLÓGICAS – PRORROGADO</t>
+          <t>Edital FAPEMA Nº 014/2017 PÓS-GRADUAÇÃO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0132017-colecoes-biologicas-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0142017-pos-graduacao/</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a preservação e a restauração de coleções biológicas, arqueológicas e similares consideradas estratégicas para o Maranhão, como forma de contribuir para a conservação e difusão da biodiversidade do estado. APOIO ÀCOLEÇÕES BIOLÓGICAS E ARQUEOLÓGICAS DO MARANHÃO EDITAL FAPEMA Nº 013/2017 –COLEÇÕES BIOLÓGICAS. – PRORROGADO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 24/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-n-014_2017_PÓS-GRADUAÇÃO.pdf</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a preservação e a restauração de coleções biológicas, arqueológicas e similares consideradas estratégicas para o Maranhão, como forma de contribuir para a conservação e difusão da biodiversidade do estado. APOIO ÀCOLEÇÕES BIOLÓGICAS E ARQUEOLÓGICAS DO MARANHÃO EDITAL FAPEMA Nº 013/2017 –COLEÇÕES BIOLÓGICAS. – PRORROGADO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 24/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Apoiar a aquisição de bens e a realização de serviços necessários para fortalecer os programas de pós-graduação das IES públicas sediadas no Maranhão, e contribuir para a progressão quantitativa e qualitativa da formação de recursos humanos no Estado. PROGRAMA DE APOIO APÓS-GRADUAÇÃO STRICTOSENSU EDITAL Nº 014/2017 – PÓS-GRADUAÇÃO. © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 19/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3236,22 +3232,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Edital FAPEMA Nº 012/2017 ACERVOS – PRORROGADO</t>
+          <t>Edital FAPEMA Nº 013/2017 COLEÇÕES BIOLÓGICAS – PRORROGADO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0122017-acervos-prorrogado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0132017-colecoes-biologicas-prorrogado/</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar o programa de gestão, conservação, organização e informatização de acervos documentais e museológicos no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-n-013_2017_COLEÇÕES-BIOLÓGICAS.pdf</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar o programa de gestão, conservação, organização e informatização de acervos documentais e museológicos no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar a preservação e a restauração de coleções biológicas, arqueológicas e similares consideradas estratégicas para o Maranhão, como forma de contribuir para a conservação e difusão da biodiversidade do estado. APOIO ÀCOLEÇÕES BIOLÓGICAS E ARQUEOLÓGICAS DO MARANHÃO EDITAL FAPEMA Nº 013/2017 –COLEÇÕES BIOLÓGICAS. – PRORROGADO  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 24/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3261,22 +3257,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 011/2017 – ASSESSORIA INTERNACIONAL – RETIFICADO</t>
+          <t>Edital FAPEMA Nº 012/2017 ACERVOS – PRORROGADO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0112017-assessoria-internacional-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0122017-acervos-prorrogado/</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>APOIO AS ASSESSORIAS INTERNACIONAIS, Objetivo: Apoiar financeiramente a implantação ou a consolidação das Assessorias Internacionais nas instituições de ensino superior e/ou de pesquisa públicas, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 29/05/2017 Divulgação dos resultados A partir de 26/06/2017 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-FAPEMA-n-012_2017-ACERVOS.pdf</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">APOIO AS ASSESSORIAS INTERNACIONAIS, Objetivo: Apoiar financeiramente a implantação ou a consolidação das Assessorias Internacionais nas instituições de ensino superior e/ou de pesquisa públicas, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 29/05/2017 Divulgação dos resultados A partir de 26/06/2017 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Apoiar o programa de gestão, conservação, organização e informatização de acervos documentais e museológicos no Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 05/06/2017 12/06/2017 Divulgação dos resultados A partir de 21/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3286,22 +3282,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 010 / 2017 – ARTIGOS – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 011/2017 – ASSESSORIA INTERNACIONAL – RETIFICADO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-010-2017-artigos-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0112017-assessoria-internacional-retificado/</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PROGRAMA DE APOIO À PUBLICAÇÃO DE ARTIGOS, Objetivo: Apoiar a publicação de artigos científicos, tecnológicos ou de inovação em periódicos nacionais e internacionais de todas as áreas de conhecimento, produzidos por pesquisadores de instituições sediadas no Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades 1ª chamada 2ª chamada Data limite para inscrição on-line 11/04/17 a 22/05/17 07/08/17 a 18/09/17 Divulgação dos resultados A partir de 04/08/17 A partir de 27/10/17 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n.-011-2017-Assessoria-Internacional.pdf</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROGRAMA DE APOIO À PUBLICAÇÃO DE ARTIGOS, Objetivo: Apoiar a publicação de artigos científicos, tecnológicos ou de inovação em periódicos nacionais e internacionais de todas as áreas de conhecimento, produzidos por pesquisadores de instituições sediadas no Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades 1ª chamada 2ª chamada Data limite para inscrição on-line 11/04/17 a 22/05/17 07/08/17 a 18/09/17 Divulgação dos resultados A partir de 04/08/17 A partir de 27/10/17 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">APOIO AS ASSESSORIAS INTERNACIONAIS, Objetivo: Apoiar financeiramente a implantação ou a consolidação das Assessorias Internacionais nas instituições de ensino superior e/ou de pesquisa públicas, sediadas no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 29/05/2017 Divulgação dos resultados A partir de 26/06/2017 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3311,22 +3307,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 009/2017 – PERIÓDICOS</t>
+          <t>EDITAL FAPEMA Nº 010 / 2017 – ARTIGOS – RETIFICADO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0092017-periodicos/</t>
+          <t>https://www.fapema.br/edital-fapema-no-010-2017-artigos-retificado/</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PROGRAMA DE APOIO A PERÍODICOS CIENTÍFICOS E TECNOLÓGICOS, Objetivo: Incentivar a editoração e a publicação de periódicos científicos e tecnológicos maranhenses em todas as áreas de conhecimento de forma a contribuir para a socialização do conhecimento e para o desenvolvimento do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para Submissão eletrônica 22/05/2017 Divulgação dos resultados A partir de 14/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n.-010-2017-ARTIGOS.pdf</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROGRAMA DE APOIO A PERÍODICOS CIENTÍFICOS E TECNOLÓGICOS, Objetivo: Incentivar a editoração e a publicação de periódicos científicos e tecnológicos maranhenses em todas as áreas de conhecimento de forma a contribuir para a socialização do conhecimento e para o desenvolvimento do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para Submissão eletrônica 22/05/2017 Divulgação dos resultados A partir de 14/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">PROGRAMA DE APOIO À PUBLICAÇÃO DE ARTIGOS, Objetivo: Apoiar a publicação de artigos científicos, tecnológicos ou de inovação em periódicos nacionais e internacionais de todas as áreas de conhecimento, produzidos por pesquisadores de instituições sediadas no Maranhão.  © 2021 Copyright . Todos os direitos reservados. Atividades 1ª chamada 2ª chamada Data limite para inscrição on-line 11/04/17 a 22/05/17 07/08/17 a 18/09/17 Divulgação dos resultados A partir de 04/08/17 A partir de 27/10/17 Data limite para entrega da documentação Impressa Até 10 dias após a divulgação dos resultados Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3336,22 +3332,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 008/2017 – IECT GESTÃO PÚBLICA E ECONOMIA CRIATIVA</t>
+          <t>EDITAL FAPEMA Nº 009/2017 – PERIÓDICOS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0082017-iect-gestao-publica-e-economia-criativa/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0092017-periodicos/</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>APOIO AO IECT GESTÃO PÚBLICA E ECONOMIA CRIATIVA, Objetivo: Apoiar pesquisas sobre a propriedade enquanto instituição social em suas distintas dimensões, com ênfase para seus efeitos sobre a produção e o acesso a bens materiais e imateriais, gerando subsídios para o fortalecimento do IECT – Gestão Pública e Economia Criativa e possibilitando a produção de conhecimento científico articulado com grupos de pesquisa do país e do exterior  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n.-009-2017-PERIODICOS-1.pdf</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">APOIO AO IECT GESTÃO PÚBLICA E ECONOMIA CRIATIVA, Objetivo: Apoiar pesquisas sobre a propriedade enquanto instituição social em suas distintas dimensões, com ênfase para seus efeitos sobre a produção e o acesso a bens materiais e imateriais, gerando subsídios para o fortalecimento do IECT – Gestão Pública e Economia Criativa e possibilitando a produção de conhecimento científico articulado com grupos de pesquisa do país e do exterior  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado </t>
+          <t xml:space="preserve">PROGRAMA DE APOIO A PERÍODICOS CIENTÍFICOS E TECNOLÓGICOS, Objetivo: Incentivar a editoração e a publicação de periódicos científicos e tecnológicos maranhenses em todas as áreas de conhecimento de forma a contribuir para a socialização do conhecimento e para o desenvolvimento do Maranhão.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para Submissão eletrônica 22/05/2017 Divulgação dos resultados A partir de 14/08/17 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3361,22 +3357,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 007 / 2017 – IECT BIOTECNOLOGIA</t>
+          <t>EDITAL FAPEMA Nº 008/2017 – IECT GESTÃO PÚBLICA E ECONOMIA CRIATIVA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-007-2017-iect-biotecnologia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0082017-iect-gestao-publica-e-economia-criativa/</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>APOIO AO IECT BIOTECNOLOGIA, Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação na área de biotecnologia, a serem desenvolvidos nas instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, no intuito de consolidar o IECT Biotecnologia, credenciado pela SECTI.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n.008-2017-IECT-Gestão-pública-e-economia-criativa.pdf</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">APOIO AO IECT BIOTECNOLOGIA, Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação na área de biotecnologia, a serem desenvolvidos nas instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, no intuito de consolidar o IECT Biotecnologia, credenciado pela SECTI.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado </t>
+          <t xml:space="preserve">APOIO AO IECT GESTÃO PÚBLICA E ECONOMIA CRIATIVA, Objetivo: Apoiar pesquisas sobre a propriedade enquanto instituição social em suas distintas dimensões, com ênfase para seus efeitos sobre a produção e o acesso a bens materiais e imateriais, gerando subsídios para o fortalecimento do IECT – Gestão Pública e Economia Criativa e possibilitando a produção de conhecimento científico articulado com grupos de pesquisa do país e do exterior  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -3386,22 +3382,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chamada CONFAP – European Research Council – ERC</t>
+          <t>EDITAL FAPEMA Nº 007 / 2017 – IECT BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-confap-european-research-council-erc-2/</t>
+          <t>https://www.fapema.br/edital-fapema-no-007-2017-iect-biotecnologia/</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Chamada para pesquisadores no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa – ERC. O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessem:  © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-n.-007-2017-IECT-Biotecnologia-1.pdf</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chamada para pesquisadores no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa – ERC. O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessem:  © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">APOIO AO IECT BIOTECNOLOGIA, Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação na área de biotecnologia, a serem desenvolvidos nas instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no Maranhão, no intuito de consolidar o IECT Biotecnologia, credenciado pela SECTI.  © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para inscrição on-line 12/06/2017 20/06/2017 Divulgação dos resultados A partir de 07/08/2017 Data limite para entrega da documentação Impressa Até 10 dias após o resultado </t>
         </is>
       </c>
     </row>
@@ -3411,22 +3407,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 047/2017 – PÓS-DOUTORADO NO PAÍS E NO EXTERIOR</t>
+          <t>Chamada CONFAP – European Research Council – ERC</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0472017-pos-doutorado-no-pais-e-no-exterior/</t>
+          <t>https://www.fapema.br/chamada-confap-european-research-council-erc-2/</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PROGRAMA DE CONCESSÃO DE BOLSAS DE PÓS-DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: fortalecer o ensino superior, a pesquisa científica, tecnológica e de inovação, contribuindo para a formação de professores e pesquisadores do Maranhão, com a concessão de bolsas pós-doutorado em Instituições de reconhecida excelência fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/CONFAP_ERC_Call-for-EoI-1.pdf</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROGRAMA DE CONCESSÃO DE BOLSAS DE PÓS-DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: fortalecer o ensino superior, a pesquisa científica, tecnológica e de inovação, contribuindo para a formação de professores e pesquisadores do Maranhão, com a concessão de bolsas pós-doutorado em Instituições de reconhecida excelência fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
+          <t xml:space="preserve">Chamada para pesquisadores no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa – ERC. O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessem:  © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -3436,22 +3432,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 046/2017 – DOUTORADO NO PAÍS E NO EXTERIOR</t>
+          <t>EDITAL FAPEMA Nº 047/2017 – PÓS-DOUTORADO NO PAÍS E NO EXTERIOR</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0462017-doutorado-no-pais-e-no-exterior/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0472017-pos-doutorado-no-pais-e-no-exterior/</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>BOLSAS DE DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de doutorado em Instituições de Ensino Superior (IES), fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-Fapema-Nº-47-2017-Bolsa-de-Pós-Doutorado-no-País-e-no-exterior_retificado.pdf</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOLSAS DE DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de doutorado em Instituições de Ensino Superior (IES), fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
+          <t xml:space="preserve">PROGRAMA DE CONCESSÃO DE BOLSAS DE PÓS-DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: fortalecer o ensino superior, a pesquisa científica, tecnológica e de inovação, contribuindo para a formação de professores e pesquisadores do Maranhão, com a concessão de bolsas pós-doutorado em Instituições de reconhecida excelência fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
         </is>
       </c>
     </row>
@@ -3461,22 +3457,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 045/2017 – MESTRADO NO PAÍS</t>
+          <t>EDITAL FAPEMA Nº 046/2017 – DOUTORADO NO PAÍS E NO EXTERIOR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0452017-mestrado-no-pais/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0462017-doutorado-no-pais-e-no-exterior/</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PROGRAMA DE CONCESSÃO DE BOLSAS DE MESTRADO NO PAÍS, Objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de mestrado em Instituições de Ensino Superior (IES), fora do estado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-Fapema-Nº-46-2017-Bolsa-de-Doutorado-no-País-e-no-exterior.pdf</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROGRAMA DE CONCESSÃO DE BOLSAS DE MESTRADO NO PAÍS, Objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de mestrado em Instituições de Ensino Superior (IES), fora do estado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
+          <t xml:space="preserve">BOLSAS DE DOUTORADO NO PAÍS E NO EXTERIOR, objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de doutorado em Instituições de Ensino Superior (IES), fora do estado do Maranhão e no exterior.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
         </is>
       </c>
     </row>
@@ -3486,22 +3482,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 043/2017 – NEIVA MOREIRA LIVROS</t>
+          <t>EDITAL FAPEMA Nº 045/2017 – MESTRADO NO PAÍS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-n-o-043-2017-neiva-moreira-livros/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0452017-mestrado-no-pais/</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PROGRAMA DE APOIO À PUBLICAÇÃO DE LIVROS, COLETÂNEAS E CATÁLOGOS, Objetivo: Incentivar a divulgação técnico-científica de natureza inédita, por meio do apoio a partir da publicação de livros, coletâneas e catálogos em todas as áreas do conhecimento.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 18/12/2017 Divulgação dos resultados A partir de 02/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-Fapema-Nº-45-2017-Bolsa-de-Mestrado-no-País.pdf</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROGRAMA DE APOIO À PUBLICAÇÃO DE LIVROS, COLETÂNEAS E CATÁLOGOS, Objetivo: Incentivar a divulgação técnico-científica de natureza inédita, por meio do apoio a partir da publicação de livros, coletâneas e catálogos em todas as áreas do conhecimento.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 18/12/2017 Divulgação dos resultados A partir de 02/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">PROGRAMA DE CONCESSÃO DE BOLSAS DE MESTRADO NO PAÍS, Objetivo: contribuir para a qualificação de professores e pesquisadores do Maranhão com a concessão de bolsas para estudantes de programas de pós-graduação em nível de mestrado em Instituições de Ensino Superior (IES), fora do estado.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 22/12/2017 Divulgação dos candidatos aprovados A partir de 19/02/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado Início da implementação das bolsas A partir de março de 2018 </t>
         </is>
       </c>
     </row>
@@ -3511,22 +3507,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 040/2017 – Inclusão Produtiva Quilombola – Prorrogado</t>
+          <t>EDITAL FAPEMA Nº 043/2017 – NEIVA MOREIRA LIVROS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0402017-inclusao-produtiva-quilombola/</t>
+          <t>https://www.fapema.br/edital-n-o-043-2017-neiva-moreira-livros/</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA em parceria com a Secretaria de Estado de Igualdade Racial, com o objetivo de promover o desenvolvimento socioeconômico, o empreendedorismo com inclusão nas principais cadeias produtivas de maneira sustentável e a diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 040/2017 e convidam todos (as) os interessados (as) a apresentarem seus projetos de pesquisa com foco na inclusão produtiva para as comunidades rurais quilombolas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/01/2018 Divulgação dos candidatos aprovados A partir de 05/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/10/Edital-Fapema-Neiva-Moreira-Livros_n-043-217.pdf</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA em parceria com a Secretaria de Estado de Igualdade Racial, com o objetivo de promover o desenvolvimento socioeconômico, o empreendedorismo com inclusão nas principais cadeias produtivas de maneira sustentável e a diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 040/2017 e convidam todos (as) os interessados (as) a apresentarem seus projetos de pesquisa com foco na inclusão produtiva para as comunidades rurais quilombolas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/01/2018 Divulgação dos candidatos aprovados A partir de 05/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado </t>
+          <t xml:space="preserve">PROGRAMA DE APOIO À PUBLICAÇÃO DE LIVROS, COLETÂNEAS E CATÁLOGOS, Objetivo: Incentivar a divulgação técnico-científica de natureza inédita, por meio do apoio a partir da publicação de livros, coletâneas e catálogos em todas as áreas do conhecimento.  © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 18/12/2017 Divulgação dos resultados A partir de 02/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3536,22 +3532,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>EDITAL VALE-FAPEMA nº 039/2017 – LOGÍSTICA E SOCIEDADE – Prorrogado</t>
+          <t>EDITAL FAPEMA Nº 040/2017 – Inclusão Produtiva Quilombola – Prorrogado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-vale-fapema-no-0392017-logistica-e-sociedade/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0402017-inclusao-produtiva-quilombola/</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar atividades de pesquisa científica e tecnológica, mediante a seleção de propostas para apoio financeiro a projetos de pesquisa científica, tecnológica e inovação a serem desenvolvidos por grupos de pesquisadores de Instituições de Ensino Superior e/ou de Pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão e em parceria com a VALE.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Publicação do Edital 27 de setembro de 2017 Data limite para inscrição on-line 19 de março de 2018 Divulgação das propostas aprovadas no mérito científico 25 de junho de 2018 Prazo para apresentação de recurso sobre o mérito científico 05 dias úteis após a divulgação Divulgação das propostas aprovadas em Impacto e Relevância 20 de agosto de 2018 Prazo para apresentação de recurso sobre Impacto e Relevância 05 dias úteis após a divulgação Divulgação do Resultado Final 03 de agosto de 2018 Entrega da documentação impressa 10 dias após a divulgação dos resultados finais Contratação das propostas aprovadas A partir de 10 de outubro de 2018</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/01/EDITAL-FAPEMA-Nº-040-2017-Inclusão-Produtiva-Quilombola.pdf</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar atividades de pesquisa científica e tecnológica, mediante a seleção de propostas para apoio financeiro a projetos de pesquisa científica, tecnológica e inovação a serem desenvolvidos por grupos de pesquisadores de Instituições de Ensino Superior e/ou de Pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão e em parceria com a VALE.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Publicação do Edital 27 de setembro de 2017 Data limite para inscrição on-line 19 de março de 2018 Divulgação das propostas aprovadas no mérito científico 25 de junho de 2018 Prazo para apresentação de recurso sobre o mérito científico 05 dias úteis após a divulgação Divulgação das propostas aprovadas em Impacto e Relevância 20 de agosto de 2018 Prazo para apresentação de recurso sobre Impacto e Relevância 05 dias úteis após a divulgação Divulgação do Resultado Final 03 de agosto de 2018 Entrega da documentação impressa 10 dias após a divulgação dos resultados finais Contratação das propostas aprovadas A partir de 10 de outubro de 2018 </t>
+          <t xml:space="preserve">O Governo do Estado do Maranhão e a Secretaria de Estado de Ciência, Tecnologia e Inovação – SECTI, por meio da Fundação de Amparo à Pesquisa do Maranhão – FAPEMA em parceria com a Secretaria de Estado de Igualdade Racial, com o objetivo de promover o desenvolvimento socioeconômico, o empreendedorismo com inclusão nas principais cadeias produtivas de maneira sustentável e a diminuição dos impactos da tecnologia no meio ambiente, dentro da linha de ação “Mais Inovação” e no âmbito do Programa “Tecnologia Social”, tornam público o presente Edital nº 040/2017 e convidam todos (as) os interessados (as) a apresentarem seus projetos de pesquisa com foco na inclusão produtiva para as comunidades rurais quilombolas nos termos aqui estabelecidos.   © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Data limite para inscrição on-line 29/01/2018 Divulgação dos candidatos aprovados A partir de 05/03/2018 Data limite para entrega da documentação impressa Até 05 dias após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -3561,22 +3557,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chamada CONFAP – European Research Council – ERC</t>
+          <t>EDITAL VALE-FAPEMA nº 039/2017 – LOGÍSTICA E SOCIEDADE – Prorrogado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/chamada-confap-european-research-council-erc/</t>
+          <t>https://www.fapema.br/edital-vale-fapema-no-0392017-logistica-e-sociedade/</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessesm:  © 2021 Copyright . Todos os direitos reservados.</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2018/03/Edital-n-039_2017-Logística-e-Sociedade_prorrogado.pdf</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessesm:  © 2021 Copyright . Todos os direitos reservados. </t>
+          <t xml:space="preserve">Objetivo: Apoiar atividades de pesquisa científica e tecnológica, mediante a seleção de propostas para apoio financeiro a projetos de pesquisa científica, tecnológica e inovação a serem desenvolvidos por grupos de pesquisadores de Instituições de Ensino Superior e/ou de Pesquisa públicas ou privadas sem fins lucrativos, sediadas no estado do Maranhão e em parceria com a VALE.    © 2021 Copyright . Todos os direitos reservados. ATIVIDADES DATA Publicação do Edital 27 de setembro de 2017 Data limite para inscrição on-line 19 de março de 2018 Divulgação das propostas aprovadas no mérito científico 25 de junho de 2018 Prazo para apresentação de recurso sobre o mérito científico 05 dias úteis após a divulgação Divulgação das propostas aprovadas em Impacto e Relevância 20 de agosto de 2018 Prazo para apresentação de recurso sobre Impacto e Relevância 05 dias úteis após a divulgação Divulgação do Resultado Final 03 de agosto de 2018 Entrega da documentação impressa 10 dias após a divulgação dos resultados finais Contratação das propostas aprovadas A partir de 10 de outubro de 2018 </t>
         </is>
       </c>
     </row>
@@ -3586,22 +3582,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 006/2017 – GERAÇÃO CIÊNCIA – RETIFICADO</t>
+          <t>Chamada CONFAP – European Research Council – ERC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0062017-geracao-ciencia-retificado/</t>
+          <t>https://www.fapema.br/chamada-confap-european-research-council-erc/</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Objetivo: Estimular a juventude no processo de produção do conhecimento científico ao contribuir para o processo de formação acadêmica dos estudantes das instituições públicas de ensino médio e técnico, sediadas no Maranhão.   © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/04/CONFAP_ERC_Call-for-EoI.pdf</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Estimular a juventude no processo de produção do conhecimento científico ao contribuir para o processo de formação acadêmica dos estudantes das instituições públicas de ensino médio e técnico, sediadas no Maranhão.   © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">O Conselho Nacional das Fundações Estaduais de Amparo à Pesquisa (Confap) está com inscrições abertas a pesquisadores PhDs brasileiros, no âmbito de projetos financiados pelo Conselho Europeu de Pesquisa (European Research Council – ERC). A chamada para manifestação de interesse de pesquisadores brasileiros para integrar equipes de Pesquisadores Principais com projetos financiados pelo ERC (ERC Grantees) pode ser de curto ou longo prazo (até 12 meses). Maiores informações acessesm:  © 2021 Copyright . Todos os direitos reservados. </t>
         </is>
       </c>
     </row>
@@ -3611,22 +3607,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 005/2017 – JUVENTUDE COM CIÊNCIA</t>
+          <t>EDITAL FAPEMA Nº 006/2017 – GERAÇÃO CIÊNCIA – RETIFICADO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0052017-juventude-com-ciencia/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0062017-geracao-ciencia-retificado/</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Objetivo: Contribuir para a formação de estudantes vinculados às instituições de ensino da rede pública, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista que contribuam para melhoria dos indicadores sociais do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/04/Edital-006-2017-GERAÇÃO-CIÊNCIA.pdf</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Contribuir para a formação de estudantes vinculados às instituições de ensino da rede pública, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista que contribuam para melhoria dos indicadores sociais do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivo: Estimular a juventude no processo de produção do conhecimento científico ao contribuir para o processo de formação acadêmica dos estudantes das instituições públicas de ensino médio e técnico, sediadas no Maranhão.   © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3636,22 +3632,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 004/2017 – MESTRES E MESTRAS</t>
+          <t>EDITAL FAPEMA Nº 005/2017 – JUVENTUDE COM CIÊNCIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0042017-mestres-e-mestras/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0052017-juventude-com-ciencia/</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Obejtivo: Fomentar o reconhecimento e a valorização dos detentores dos conhecimentos e expressões culturais populares e tradicionais que, por seus saberes e pelas suas formas de expressão, preservam a história e a memória maranhenses, fortalecem o sentimento de identidade e pertencimento, por meio de premiação aos Mestres e Mestras da cultura maranhense.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição 15/05/2017 Divulgação do resultado preliminar A partir de 10/07/2017 Prazo para recursos Até 05 dias úteis após a divulgação do resultado Homologação do resultado final A partir de 28/07/2017 Cadastro financeiros dos(as) vencedores(as) para repasse da premiação Até 10 dias após a divulgação do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/04/Edital-005-2017-JUVENTUDE-COM-CIÊNCIA.pdf</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obejtivo: Fomentar o reconhecimento e a valorização dos detentores dos conhecimentos e expressões culturais populares e tradicionais que, por seus saberes e pelas suas formas de expressão, preservam a história e a memória maranhenses, fortalecem o sentimento de identidade e pertencimento, por meio de premiação aos Mestres e Mestras da cultura maranhense.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição 15/05/2017 Divulgação do resultado preliminar A partir de 10/07/2017 Prazo para recursos Até 05 dias úteis após a divulgação do resultado Homologação do resultado final A partir de 28/07/2017 Cadastro financeiros dos(as) vencedores(as) para repasse da premiação Até 10 dias após a divulgação do resultado </t>
+          <t xml:space="preserve">Objetivo: Contribuir para a formação de estudantes vinculados às instituições de ensino da rede pública, por meio da mobilidade acadêmica, para o desenvolvimento de projetos de caráter extensionista que contribuam para melhoria dos indicadores sociais do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição online 15/05/2017 Divulgação das propostas aprovadas A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3661,22 +3657,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 003/2017 – PATRIMÔNIO IMATERIAL</t>
+          <t>EDITAL FAPEMA Nº 004/2017 – MESTRES E MESTRAS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0032017-patrimonio-imaterial/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0042017-mestres-e-mestras/</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Obejtivo: Apoiar pesquisas voltadas ao patrimônio cultural imaterial com vistas à sua valorização, preservação, salvaguarda e divulgação no âmbito do Estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 24/04/2017 Divulgação das propostas aprovadas A partir de 19/06/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/EDITAL-FAPEMA-Nº-004-2017-MESTRES-E-MESTRAS.pdf</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obejtivo: Apoiar pesquisas voltadas ao patrimônio cultural imaterial com vistas à sua valorização, preservação, salvaguarda e divulgação no âmbito do Estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 24/04/2017 Divulgação das propostas aprovadas A partir de 19/06/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado </t>
+          <t xml:space="preserve">Obejtivo: Fomentar o reconhecimento e a valorização dos detentores dos conhecimentos e expressões culturais populares e tradicionais que, por seus saberes e pelas suas formas de expressão, preservam a história e a memória maranhenses, fortalecem o sentimento de identidade e pertencimento, por meio de premiação aos Mestres e Mestras da cultura maranhense.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição 15/05/2017 Divulgação do resultado preliminar A partir de 10/07/2017 Prazo para recursos Até 05 dias úteis após a divulgação do resultado Homologação do resultado final A partir de 28/07/2017 Cadastro financeiros dos(as) vencedores(as) para repasse da premiação Até 10 dias após a divulgação do resultado </t>
         </is>
       </c>
     </row>
@@ -3686,22 +3682,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 002/2017 – POPVIDEO CIÊNCIAS 2017 – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 003/2017 – PATRIMÔNIO IMATERIAL</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0022017-popvideo-ciencias-2017-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0032017-patrimonio-imaterial/</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Objetivo: Visa promover a disseminação do conhecimento científico produzido no estado do Maranhão por pesquisadores(as) por meio da divulgação de pesquisas sob o formato de vídeo incentivando a popularização da ciência.   © 2021 Copyright . Todos os direitos reservados. Descrição Datas Data limite para Inscrição on-line 15/03/2017 Divulgação dos resultados A partir de 17/03/2017 Resultado Final – Cerimônia de Premiação 23/03/2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/EDITAL-FAPEMA-Nº-003-2017-–-PATRIMÔNIO-IMATERIAL.pdf</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Visa promover a disseminação do conhecimento científico produzido no estado do Maranhão por pesquisadores(as) por meio da divulgação de pesquisas sob o formato de vídeo incentivando a popularização da ciência.   © 2021 Copyright . Todos os direitos reservados. Descrição Datas Data limite para Inscrição on-line 15/03/2017 Divulgação dos resultados A partir de 17/03/2017 Resultado Final – Cerimônia de Premiação 23/03/2017 </t>
+          <t xml:space="preserve">Obejtivo: Apoiar pesquisas voltadas ao patrimônio cultural imaterial com vistas à sua valorização, preservação, salvaguarda e divulgação no âmbito do Estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 24/04/2017 Divulgação das propostas aprovadas A partir de 19/06/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado </t>
         </is>
       </c>
     </row>
@@ -3711,22 +3707,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FAMELAB 2017 – INSCRIÇÃO DE VIDEO DE CURTA DURAÇÃO</t>
+          <t>EDITAL FAPEMA Nº 002/2017 – POPVIDEO CIÊNCIAS 2017 – RETIFICADO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/famelab-2017-inscricao-de-video-de-curta-duracao/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0022017-popvideo-ciencias-2017-retificado/</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Objetivo do edital: Promover a aproximação entre cientistas e público em geral, por meio da contextualização e abordagem de temas científicos do dia a dia da sociedade e incentivar o desenvolvimento de competências de comunicação, em especial a habilidade oral. Público-alvo: Poderão inscrever-se Bolsistas de Mestrado, Doutorado, Doutorado Direto e Pós- Doutorado, com bolsa vigente até o dia 30 de junho de 2017 ou data posterior, nas áreas de Ciências da Vida ou Ciências Exatas e Engenharias e que sejam fluentes em Português e Inglês. Os bolsistas deverão ser das agências: CNPq, FAPEMA ou outras Fundações previstas no edital. Inscrições: © 2021 Copyright . Todos os direitos reservados. Data limite de inscrições prorrogada 08 de março de 2017 Divulgação dos resultados 10 de abril de 2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/Edital-nº02.2017-PREMIO-POPVIDEO-CIENCIAS.pdf</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo do edital: Promover a aproximação entre cientistas e público em geral, por meio da contextualização e abordagem de temas científicos do dia a dia da sociedade e incentivar o desenvolvimento de competências de comunicação, em especial a habilidade oral. Público-alvo: Poderão inscrever-se Bolsistas de Mestrado, Doutorado, Doutorado Direto e Pós- Doutorado, com bolsa vigente até o dia 30 de junho de 2017 ou data posterior, nas áreas de Ciências da Vida ou Ciências Exatas e Engenharias e que sejam fluentes em Português e Inglês. Os bolsistas deverão ser das agências: CNPq, FAPEMA ou outras Fundações previstas no edital. Inscrições: © 2021 Copyright . Todos os direitos reservados. Data limite de inscrições prorrogada 08 de março de 2017 Divulgação dos resultados 10 de abril de 2017 </t>
+          <t xml:space="preserve">Objetivo: Visa promover a disseminação do conhecimento científico produzido no estado do Maranhão por pesquisadores(as) por meio da divulgação de pesquisas sob o formato de vídeo incentivando a popularização da ciência.   © 2021 Copyright . Todos os direitos reservados. Descrição Datas Data limite para Inscrição on-line 15/03/2017 Divulgação dos resultados A partir de 17/03/2017 Resultado Final – Cerimônia de Premiação 23/03/2017 </t>
         </is>
       </c>
     </row>
@@ -3736,22 +3732,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA Nº 001/2017 – IGNÁCIO RANGEL – RETIFICADO</t>
+          <t>FAMELAB 2017 – INSCRIÇÃO DE VIDEO DE CURTA DURAÇÃO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-0012017-ignacio-rangel-retificado/</t>
+          <t>https://www.fapema.br/famelab-2017-inscricao-de-video-de-curta-duracao/</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Objetivos: Apoiar projetos de pesquisas voltados aos estudos e proposições sobre questões estratégicas para o desenvolvimento do Brasil e do Maranhão, resultando na produção de subsídios ao Poder Público nas três esferas (federal, estadual e municipal) com vistas à implementação de ações nessa perspectiva, por meio de bolsas e auxílios para professor(a) visitante. a) Estimular a fixação de doutores(as) e recém-doutores(as) nas Instituições de Ensino Superior (IES) e/ou Pesquisa no estado do Maranhão com experiência nos eixos temáticos constantes neste edital; b) Apoiar e fortalecer o Centro Ignácio Rangel, vinculado à SECTI, por meio de pesquisas que visem contribuir para o desenvolvimento do Maranhão e do Brasil; c) Fortalecer as universidades no Maranhão, sobretudo as estaduais, ampliando projetos de pesquisa e inovação nas áreas contempladas por este edital; d) Apoiar pesquisas voltadas ao estudo sobre questões estratégicas ligadas ao desenvolvimento regional e nacional, articuladas às ações de políticas públicas nas três esferas do Poder Público, por meio de bolsas para professor(a) visitante  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 22/05/2017 Divulgação do resultado A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/FAMELAB.pdf</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivos: Apoiar projetos de pesquisas voltados aos estudos e proposições sobre questões estratégicas para o desenvolvimento do Brasil e do Maranhão, resultando na produção de subsídios ao Poder Público nas três esferas (federal, estadual e municipal) com vistas à implementação de ações nessa perspectiva, por meio de bolsas e auxílios para professor(a) visitante. a) Estimular a fixação de doutores(as) e recém-doutores(as) nas Instituições de Ensino Superior (IES) e/ou Pesquisa no estado do Maranhão com experiência nos eixos temáticos constantes neste edital; b) Apoiar e fortalecer o Centro Ignácio Rangel, vinculado à SECTI, por meio de pesquisas que visem contribuir para o desenvolvimento do Maranhão e do Brasil; c) Fortalecer as universidades no Maranhão, sobretudo as estaduais, ampliando projetos de pesquisa e inovação nas áreas contempladas por este edital; d) Apoiar pesquisas voltadas ao estudo sobre questões estratégicas ligadas ao desenvolvimento regional e nacional, articuladas às ações de políticas públicas nas três esferas do Poder Público, por meio de bolsas para professor(a) visitante  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 22/05/2017 Divulgação do resultado A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado </t>
+          <t xml:space="preserve">Objetivo do edital: Promover a aproximação entre cientistas e público em geral, por meio da contextualização e abordagem de temas científicos do dia a dia da sociedade e incentivar o desenvolvimento de competências de comunicação, em especial a habilidade oral. Público-alvo: Poderão inscrever-se Bolsistas de Mestrado, Doutorado, Doutorado Direto e Pós- Doutorado, com bolsa vigente até o dia 30 de junho de 2017 ou data posterior, nas áreas de Ciências da Vida ou Ciências Exatas e Engenharias e que sejam fluentes em Português e Inglês. Os bolsistas deverão ser das agências: CNPq, FAPEMA ou outras Fundações previstas no edital. Inscrições: © 2021 Copyright . Todos os direitos reservados. Data limite de inscrições prorrogada 08 de março de 2017 Divulgação dos resultados 10 de abril de 2017 </t>
         </is>
       </c>
     </row>
@@ -3761,22 +3757,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA n.º 031/2016  UNIVERSAL – RETIFICADO</t>
+          <t>EDITAL FAPEMA Nº 001/2017 – IGNÁCIO RANGEL – RETIFICADO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-n-o-0312016-universal-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-no-0012017-ignacio-rangel-retificado/</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, a serem desenvolvidos em instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para Inscrição on-line 20/03/2017 Divulgação dos candidatos aprovados A partir de 05/06/2017 Data limite para Entrega da Documentação Impressa Até 10 dias após a divulgação dos resultados</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/EDITAL-FAPEMA-Nº-001-2017-–-IGNACIO-RANGEL.pdf</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, a serem desenvolvidos em instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para Inscrição on-line 20/03/2017 Divulgação dos candidatos aprovados A partir de 05/06/2017 Data limite para Entrega da Documentação Impressa Até 10 dias após a divulgação dos resultados </t>
+          <t xml:space="preserve">Objetivos: Apoiar projetos de pesquisas voltados aos estudos e proposições sobre questões estratégicas para o desenvolvimento do Brasil e do Maranhão, resultando na produção de subsídios ao Poder Público nas três esferas (federal, estadual e municipal) com vistas à implementação de ações nessa perspectiva, por meio de bolsas e auxílios para professor(a) visitante. a) Estimular a fixação de doutores(as) e recém-doutores(as) nas Instituições de Ensino Superior (IES) e/ou Pesquisa no estado do Maranhão com experiência nos eixos temáticos constantes neste edital; b) Apoiar e fortalecer o Centro Ignácio Rangel, vinculado à SECTI, por meio de pesquisas que visem contribuir para o desenvolvimento do Maranhão e do Brasil; c) Fortalecer as universidades no Maranhão, sobretudo as estaduais, ampliando projetos de pesquisa e inovação nas áreas contempladas por este edital; d) Apoiar pesquisas voltadas ao estudo sobre questões estratégicas ligadas ao desenvolvimento regional e nacional, articuladas às ações de políticas públicas nas três esferas do Poder Público, por meio de bolsas para professor(a) visitante  © 2021 Copyright . Todos os direitos reservados. Data limite da inscrição on-line 22/05/2017 Divulgação do resultado A partir de 03/07/2017 Entrega da documentação impressa Até 10 dias após a divulgaçao do resultado </t>
         </is>
       </c>
     </row>
@@ -3786,22 +3782,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>EDITAL FAPEMA nº 30/2016 AREC – RETIFICADO</t>
+          <t>EDITAL FAPEMA n.º 031/2016  UNIVERSAL – RETIFICADO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/edital-fapema-no-302016-arec-retificado/</t>
+          <t>https://www.fapema.br/edital-fapema-n-o-0312016-universal-retificado/</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a realização de eventos científicos, tecnológicos e/ou de inovação, de âmbito internacional, nacional, regional e local, no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/Edital-FAPEMA-nº-31-UNIVERSAL-2016.pdf</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a realização de eventos científicos, tecnológicos e/ou de inovação, de âmbito internacional, nacional, regional e local, no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017 </t>
+          <t xml:space="preserve">Objetivo: Apoiar projetos de pesquisa científica, tecnológica e de inovação nas diversas áreas do conhecimento, a serem desenvolvidos em instituições de pesquisa e/ou de ensino superior, públicas ou privadas, sem fins lucrativos, sediadas no estado do Maranhão.   © 2021 Copyright . Todos os direitos reservados. Atividades Datas Data limite para Inscrição on-line 20/03/2017 Divulgação dos candidatos aprovados A partir de 05/06/2017 Data limite para Entrega da Documentação Impressa Até 10 dias após a divulgação dos resultados </t>
         </is>
       </c>
     </row>
@@ -3811,22 +3807,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>EDITAL Nº 029/2016 – APEC – RETIFICADO</t>
+          <t>EDITAL FAPEMA nº 30/2016 AREC – RETIFICADO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.fapema.br/apoio-a-participacao-em-eventos-cientifico/</t>
+          <t>https://www.fapema.br/edital-fapema-no-302016-arec-retificado/</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Objetivo: Apoiar a participação em eventos de curta duração de Pesquisa e Desenvolvimento em Ciência, Tecnologia e Inovação, no país e no exterior. Retificação no item 2.6 da Tabela de Avaliação Curricular – ANEXO I © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017</t>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/Edital-FAPEMA-nº-30-AREC-2016.pdf</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Objetivo: Apoiar a participação em eventos de curta duração de Pesquisa e Desenvolvimento em Ciência, Tecnologia e Inovação, no país e no exterior. Retificação no item 2.6 da Tabela de Avaliação Curricular – ANEXO I © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017 </t>
+          <t xml:space="preserve">Objetivo: Apoiar a realização de eventos científicos, tecnológicos e/ou de inovação, de âmbito internacional, nacional, regional e local, no estado do Maranhão.  © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017 </t>
         </is>
       </c>
     </row>
@@ -3836,20 +3832,45 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>EDITAL Nº 029/2016 – APEC – RETIFICADO</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.fapema.br/apoio-a-participacao-em-eventos-cientifico/</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/Edital-FAPEMA-nº-29-APEC-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Objetivo: Apoiar a participação em eventos de curta duração de Pesquisa e Desenvolvimento em Ciência, Tecnologia e Inovação, no país e no exterior. Retificação no item 2.6 da Tabela de Avaliação Curricular – ANEXO I © 2021 Copyright . Todos os direitos reservados. Chamadas Período do Evento Período de Inscrição Resultado Entrega da Documentação Impressa 1ª 01/04/2017 a 30/06/2017 23/12/2016 a 31/01/2017 A partir de 20/02/2017 05 dias após a divulgação do resultado 2ª 01/07/2017 a 30/09/2017 06/03/2017 a 17/04/2017 A partir de 22/05/2017 3ª 01/10/2017 a 31/12/2017 05/06/2017 a 17/07/2017 A partir de 21/08/2017 4ª 01/01/2018 a 31/03/2018 21/08/2017 a 02/10/2017 A partir de 23/10/2017 </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>EDITAL Nº 022.2016 – COMITÊS TÉCNICO-CIENTÍFICOS</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>https://www.fapema.br/edital-no-022-2016-comites-tecnico-cientificos/</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Objetivo: Apoiar como com um auxílio suplementar de pesquisa a participação do consultor ad hoc em pareceres e comitês de julgamento de interesse da FAPEMA.  © 2021 Copyright . Todos os direitos reservados. Período de Participçaão Solicitações Créditos 1ª Solicitação Agosto de 2016 a janeiro de 2017 01 a 28 de fevereiro de 2017 Até 30 de abril de 2017 2ª Solicitação Fevereiro de 2017 a Julho de 2017 01 a 30 de agosto de 2017 Até 30 de outubro de 2017</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.fapema.br/wp-content/plugins/pdfjs-viewer-shortcode/pdfjs/web/viewer.php?file=/wp-content/uploads/2017/03/EDITAL-Nº-022.2016-–-COMITÊS-TÉCNICO-CIENTÍFICOS.pdf</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t xml:space="preserve">Objetivo: Apoiar como com um auxílio suplementar de pesquisa a participação do consultor ad hoc em pareceres e comitês de julgamento de interesse da FAPEMA.  © 2021 Copyright . Todos os direitos reservados. Período de Participçaão Solicitações Créditos 1ª Solicitação Agosto de 2016 a janeiro de 2017 01 a 28 de fevereiro de 2017 Até 30 de abril de 2017 2ª Solicitação Fevereiro de 2017 a Julho de 2017 01 a 30 de agosto de 2017 Até 30 de outubro de 2017 </t>
         </is>
